--- a/Web/coyni/resources/TestData_Api.xlsx
+++ b/Web/coyni/resources/TestData_Api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A9198-CB62-4DD9-9A2E-DF777C3130E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098715F4-657E-405C-865F-45957FF00DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="10455" windowHeight="9180" firstSheet="8" activeTab="9" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="10455" windowHeight="9180" firstSheet="8" activeTab="10" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
   </bookViews>
   <sheets>
     <sheet name="IdentityVerification" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4939" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="1026">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2394,9 +2394,6 @@
     <t>Delete External Bank Account</t>
   </si>
   <si>
-    <t>3456</t>
-  </si>
-  <si>
     <t>testBusinessSettingsDeleteDebitCard</t>
   </si>
   <si>
@@ -3170,6 +3167,21 @@
   </si>
   <si>
     <t>1.00</t>
+  </si>
+  <si>
+    <t>withdrawsignetAccountHeading</t>
+  </si>
+  <si>
+    <t>4429 5497 8723 7693</t>
+  </si>
+  <si>
+    <t>122105278</t>
+  </si>
+  <si>
+    <t>0000000016</t>
+  </si>
+  <si>
+    <t>0016</t>
   </si>
 </sst>
 </file>
@@ -8828,7 +8840,7 @@
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
     </row>
-    <row r="40" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>198</v>
       </c>
@@ -8944,7 +8956,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
     </row>
-    <row r="41" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>199</v>
       </c>
@@ -9067,7 +9079,7 @@
       <c r="BF41" s="4"/>
       <c r="BG41" s="4"/>
     </row>
-    <row r="42" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>217</v>
       </c>
@@ -9168,7 +9180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>226</v>
       </c>
@@ -9273,7 +9285,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>226</v>
       </c>
@@ -9378,7 +9390,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>226</v>
       </c>
@@ -9481,7 +9493,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>226</v>
       </c>
@@ -9584,7 +9596,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>226</v>
       </c>
@@ -9687,7 +9699,7 @@
       </c>
       <c r="BO47" s="17"/>
     </row>
-    <row r="48" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>226</v>
       </c>
@@ -9792,7 +9804,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>226</v>
       </c>
@@ -9897,7 +9909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>247</v>
       </c>
@@ -9998,7 +10010,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -10362,8 +10374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DD43B4-840D-4E6E-B5BD-15D06968843D}">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10967,10 +10979,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C13BE43-F382-436A-BAAC-4675AC294583}">
-  <dimension ref="A1:AQ26"/>
+  <dimension ref="A1:AU26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,10 +11030,14 @@
     <col min="41" max="41" width="26" style="69" customWidth="1"/>
     <col min="42" max="42" width="18.7109375" style="69" customWidth="1"/>
     <col min="43" max="43" width="41.5703125" style="69" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="69"/>
+    <col min="44" max="44" width="14.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.42578125" style="69" customWidth="1"/>
+    <col min="47" max="47" width="22.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -11151,8 +11167,20 @@
       <c r="AQ1" s="67" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="AR1" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="AS1" s="69" t="s">
+        <v>742</v>
+      </c>
+      <c r="AT1" s="69" t="s">
+        <v>743</v>
+      </c>
+      <c r="AU1" s="69" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="69" t="s">
         <v>754</v>
       </c>
@@ -11226,7 +11254,7 @@
       <c r="Y2" s="106"/>
       <c r="AB2" s="107"/>
     </row>
-    <row r="3" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="69" t="s">
         <v>756</v>
       </c>
@@ -11298,7 +11326,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
         <v>608</v>
       </c>
@@ -11341,8 +11369,20 @@
       <c r="AD4" s="69" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AR4" s="70" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AS4" s="70" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AT4" s="70" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AU4" s="70" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
         <v>765</v>
       </c>
@@ -11380,18 +11420,18 @@
       <c r="AE5" s="109"/>
       <c r="AF5" s="79"/>
       <c r="AO5" s="70" t="s">
-        <v>767</v>
+        <v>1025</v>
       </c>
       <c r="AQ5" s="79" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
+        <v>767</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>768</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>769</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>68</v>
@@ -11433,12 +11473,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
+        <v>769</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>770</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>771</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>68</v>
@@ -11505,12 +11545,12 @@
       </c>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
+        <v>771</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>772</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>773</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>68</v>
@@ -11540,28 +11580,28 @@
         <v>74</v>
       </c>
       <c r="L8" s="110" t="s">
+        <v>773</v>
+      </c>
+      <c r="M8" s="28" t="s">
         <v>774</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>775</v>
       </c>
       <c r="N8" s="75" t="s">
         <v>678</v>
       </c>
       <c r="O8" s="76" t="s">
+        <v>775</v>
+      </c>
+      <c r="P8" s="77" t="s">
         <v>776</v>
       </c>
-      <c r="P8" s="77" t="s">
+      <c r="Q8" s="69" t="s">
         <v>777</v>
-      </c>
-      <c r="Q8" s="69" t="s">
-        <v>778</v>
       </c>
       <c r="R8" s="69" t="s">
         <v>682</v>
       </c>
       <c r="S8" s="69" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="T8" s="70" t="s">
         <v>683</v>
@@ -11580,12 +11620,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
+        <v>779</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>780</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>781</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>68</v>
@@ -11618,21 +11658,21 @@
         <v>177</v>
       </c>
       <c r="AJ9" s="69" t="s">
+        <v>781</v>
+      </c>
+      <c r="AK9" s="69" t="s">
         <v>782</v>
       </c>
-      <c r="AK9" s="69" t="s">
+      <c r="AL9" s="69" t="s">
         <v>783</v>
       </c>
-      <c r="AL9" s="69" t="s">
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="B10" s="111" t="s">
         <v>785</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>786</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>68</v>
@@ -11667,15 +11707,15 @@
       </c>
       <c r="AL10" s="109"/>
       <c r="AM10" s="69" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="B11" s="69" t="s">
         <v>788</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>789</v>
       </c>
       <c r="C11" s="112" t="s">
         <v>68</v>
@@ -11729,7 +11769,7 @@
         <v>202</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="U11" s="69" t="s">
         <v>205</v>
@@ -11744,12 +11784,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C12" s="112" t="s">
         <v>101</v>
@@ -11815,15 +11855,15 @@
         <v>600</v>
       </c>
       <c r="X12" s="124" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
-        <v>788</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>793</v>
       </c>
       <c r="C13" s="112" t="s">
         <v>105</v>
@@ -11862,7 +11902,7 @@
         <v>697</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P13" s="121" t="s">
         <v>699</v>
@@ -11889,15 +11929,15 @@
         <v>600</v>
       </c>
       <c r="X13" s="124" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C14" s="112" t="s">
         <v>108</v>
@@ -11930,7 +11970,7 @@
         <v>695</v>
       </c>
       <c r="M14" s="125" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N14" s="75" t="s">
         <v>697</v>
@@ -11960,15 +12000,15 @@
         <v>600</v>
       </c>
       <c r="X14" s="126" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="69" t="s">
-        <v>788</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>798</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>116</v>
@@ -12010,7 +12050,7 @@
         <v>698</v>
       </c>
       <c r="P15" s="70" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Q15" s="123" t="s">
         <v>681</v>
@@ -12034,15 +12074,15 @@
         <v>600</v>
       </c>
       <c r="X15" s="126" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>787</v>
+      </c>
+      <c r="B16" s="69" t="s">
         <v>800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>788</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>801</v>
       </c>
       <c r="C16" s="112" t="s">
         <v>148</v>
@@ -12087,7 +12127,7 @@
         <v>699</v>
       </c>
       <c r="Q16" s="127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R16" s="123" t="s">
         <v>682</v>
@@ -12109,15 +12149,15 @@
       </c>
       <c r="X16" s="126"/>
       <c r="AP16" s="69" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>120</v>
@@ -12180,15 +12220,15 @@
         <v>600</v>
       </c>
       <c r="X17" s="119" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C18" s="112" t="s">
         <v>123</v>
@@ -12251,15 +12291,15 @@
         <v>600</v>
       </c>
       <c r="X18" s="126" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C19" s="112" t="s">
         <v>127</v>
@@ -12322,15 +12362,15 @@
         <v>600</v>
       </c>
       <c r="X19" s="126" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C20" s="112" t="s">
         <v>137</v>
@@ -12395,10 +12435,10 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C21" s="112" t="s">
         <v>141</v>
@@ -12456,15 +12496,15 @@
         <v>600</v>
       </c>
       <c r="X21" s="119" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>145</v>
@@ -12521,15 +12561,15 @@
         <v>600</v>
       </c>
       <c r="X22" s="119" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="112" t="s">
         <v>132</v>
@@ -12597,10 +12637,10 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C24" s="112" t="s">
         <v>134</v>
@@ -12663,15 +12703,15 @@
         <v>600</v>
       </c>
       <c r="X24" s="119" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>818</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>819</v>
       </c>
       <c r="C25" s="112" t="s">
         <v>68</v>
@@ -12701,40 +12741,40 @@
         <v>74</v>
       </c>
       <c r="L25" s="69" t="s">
+        <v>819</v>
+      </c>
+      <c r="M25" s="69" t="s">
         <v>820</v>
       </c>
-      <c r="M25" s="69" t="s">
+      <c r="O25" s="69" t="s">
         <v>821</v>
       </c>
-      <c r="O25" s="69" t="s">
+      <c r="P25" s="69" t="s">
         <v>822</v>
       </c>
-      <c r="P25" s="69" t="s">
+      <c r="Q25" s="69" t="s">
         <v>823</v>
       </c>
-      <c r="Q25" s="69" t="s">
+      <c r="R25" s="69" t="s">
+        <v>823</v>
+      </c>
+      <c r="S25" s="69" t="s">
         <v>824</v>
       </c>
-      <c r="R25" s="69" t="s">
-        <v>824</v>
-      </c>
-      <c r="S25" s="69" t="s">
+      <c r="U25" s="69" t="s">
         <v>825</v>
       </c>
-      <c r="U25" s="69" t="s">
+      <c r="W25" s="112" t="s">
         <v>826</v>
-      </c>
-      <c r="W25" s="112" t="s">
-        <v>827</v>
       </c>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
+        <v>827</v>
+      </c>
+      <c r="B26" s="69" t="s">
         <v>828</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>829</v>
       </c>
       <c r="C26" s="112" t="s">
         <v>68</v>
@@ -12776,7 +12816,7 @@
         <v>698</v>
       </c>
       <c r="P26" s="77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="Q26" s="69" t="s">
         <v>681</v>
@@ -12797,7 +12837,7 @@
         <v>84</v>
       </c>
       <c r="W26" s="70" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="X26" s="70"/>
     </row>
@@ -12911,10 +12951,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="82" t="s">
+        <v>831</v>
+      </c>
+      <c r="N1" s="82" t="s">
         <v>832</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>833</v>
       </c>
       <c r="O1" s="82" t="s">
         <v>54</v>
@@ -12926,10 +12966,10 @@
         <v>56</v>
       </c>
       <c r="R1" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="S1" s="82" t="s">
         <v>834</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>835</v>
       </c>
       <c r="T1" s="82" t="s">
         <v>635</v>
@@ -12953,7 +12993,7 @@
         <v>24</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AB1" s="82" t="s">
         <v>545</v>
@@ -12961,10 +13001,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="B2" s="41" t="s">
         <v>837</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>838</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>68</v>
@@ -12994,13 +13034,13 @@
         <v>74</v>
       </c>
       <c r="L2" s="88" t="s">
+        <v>838</v>
+      </c>
+      <c r="M2" s="88" t="s">
         <v>839</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="N2" s="88" t="s">
         <v>840</v>
-      </c>
-      <c r="N2" s="88" t="s">
-        <v>841</v>
       </c>
       <c r="O2" s="129" t="s">
         <v>610</v>
@@ -13021,18 +13061,18 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
       <c r="AA2" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AB2" s="84" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>843</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>844</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>68</v>
@@ -13062,13 +13102,13 @@
         <v>74</v>
       </c>
       <c r="L3" s="88" t="s">
+        <v>838</v>
+      </c>
+      <c r="M3" s="88" t="s">
         <v>839</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="N3" s="88" t="s">
         <v>840</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>841</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
@@ -13077,10 +13117,10 @@
         <v>760</v>
       </c>
       <c r="S3" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="T3" s="41" t="s">
         <v>845</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>846</v>
       </c>
       <c r="U3" s="41" t="s">
         <v>681</v>
@@ -13092,19 +13132,19 @@
         <v>202</v>
       </c>
       <c r="X3" s="33" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y3" s="84" t="s">
         <v>847</v>
-      </c>
-      <c r="Y3" s="84" t="s">
-        <v>848</v>
       </c>
       <c r="Z3" s="41" t="s">
         <v>84</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AB3" s="84" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -13182,7 +13222,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="135" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M1" s="136" t="s">
         <v>630</v>
@@ -13200,12 +13240,12 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" s="137" t="s">
         <v>850</v>
-      </c>
-      <c r="B2" s="137" t="s">
-        <v>851</v>
       </c>
       <c r="C2" s="138" t="s">
         <v>68</v>
@@ -13235,18 +13275,18 @@
         <v>74</v>
       </c>
       <c r="L2" s="142" t="s">
+        <v>851</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>852</v>
       </c>
-      <c r="M2" s="55" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="137" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="137" t="s">
+      <c r="B3" s="137" t="s">
         <v>854</v>
-      </c>
-      <c r="B3" s="137" t="s">
-        <v>855</v>
       </c>
       <c r="C3" s="138" t="s">
         <v>68</v>
@@ -13276,18 +13316,18 @@
         <v>74</v>
       </c>
       <c r="L3" s="142" t="s">
+        <v>851</v>
+      </c>
+      <c r="M3" s="55" t="s">
         <v>852</v>
       </c>
-      <c r="M3" s="55" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="137" t="s">
+        <v>855</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>856</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>857</v>
       </c>
       <c r="C4" s="138" t="s">
         <v>68</v>
@@ -13317,27 +13357,27 @@
         <v>74</v>
       </c>
       <c r="L4" s="142" t="s">
+        <v>851</v>
+      </c>
+      <c r="M4" s="55" t="s">
         <v>852</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>853</v>
       </c>
       <c r="N4" s="137" t="s">
         <v>523</v>
       </c>
       <c r="O4" s="137" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q4" s="138" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
+        <v>858</v>
+      </c>
+      <c r="B5" s="137" t="s">
         <v>859</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>860</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>68</v>
@@ -13367,7 +13407,7 @@
         <v>74</v>
       </c>
       <c r="L5" s="142" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -13462,10 +13502,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
+        <v>860</v>
+      </c>
+      <c r="B2" s="132" t="s">
         <v>861</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>862</v>
       </c>
       <c r="C2" s="146" t="s">
         <v>68</v>
@@ -13505,7 +13545,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>509</v>
@@ -13549,7 +13589,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>509</v>
@@ -13593,7 +13633,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B5" s="69" t="s">
         <v>510</v>
@@ -13637,7 +13677,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>512</v>
@@ -13681,7 +13721,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>512</v>
@@ -13725,7 +13765,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>512</v>
@@ -13769,7 +13809,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>512</v>
@@ -13813,7 +13853,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>517</v>
@@ -13849,15 +13889,15 @@
         <v>273</v>
       </c>
       <c r="N10" s="149" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" s="69" t="s">
         <v>864</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>865</v>
       </c>
       <c r="C11" s="146" t="s">
         <v>68</v>
@@ -13887,7 +13927,7 @@
         <v>74</v>
       </c>
       <c r="M11" s="69" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N11" s="69" t="s">
         <v>121</v>
@@ -13898,10 +13938,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C12" s="146" t="s">
         <v>101</v>
@@ -13931,7 +13971,7 @@
         <v>74</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N12" s="69" t="s">
         <v>121</v>
@@ -13942,10 +13982,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C13" s="146" t="s">
         <v>105</v>
@@ -13975,7 +14015,7 @@
         <v>74</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N13" s="69" t="s">
         <v>121</v>
@@ -13986,10 +14026,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C14" s="146" t="s">
         <v>108</v>
@@ -14019,7 +14059,7 @@
         <v>74</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N14" s="69" t="s">
         <v>121</v>
@@ -14030,10 +14070,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C15" s="146" t="s">
         <v>116</v>
@@ -14190,18 +14230,18 @@
         <v>50</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>876</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>877</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14238,13 +14278,13 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="4" t="s">
         <v>879</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -14329,7 +14369,7 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>41</v>
@@ -14338,16 +14378,16 @@
         <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>885</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>276</v>
@@ -14359,24 +14399,24 @@
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" t="s">
         <v>889</v>
-      </c>
-      <c r="B2" t="s">
-        <v>890</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14406,15 +14446,15 @@
         <v>74</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B3" t="s">
         <v>892</v>
-      </c>
-      <c r="B3" t="s">
-        <v>893</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>68</v>
@@ -14444,51 +14484,51 @@
         <v>74</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="N3" t="s">
         <v>894</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>895</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="131" t="s">
         <v>898</v>
       </c>
-      <c r="R3" s="131" t="s">
+      <c r="S3" s="153" t="s">
         <v>899</v>
       </c>
-      <c r="S3" s="153" t="s">
-        <v>900</v>
-      </c>
       <c r="T3" s="153" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="U3" t="s">
         <v>523</v>
       </c>
       <c r="V3" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="W3" t="s">
         <v>901</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" t="s">
         <v>903</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" t="s">
         <v>905</v>
-      </c>
-      <c r="B4" t="s">
-        <v>906</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -14521,10 +14561,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>906</v>
+      </c>
+      <c r="B5" t="s">
         <v>907</v>
-      </c>
-      <c r="B5" t="s">
-        <v>908</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>68</v>
@@ -14559,10 +14599,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>101</v>
@@ -14592,15 +14632,15 @@
         <v>74</v>
       </c>
       <c r="X6" s="155" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>105</v>
@@ -14630,15 +14670,15 @@
         <v>74</v>
       </c>
       <c r="X7" s="154" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>912</v>
+      </c>
+      <c r="B8" t="s">
         <v>913</v>
-      </c>
-      <c r="B8" t="s">
-        <v>914</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>68</v>
@@ -14670,10 +14710,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B9" t="s">
         <v>915</v>
-      </c>
-      <c r="B9" t="s">
-        <v>916</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -14703,7 +14743,7 @@
         <v>74</v>
       </c>
       <c r="Y9" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -14787,10 +14827,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B2" t="s">
         <v>918</v>
-      </c>
-      <c r="B2" t="s">
-        <v>919</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14820,7 +14860,7 @@
         <v>74</v>
       </c>
       <c r="L2" s="156" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -14910,10 +14950,10 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C2" s="143" t="s">
         <v>68</v>
@@ -14953,7 +14993,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B3" t="s">
         <v>509</v>
@@ -14997,7 +15037,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B4" t="s">
         <v>510</v>
@@ -15041,7 +15081,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B5" t="s">
         <v>512</v>
@@ -15085,7 +15125,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B6" t="s">
         <v>512</v>
@@ -15129,7 +15169,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B7" t="s">
         <v>512</v>
@@ -15173,7 +15213,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B8" t="s">
         <v>512</v>
@@ -15217,10 +15257,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C9" s="143" t="s">
         <v>127</v>
@@ -15250,7 +15290,7 @@
         <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N9" t="s">
         <v>121</v>
@@ -15261,10 +15301,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C10" s="143" t="s">
         <v>132</v>
@@ -15294,7 +15334,7 @@
         <v>74</v>
       </c>
       <c r="M10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N10" t="s">
         <v>121</v>
@@ -15305,10 +15345,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B11" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C11" s="143" t="s">
         <v>134</v>
@@ -15338,7 +15378,7 @@
         <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N11" t="s">
         <v>121</v>
@@ -15347,12 +15387,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>921</v>
+      </c>
+      <c r="B12" t="s">
         <v>922</v>
-      </c>
-      <c r="B12" t="s">
-        <v>923</v>
       </c>
       <c r="C12" s="143" t="s">
         <v>68</v>
@@ -15471,21 +15511,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>927</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>928</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -15512,16 +15552,16 @@
         <v>220</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>930</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -16225,10 +16265,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" t="s">
         <v>932</v>
-      </c>
-      <c r="B2" t="s">
-        <v>933</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16258,15 +16298,15 @@
         <v>74</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B3" t="s">
         <v>935</v>
-      </c>
-      <c r="B3" t="s">
-        <v>936</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16296,15 +16336,15 @@
         <v>74</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4" t="s">
         <v>937</v>
-      </c>
-      <c r="B4" t="s">
-        <v>938</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16334,7 +16374,7 @@
         <v>74</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -16412,15 +16452,15 @@
         <v>50</v>
       </c>
       <c r="M1" s="152" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B2" t="s">
         <v>940</v>
-      </c>
-      <c r="B2" t="s">
-        <v>941</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16450,10 +16490,10 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>941</v>
+      </c>
+      <c r="M2" t="s">
         <v>942</v>
-      </c>
-      <c r="M2" t="s">
-        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -16529,10 +16569,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" t="s">
         <v>944</v>
-      </c>
-      <c r="B2" t="s">
-        <v>945</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16562,15 +16602,15 @@
         <v>74</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3" t="s">
         <v>947</v>
-      </c>
-      <c r="B3" t="s">
-        <v>948</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16600,7 +16640,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -16680,13 +16720,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="152" t="s">
+        <v>948</v>
+      </c>
+      <c r="M1" s="152" t="s">
         <v>949</v>
       </c>
-      <c r="M1" s="152" t="s">
+      <c r="N1" s="152" t="s">
         <v>950</v>
-      </c>
-      <c r="N1" s="152" t="s">
-        <v>951</v>
       </c>
       <c r="O1" s="152" t="s">
         <v>636</v>
@@ -16704,15 +16744,15 @@
         <v>51</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>953</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>954</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16742,30 +16782,30 @@
         <v>74</v>
       </c>
       <c r="L2" s="33" t="s">
+        <v>954</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>956</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="O2" s="7" t="s">
         <v>957</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>958</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="157"/>
       <c r="R2" s="157"/>
       <c r="T2" s="158" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>960</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>961</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16795,25 +16835,25 @@
         <v>74</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M3" s="157"/>
       <c r="N3" s="33"/>
       <c r="O3" s="157"/>
       <c r="P3" s="159" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q3" s="159" t="s">
         <v>962</v>
-      </c>
-      <c r="Q3" s="159" t="s">
-        <v>963</v>
       </c>
       <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16845,22 +16885,22 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O4" s="157"/>
       <c r="P4" s="159"/>
       <c r="Q4" s="159"/>
       <c r="R4" s="157" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="S4" s="160"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
+        <v>966</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>967</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>968</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -16890,16 +16930,16 @@
         <v>74</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="M5" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>969</v>
       </c>
-      <c r="N5" s="33" t="s">
-        <v>970</v>
-      </c>
       <c r="O5" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -16982,10 +17022,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>971</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>972</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>477</v>
@@ -16996,10 +17036,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
+        <v>972</v>
+      </c>
+      <c r="B2" t="s">
         <v>973</v>
-      </c>
-      <c r="B2" t="s">
-        <v>974</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17029,15 +17069,15 @@
         <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B3" t="s">
         <v>976</v>
-      </c>
-      <c r="B3" t="s">
-        <v>977</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17067,19 +17107,19 @@
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M3" t="s">
+        <v>977</v>
+      </c>
+      <c r="N3" t="s">
         <v>978</v>
-      </c>
-      <c r="N3" t="s">
-        <v>979</v>
       </c>
       <c r="O3" t="s">
         <v>523</v>
       </c>
       <c r="P3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -17151,15 +17191,15 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>981</v>
+      </c>
+      <c r="B2" t="s">
         <v>982</v>
-      </c>
-      <c r="B2" t="s">
-        <v>983</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>68</v>
@@ -17189,7 +17229,7 @@
         <v>74</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
@@ -17261,21 +17301,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>988</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>989</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -17302,16 +17342,16 @@
         <v>220</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -17390,39 +17430,39 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>526</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>998</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>999</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1000</v>
       </c>
       <c r="C2" s="162" t="s">
         <v>68</v>
@@ -17452,15 +17492,15 @@
         <v>74</v>
       </c>
       <c r="S2" s="165" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1002</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>1003</v>
       </c>
       <c r="C3" s="162" t="s">
         <v>68</v>
@@ -17490,33 +17530,33 @@
         <v>74</v>
       </c>
       <c r="L3" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M3" s="165" t="s">
         <v>1004</v>
-      </c>
-      <c r="M3" s="165" t="s">
-        <v>1005</v>
       </c>
       <c r="N3" s="165" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="165" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P3" s="165" t="s">
         <v>1006</v>
       </c>
-      <c r="P3" s="165" t="s">
+      <c r="Q3" s="20" t="s">
         <v>1007</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="162" t="s">
         <v>1008</v>
-      </c>
-      <c r="R3" s="162" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B4" t="s">
         <v>1010</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1011</v>
       </c>
       <c r="C4" s="162" t="s">
         <v>68</v>
@@ -17546,7 +17586,7 @@
         <v>74</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
@@ -18816,7 +18856,7 @@
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>91</v>
@@ -18827,7 +18867,7 @@
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -19194,7 +19234,7 @@
         <v>422</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O2" s="44" t="s">
         <v>422</v>
@@ -19224,7 +19264,7 @@
         <v>427</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
@@ -19269,7 +19309,7 @@
         <v>422</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O3" s="44" t="s">
         <v>422</v>
@@ -19587,7 +19627,7 @@
         <v>422</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>422</v>
@@ -19615,7 +19655,7 @@
         <v>427</v>
       </c>
       <c r="X7" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>442</v>
@@ -19666,7 +19706,7 @@
         <v>422</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O8" s="44" t="s">
         <v>422</v>
@@ -19694,7 +19734,7 @@
         <v>427</v>
       </c>
       <c r="X8" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>446</v>
@@ -19745,7 +19785,7 @@
         <v>422</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O9" s="44" t="s">
         <v>422</v>
@@ -19775,7 +19815,7 @@
         <v>427</v>
       </c>
       <c r="X9" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>451</v>
@@ -19824,7 +19864,7 @@
         <v>422</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O10" s="44" t="s">
         <v>422</v>
@@ -19854,7 +19894,7 @@
         <v>427</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>305</v>
@@ -19905,7 +19945,7 @@
         <v>422</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O11" s="44" t="s">
         <v>422</v>
@@ -19935,7 +19975,7 @@
         <v>427</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>305</v>
@@ -19986,7 +20026,7 @@
         <v>422</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>422</v>
@@ -20016,7 +20056,7 @@
         <v>427</v>
       </c>
       <c r="X12" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>305</v>
@@ -20067,7 +20107,7 @@
         <v>422</v>
       </c>
       <c r="N13" s="169" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O13" s="44" t="s">
         <v>422</v>
@@ -20097,7 +20137,7 @@
         <v>427</v>
       </c>
       <c r="X13" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
@@ -20142,7 +20182,7 @@
         <v>422</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>422</v>
@@ -20172,7 +20212,7 @@
         <v>427</v>
       </c>
       <c r="X14" s="45" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -22231,7 +22271,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
     </row>
-    <row r="11" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>576</v>
       </c>
@@ -23028,7 +23068,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
     </row>
-    <row r="22" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>740</v>
       </c>
@@ -23115,23 +23155,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="AG5:AH5"/>
@@ -23144,12 +23173,23 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7AF2FCEE-B015-491D-BBC2-94A9F5D0C211}"/>
@@ -23420,10 +23460,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48223F2-B9CE-4371-859A-91D2188CCC8F}">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23476,9 +23516,10 @@
     <col min="47" max="47" width="20.85546875" customWidth="1"/>
     <col min="48" max="48" width="26.7109375" customWidth="1"/>
     <col min="49" max="49" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -23624,13 +23665,16 @@
         <v>24</v>
       </c>
       <c r="AW1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AX1" s="170" t="s">
         <v>1015</v>
       </c>
-      <c r="AX1" s="170" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>653</v>
       </c>
@@ -23689,7 +23733,7 @@
       <c r="AP2" s="96"/>
       <c r="AT2" s="89"/>
     </row>
-    <row r="3" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>661</v>
       </c>
@@ -23742,7 +23786,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
         <v>664</v>
       </c>
@@ -23780,10 +23824,10 @@
         <v>655</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q4" s="45" t="s">
-        <v>663</v>
+        <v>782</v>
       </c>
       <c r="R4" s="98" t="s">
         <v>666</v>
@@ -23800,8 +23844,11 @@
       <c r="Z4" s="65" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY4" s="45" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>668</v>
       </c>
@@ -23848,7 +23895,7 @@
         <v>692</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AB5" s="99" t="s">
         <v>91</v>
@@ -23857,13 +23904,13 @@
         <v>606</v>
       </c>
       <c r="AW5" s="65" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AX5" s="65" t="s">
         <v>1018</v>
       </c>
-      <c r="AX5" s="65" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>670</v>
       </c>
@@ -23913,7 +23960,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="s">
         <v>674</v>
       </c>
@@ -23987,7 +24034,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
         <v>684</v>
       </c>
@@ -24026,6 +24073,9 @@
       </c>
       <c r="W8" s="89" t="s">
         <v>657</v>
+      </c>
+      <c r="Z8" s="45" t="s">
+        <v>660</v>
       </c>
       <c r="AA8" s="101"/>
       <c r="AF8" s="89" t="s">
@@ -24041,7 +24091,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
         <v>689</v>
       </c>
@@ -24086,7 +24136,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>693</v>
       </c>
@@ -24130,7 +24180,7 @@
         <v>695</v>
       </c>
       <c r="AM10" s="89" t="s">
-        <v>696</v>
+        <v>1022</v>
       </c>
       <c r="AN10" s="94" t="s">
         <v>697</v>
@@ -24160,7 +24210,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>700</v>
       </c>
@@ -24237,7 +24287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>705</v>
       </c>

--- a/Web/coyni/resources/TestData_Api.xlsx
+++ b/Web/coyni/resources/TestData_Api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC3B64E-DBEA-4A0F-93F5-97A7B0F9F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09985221-04F9-4C2D-AC7A-BCBDC32CF867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3495" windowWidth="10455" windowHeight="9180" firstSheet="6" activeTab="8" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
+    <workbookView xWindow="4530" yWindow="4530" windowWidth="10455" windowHeight="9180" firstSheet="4" activeTab="6" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
   </bookViews>
   <sheets>
     <sheet name="IdentityVerification" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="1040">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2334,12 +2334,6 @@
     <t>Adding  Debit Card</t>
   </si>
   <si>
-    <t>testBusinenssSettingsAddSignetAccount</t>
-  </si>
-  <si>
-    <t>Add Signet Account</t>
-  </si>
-  <si>
     <t>Tolichowki</t>
   </si>
   <si>
@@ -2590,12 +2584,6 @@
   </si>
   <si>
     <t>Order Preview</t>
-  </si>
-  <si>
-    <t>tokenWalletBuyTokensSignetAccount</t>
-  </si>
-  <si>
-    <t>Buy Token - Signet Account</t>
   </si>
   <si>
     <t>SignetWallet</t>
@@ -3218,6 +3206,24 @@
   </si>
   <si>
     <t>4429 5497 8723 7628</t>
+  </si>
+  <si>
+    <t>testBusinenssSettingsAddCogentAccount</t>
+  </si>
+  <si>
+    <t>Add Cogent Account</t>
+  </si>
+  <si>
+    <t>tokenWalletBuyTokensCogentAccount</t>
+  </si>
+  <si>
+    <t>Buy Token - Cogent Account</t>
+  </si>
+  <si>
+    <t>12/07/2022</t>
+  </si>
+  <si>
+    <t>12/06/2022</t>
   </si>
 </sst>
 </file>
@@ -4662,7 +4668,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>214</v>
@@ -4677,7 +4683,7 @@
         <v>418</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J2" s="175" t="s">
         <v>215</v>
@@ -4699,13 +4705,13 @@
         <v>77</v>
       </c>
       <c r="Q2" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>79</v>
@@ -4720,7 +4726,7 @@
         <v>82</v>
       </c>
       <c r="X2" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>83</v>
@@ -4776,7 +4782,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>214</v>
@@ -4791,7 +4797,7 @@
         <v>418</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J3" s="175" t="s">
         <v>215</v>
@@ -4806,16 +4812,16 @@
       </c>
       <c r="O3" s="176"/>
       <c r="P3" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="Q3" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>79</v>
@@ -4830,7 +4836,7 @@
         <v>82</v>
       </c>
       <c r="X3" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>83</v>
@@ -4888,7 +4894,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>214</v>
@@ -4903,7 +4909,7 @@
         <v>418</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J4" s="175" t="s">
         <v>215</v>
@@ -4921,13 +4927,13 @@
         <v>94</v>
       </c>
       <c r="Q4" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>79</v>
@@ -4942,7 +4948,7 @@
         <v>82</v>
       </c>
       <c r="X4" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>83</v>
@@ -5000,7 +5006,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>214</v>
@@ -5015,7 +5021,7 @@
         <v>418</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J5" s="175" t="s">
         <v>215</v>
@@ -5033,13 +5039,13 @@
         <v>98</v>
       </c>
       <c r="Q5" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>79</v>
@@ -5054,7 +5060,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>83</v>
@@ -5112,7 +5118,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>214</v>
@@ -5127,7 +5133,7 @@
         <v>418</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J6" s="175" t="s">
         <v>215</v>
@@ -5149,7 +5155,7 @@
         <v>78</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>79</v>
@@ -5164,7 +5170,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>83</v>
@@ -5222,7 +5228,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>214</v>
@@ -5237,7 +5243,7 @@
         <v>418</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J7" s="175" t="s">
         <v>215</v>
@@ -5255,13 +5261,13 @@
         <v>77</v>
       </c>
       <c r="Q7" s="177" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>79</v>
@@ -5276,7 +5282,7 @@
         <v>82</v>
       </c>
       <c r="X7" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>83</v>
@@ -5334,7 +5340,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>214</v>
@@ -5349,7 +5355,7 @@
         <v>418</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J8" s="175" t="s">
         <v>215</v>
@@ -5367,13 +5373,13 @@
         <v>77</v>
       </c>
       <c r="Q8" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>79</v>
@@ -5388,7 +5394,7 @@
         <v>82</v>
       </c>
       <c r="X8" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>83</v>
@@ -5446,7 +5452,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>214</v>
@@ -5461,7 +5467,7 @@
         <v>418</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J9" s="175" t="s">
         <v>215</v>
@@ -5479,13 +5485,13 @@
         <v>77</v>
       </c>
       <c r="Q9" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>79</v>
@@ -5500,7 +5506,7 @@
         <v>82</v>
       </c>
       <c r="X9" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>83</v>
@@ -5558,7 +5564,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>214</v>
@@ -5573,7 +5579,7 @@
         <v>418</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J10" s="175" t="s">
         <v>215</v>
@@ -5591,13 +5597,13 @@
         <v>77</v>
       </c>
       <c r="Q10" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>79</v>
@@ -5612,7 +5618,7 @@
         <v>82</v>
       </c>
       <c r="X10" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>83</v>
@@ -5670,7 +5676,7 @@
         <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>214</v>
@@ -5685,7 +5691,7 @@
         <v>418</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J11" s="175" t="s">
         <v>215</v>
@@ -5703,13 +5709,13 @@
         <v>77</v>
       </c>
       <c r="Q11" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S11" s="177" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>79</v>
@@ -5724,7 +5730,7 @@
         <v>82</v>
       </c>
       <c r="X11" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>83</v>
@@ -5782,7 +5788,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>214</v>
@@ -5797,7 +5803,7 @@
         <v>418</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J12" s="175" t="s">
         <v>215</v>
@@ -5815,16 +5821,16 @@
         <v>77</v>
       </c>
       <c r="Q12" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>80</v>
@@ -5836,7 +5842,7 @@
         <v>82</v>
       </c>
       <c r="X12" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>83</v>
@@ -5894,7 +5900,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>214</v>
@@ -5909,7 +5915,7 @@
         <v>418</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J13" s="175" t="s">
         <v>215</v>
@@ -5927,13 +5933,13 @@
         <v>77</v>
       </c>
       <c r="Q13" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>79</v>
@@ -5948,7 +5954,7 @@
         <v>82</v>
       </c>
       <c r="X13" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>83</v>
@@ -6006,7 +6012,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>214</v>
@@ -6021,7 +6027,7 @@
         <v>418</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J14" s="175" t="s">
         <v>215</v>
@@ -6039,13 +6045,13 @@
         <v>77</v>
       </c>
       <c r="Q14" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>79</v>
@@ -6054,13 +6060,13 @@
         <v>80</v>
       </c>
       <c r="V14" s="177" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X14" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>83</v>
@@ -6118,7 +6124,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>214</v>
@@ -6133,7 +6139,7 @@
         <v>418</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J15" s="175" t="s">
         <v>215</v>
@@ -6151,13 +6157,13 @@
         <v>77</v>
       </c>
       <c r="Q15" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>79</v>
@@ -6166,13 +6172,13 @@
         <v>80</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X15" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>83</v>
@@ -6230,7 +6236,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>214</v>
@@ -6245,7 +6251,7 @@
         <v>418</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J16" s="175" t="s">
         <v>215</v>
@@ -6263,13 +6269,13 @@
         <v>77</v>
       </c>
       <c r="Q16" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>79</v>
@@ -6284,7 +6290,7 @@
         <v>82</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>83</v>
@@ -6342,7 +6348,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>214</v>
@@ -6357,7 +6363,7 @@
         <v>418</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J17" s="175" t="s">
         <v>215</v>
@@ -6375,13 +6381,13 @@
         <v>77</v>
       </c>
       <c r="Q17" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>79</v>
@@ -6454,7 +6460,7 @@
         <v>143</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>214</v>
@@ -6469,7 +6475,7 @@
         <v>418</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J18" s="175" t="s">
         <v>215</v>
@@ -6487,13 +6493,13 @@
         <v>77</v>
       </c>
       <c r="Q18" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>79</v>
@@ -6566,7 +6572,7 @@
         <v>146</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>214</v>
@@ -6581,7 +6587,7 @@
         <v>418</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J19" s="175" t="s">
         <v>215</v>
@@ -6599,13 +6605,13 @@
         <v>77</v>
       </c>
       <c r="Q19" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>79</v>
@@ -6678,7 +6684,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>214</v>
@@ -6693,7 +6699,7 @@
         <v>418</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J20" s="175" t="s">
         <v>215</v>
@@ -6711,13 +6717,13 @@
         <v>150</v>
       </c>
       <c r="Q20" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>151</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>152</v>
@@ -6784,7 +6790,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>214</v>
@@ -6799,7 +6805,7 @@
         <v>418</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J21" s="175" t="s">
         <v>215</v>
@@ -6821,13 +6827,13 @@
         <v>77</v>
       </c>
       <c r="Q21" s="177" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>79</v>
@@ -6842,7 +6848,7 @@
         <v>82</v>
       </c>
       <c r="X21" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>83</v>
@@ -6898,7 +6904,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>214</v>
@@ -6913,7 +6919,7 @@
         <v>418</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J22" s="175" t="s">
         <v>215</v>
@@ -6992,7 +6998,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>214</v>
@@ -7007,7 +7013,7 @@
         <v>418</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J23" s="175" t="s">
         <v>215</v>
@@ -7025,7 +7031,7 @@
         <v>78</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>79</v>
@@ -7040,7 +7046,7 @@
         <v>82</v>
       </c>
       <c r="X23" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>83</v>
@@ -7100,7 +7106,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>214</v>
@@ -7115,7 +7121,7 @@
         <v>418</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J24" s="175" t="s">
         <v>215</v>
@@ -7133,7 +7139,7 @@
         <v>78</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>79</v>
@@ -7148,7 +7154,7 @@
         <v>82</v>
       </c>
       <c r="X24" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>83</v>
@@ -7212,7 +7218,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>214</v>
@@ -7227,7 +7233,7 @@
         <v>418</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J25" s="175" t="s">
         <v>215</v>
@@ -7243,7 +7249,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>79</v>
@@ -7258,7 +7264,7 @@
         <v>82</v>
       </c>
       <c r="X25" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>83</v>
@@ -7324,7 +7330,7 @@
         <v>146</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>214</v>
@@ -7339,7 +7345,7 @@
         <v>418</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J26" s="175" t="s">
         <v>215</v>
@@ -7357,7 +7363,7 @@
         <v>112</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>79</v>
@@ -7372,7 +7378,7 @@
         <v>82</v>
       </c>
       <c r="X26" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>83</v>
@@ -7438,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>214</v>
@@ -7453,7 +7459,7 @@
         <v>418</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J27" s="175" t="s">
         <v>215</v>
@@ -7471,7 +7477,7 @@
         <v>175</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>79</v>
@@ -7486,7 +7492,7 @@
         <v>82</v>
       </c>
       <c r="X27" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>83</v>
@@ -7552,7 +7558,7 @@
         <v>107</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>214</v>
@@ -7567,7 +7573,7 @@
         <v>418</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J28" s="175" t="s">
         <v>215</v>
@@ -7585,7 +7591,7 @@
         <v>177</v>
       </c>
       <c r="S28" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>79</v>
@@ -7600,7 +7606,7 @@
         <v>82</v>
       </c>
       <c r="X28" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>83</v>
@@ -7666,7 +7672,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>214</v>
@@ -7681,7 +7687,7 @@
         <v>418</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J29" s="175" t="s">
         <v>215</v>
@@ -7712,7 +7718,7 @@
         <v>82</v>
       </c>
       <c r="X29" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>83</v>
@@ -7778,7 +7784,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>214</v>
@@ -7793,7 +7799,7 @@
         <v>418</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J30" s="175" t="s">
         <v>215</v>
@@ -7826,7 +7832,7 @@
         <v>82</v>
       </c>
       <c r="X30" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>83</v>
@@ -7892,7 +7898,7 @@
         <v>121</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>214</v>
@@ -7907,7 +7913,7 @@
         <v>418</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J31" s="175" t="s">
         <v>215</v>
@@ -7925,7 +7931,7 @@
         <v>78</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
@@ -7938,7 +7944,7 @@
         <v>82</v>
       </c>
       <c r="X31" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>83</v>
@@ -8004,7 +8010,7 @@
         <v>125</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>214</v>
@@ -8019,7 +8025,7 @@
         <v>418</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J32" s="175" t="s">
         <v>215</v>
@@ -8037,7 +8043,7 @@
         <v>78</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>79</v>
@@ -8050,7 +8056,7 @@
         <v>82</v>
       </c>
       <c r="X32" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>83</v>
@@ -8116,7 +8122,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>214</v>
@@ -8131,7 +8137,7 @@
         <v>418</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J33" s="175" t="s">
         <v>215</v>
@@ -8149,7 +8155,7 @@
         <v>78</v>
       </c>
       <c r="S33" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>79</v>
@@ -8228,7 +8234,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>214</v>
@@ -8243,7 +8249,7 @@
         <v>418</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J34" s="175" t="s">
         <v>215</v>
@@ -8261,7 +8267,7 @@
         <v>78</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>79</v>
@@ -8342,7 +8348,7 @@
         <v>135</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>214</v>
@@ -8357,7 +8363,7 @@
         <v>418</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J35" s="175" t="s">
         <v>215</v>
@@ -8375,7 +8381,7 @@
         <v>78</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>79</v>
@@ -8456,7 +8462,7 @@
         <v>139</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>214</v>
@@ -8471,7 +8477,7 @@
         <v>418</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J36" s="175" t="s">
         <v>215</v>
@@ -8489,7 +8495,7 @@
         <v>78</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>79</v>
@@ -8504,7 +8510,7 @@
         <v>82</v>
       </c>
       <c r="X36" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y36" s="4" t="s">
         <v>83</v>
@@ -8568,7 +8574,7 @@
         <v>143</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>214</v>
@@ -8583,7 +8589,7 @@
         <v>418</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J37" s="175" t="s">
         <v>215</v>
@@ -8601,7 +8607,7 @@
         <v>78</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>79</v>
@@ -8614,7 +8620,7 @@
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>83</v>
@@ -8680,7 +8686,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>214</v>
@@ -8695,7 +8701,7 @@
         <v>418</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J38" s="175" t="s">
         <v>215</v>
@@ -8713,7 +8719,7 @@
         <v>78</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>79</v>
@@ -8728,7 +8734,7 @@
         <v>82</v>
       </c>
       <c r="X38" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>83</v>
@@ -8792,7 +8798,7 @@
         <v>68</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>214</v>
@@ -8807,7 +8813,7 @@
         <v>418</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J39" s="175" t="s">
         <v>215</v>
@@ -8825,7 +8831,7 @@
         <v>151</v>
       </c>
       <c r="S39" s="175" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>152</v>
@@ -8893,7 +8899,7 @@
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
     </row>
-    <row r="40" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>193</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>214</v>
@@ -8919,7 +8925,7 @@
         <v>418</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J40" s="175" t="s">
         <v>215</v>
@@ -8939,7 +8945,7 @@
         <v>78</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>79</v>
@@ -8954,7 +8960,7 @@
         <v>82</v>
       </c>
       <c r="X40" s="177" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Y40" s="4" t="s">
         <v>83</v>
@@ -9009,7 +9015,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
     </row>
-    <row r="41" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>194</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>214</v>
@@ -9035,7 +9041,7 @@
         <v>418</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J41" s="175" t="s">
         <v>215</v>
@@ -9132,7 +9138,7 @@
       <c r="BF41" s="4"/>
       <c r="BG41" s="4"/>
     </row>
-    <row r="42" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>212</v>
       </c>
@@ -9143,7 +9149,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>214</v>
@@ -9158,7 +9164,7 @@
         <v>418</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J42" s="175" t="s">
         <v>215</v>
@@ -9221,10 +9227,10 @@
         <v>218</v>
       </c>
       <c r="BL42" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BM42" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN42" s="17" t="s">
         <v>219</v>
@@ -9233,7 +9239,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>220</v>
       </c>
@@ -9244,7 +9250,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>214</v>
@@ -9259,7 +9265,7 @@
         <v>418</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J43" s="175" t="s">
         <v>215</v>
@@ -9338,7 +9344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>220</v>
       </c>
@@ -9349,7 +9355,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>214</v>
@@ -9364,7 +9370,7 @@
         <v>418</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J44" s="175" t="s">
         <v>215</v>
@@ -9434,7 +9440,7 @@
       </c>
       <c r="BL44" s="17"/>
       <c r="BM44" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN44" s="17" t="s">
         <v>228</v>
@@ -9443,7 +9449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>220</v>
       </c>
@@ -9454,7 +9460,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>214</v>
@@ -9469,7 +9475,7 @@
         <v>418</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J45" s="175" t="s">
         <v>215</v>
@@ -9546,7 +9552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>220</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>107</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>214</v>
@@ -9572,7 +9578,7 @@
         <v>418</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J46" s="175" t="s">
         <v>215</v>
@@ -9642,14 +9648,14 @@
         <v>231</v>
       </c>
       <c r="BM46" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN46" s="17"/>
       <c r="BO46" s="17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>220</v>
       </c>
@@ -9660,7 +9666,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>214</v>
@@ -9675,7 +9681,7 @@
         <v>418</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J47" s="175" t="s">
         <v>215</v>
@@ -9745,14 +9751,14 @@
         <v>231</v>
       </c>
       <c r="BM47" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN47" s="17" t="s">
         <v>228</v>
       </c>
       <c r="BO47" s="17"/>
     </row>
-    <row r="48" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>220</v>
       </c>
@@ -9763,7 +9769,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>214</v>
@@ -9778,7 +9784,7 @@
         <v>418</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J48" s="175" t="s">
         <v>215</v>
@@ -9848,7 +9854,7 @@
         <v>231</v>
       </c>
       <c r="BM48" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN48" s="17" t="s">
         <v>228</v>
@@ -9857,7 +9863,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>220</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>121</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>214</v>
@@ -9883,7 +9889,7 @@
         <v>418</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J49" s="175" t="s">
         <v>215</v>
@@ -9953,7 +9959,7 @@
         <v>231</v>
       </c>
       <c r="BM49" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN49" s="17" t="s">
         <v>228</v>
@@ -9962,7 +9968,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>241</v>
       </c>
@@ -9973,7 +9979,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>214</v>
@@ -9988,7 +9994,7 @@
         <v>418</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J50" s="175" t="s">
         <v>215</v>
@@ -10051,10 +10057,10 @@
         <v>218</v>
       </c>
       <c r="BL50" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BM50" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BN50" s="17" t="s">
         <v>219</v>
@@ -10063,7 +10069,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:67" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>214</v>
@@ -10089,7 +10095,7 @@
         <v>418</v>
       </c>
       <c r="I51" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J51" s="175" t="s">
         <v>215</v>
@@ -10117,7 +10123,7 @@
         <v>68</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>214</v>
@@ -10132,7 +10138,7 @@
         <v>418</v>
       </c>
       <c r="I52" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J52" s="175" t="s">
         <v>215</v>
@@ -10162,7 +10168,7 @@
         <v>68</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>214</v>
@@ -10177,7 +10183,7 @@
         <v>418</v>
       </c>
       <c r="I53" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J53" s="175" t="s">
         <v>215</v>
@@ -10210,7 +10216,7 @@
         <v>68</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>214</v>
@@ -10225,7 +10231,7 @@
         <v>418</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J54" s="175" t="s">
         <v>215</v>
@@ -10249,7 +10255,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>214</v>
@@ -10264,7 +10270,7 @@
         <v>418</v>
       </c>
       <c r="I55" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J55" s="175" t="s">
         <v>215</v>
@@ -10291,7 +10297,7 @@
         <v>68</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>214</v>
@@ -10306,7 +10312,7 @@
         <v>418</v>
       </c>
       <c r="I56" s="45" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J56" s="175" t="s">
         <v>215</v>
@@ -10990,7 +10996,7 @@
   <dimension ref="A1:AU26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11188,7 +11194,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>745</v>
       </c>
@@ -11226,7 +11232,7 @@
         <v>686</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N2" s="75" t="s">
         <v>688</v>
@@ -11262,12 +11268,12 @@
       <c r="Y2" s="106"/>
       <c r="AB2" s="107"/>
     </row>
-    <row r="3" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>747</v>
+        <v>1034</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>748</v>
+        <v>1035</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>68</v>
@@ -11302,10 +11308,10 @@
       <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="R3" s="31" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="S3" s="31" t="s">
         <v>197</v>
@@ -11319,22 +11325,22 @@
       <c r="W3" s="31"/>
       <c r="X3" s="31"/>
       <c r="Y3" s="79" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z3" s="69" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA3" s="69" t="s">
         <v>751</v>
       </c>
-      <c r="Z3" s="69" t="s">
+      <c r="AG3" s="108" t="s">
         <v>752</v>
       </c>
-      <c r="AA3" s="69" t="s">
+      <c r="AH3" s="108" t="s">
         <v>753</v>
       </c>
-      <c r="AG3" s="108" t="s">
-        <v>754</v>
-      </c>
-      <c r="AH3" s="108" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>599</v>
       </c>
@@ -11378,24 +11384,24 @@
         <v>603</v>
       </c>
       <c r="AR4" s="70" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AS4" s="70" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AT4" s="70" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="AU4" s="70" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>68</v>
@@ -11428,18 +11434,18 @@
       <c r="AE5" s="109"/>
       <c r="AF5" s="79"/>
       <c r="AO5" s="70" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="AQ5" s="79" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>68</v>
@@ -11469,7 +11475,7 @@
         <v>73</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="AE6" s="109" t="s">
         <v>663</v>
@@ -11478,15 +11484,15 @@
         <v>664</v>
       </c>
       <c r="AN6" s="70" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>68</v>
@@ -11519,7 +11525,7 @@
         <v>686</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N7" s="75" t="s">
         <v>688</v>
@@ -11553,12 +11559,12 @@
       </c>
       <c r="X7" s="70"/>
     </row>
-    <row r="8" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>68</v>
@@ -11588,28 +11594,28 @@
         <v>73</v>
       </c>
       <c r="L8" s="110" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M8" s="28" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N8" s="75" t="s">
         <v>669</v>
       </c>
       <c r="O8" s="76" t="s">
+        <v>764</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q8" s="69" t="s">
         <v>766</v>
-      </c>
-      <c r="P8" s="77" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q8" s="69" t="s">
-        <v>768</v>
       </c>
       <c r="R8" s="69" t="s">
         <v>673</v>
       </c>
       <c r="S8" s="69" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="T8" s="70" t="s">
         <v>674</v>
@@ -11630,10 +11636,10 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>68</v>
@@ -11666,21 +11672,21 @@
         <v>173</v>
       </c>
       <c r="AJ9" s="69" t="s">
+        <v>770</v>
+      </c>
+      <c r="AK9" s="69" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL9" s="69" t="s">
         <v>772</v>
       </c>
-      <c r="AK9" s="69" t="s">
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>773</v>
       </c>
-      <c r="AL9" s="69" t="s">
+      <c r="B10" s="111" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
-        <v>775</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>776</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>68</v>
@@ -11715,15 +11721,15 @@
       </c>
       <c r="AL10" s="109"/>
       <c r="AM10" s="70" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C11" s="112" t="s">
         <v>68</v>
@@ -11777,7 +11783,7 @@
         <v>197</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="U11" s="69" t="s">
         <v>200</v>
@@ -11794,10 +11800,10 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C12" s="112" t="s">
         <v>100</v>
@@ -11863,15 +11869,15 @@
         <v>591</v>
       </c>
       <c r="X12" s="124" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C13" s="112" t="s">
         <v>104</v>
@@ -11910,7 +11916,7 @@
         <v>688</v>
       </c>
       <c r="O13" s="69" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="P13" s="121" t="s">
         <v>690</v>
@@ -11937,15 +11943,15 @@
         <v>591</v>
       </c>
       <c r="X13" s="124" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C14" s="112" t="s">
         <v>107</v>
@@ -11978,7 +11984,7 @@
         <v>686</v>
       </c>
       <c r="M14" s="125" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N14" s="75" t="s">
         <v>688</v>
@@ -12008,15 +12014,15 @@
         <v>591</v>
       </c>
       <c r="X14" s="126" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>114</v>
@@ -12058,7 +12064,7 @@
         <v>689</v>
       </c>
       <c r="P15" s="70" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="Q15" s="123" t="s">
         <v>672</v>
@@ -12082,15 +12088,15 @@
         <v>591</v>
       </c>
       <c r="X15" s="126" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C16" s="112" t="s">
         <v>146</v>
@@ -12135,7 +12141,7 @@
         <v>690</v>
       </c>
       <c r="Q16" s="127" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="R16" s="123" t="s">
         <v>673</v>
@@ -12157,15 +12163,15 @@
       </c>
       <c r="X16" s="126"/>
       <c r="AP16" s="69" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>118</v>
@@ -12228,15 +12234,15 @@
         <v>591</v>
       </c>
       <c r="X17" s="119" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C18" s="112" t="s">
         <v>121</v>
@@ -12299,15 +12305,15 @@
         <v>591</v>
       </c>
       <c r="X18" s="126" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C19" s="112" t="s">
         <v>125</v>
@@ -12370,15 +12376,15 @@
         <v>591</v>
       </c>
       <c r="X19" s="126" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C20" s="112" t="s">
         <v>135</v>
@@ -12443,10 +12449,10 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C21" s="112" t="s">
         <v>139</v>
@@ -12504,15 +12510,15 @@
         <v>591</v>
       </c>
       <c r="X21" s="119" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>143</v>
@@ -12569,15 +12575,15 @@
         <v>591</v>
       </c>
       <c r="X22" s="119" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C23" s="112" t="s">
         <v>130</v>
@@ -12645,10 +12651,10 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C24" s="112" t="s">
         <v>132</v>
@@ -12711,15 +12717,15 @@
         <v>591</v>
       </c>
       <c r="X24" s="119" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C25" s="112" t="s">
         <v>68</v>
@@ -12749,40 +12755,40 @@
         <v>73</v>
       </c>
       <c r="L25" s="69" t="s">
+        <v>807</v>
+      </c>
+      <c r="M25" s="69" t="s">
+        <v>808</v>
+      </c>
+      <c r="O25" s="69" t="s">
         <v>809</v>
       </c>
-      <c r="M25" s="69" t="s">
+      <c r="P25" s="69" t="s">
         <v>810</v>
       </c>
-      <c r="O25" s="69" t="s">
+      <c r="Q25" s="69" t="s">
         <v>811</v>
       </c>
-      <c r="P25" s="69" t="s">
+      <c r="R25" s="69" t="s">
+        <v>811</v>
+      </c>
+      <c r="S25" s="69" t="s">
         <v>812</v>
       </c>
-      <c r="Q25" s="69" t="s">
+      <c r="U25" s="69" t="s">
         <v>813</v>
       </c>
-      <c r="R25" s="69" t="s">
-        <v>813</v>
-      </c>
-      <c r="S25" s="69" t="s">
+      <c r="W25" s="112" t="s">
         <v>814</v>
-      </c>
-      <c r="U25" s="69" t="s">
-        <v>815</v>
-      </c>
-      <c r="W25" s="112" t="s">
-        <v>816</v>
       </c>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C26" s="112" t="s">
         <v>68</v>
@@ -12824,7 +12830,7 @@
         <v>689</v>
       </c>
       <c r="P26" s="77" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="Q26" s="69" t="s">
         <v>672</v>
@@ -12845,7 +12851,7 @@
         <v>83</v>
       </c>
       <c r="W26" s="70" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="X26" s="70"/>
     </row>
@@ -12889,7 +12895,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12960,10 +12966,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="82" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="N1" s="82" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="O1" s="82" t="s">
         <v>54</v>
@@ -12975,10 +12981,10 @@
         <v>56</v>
       </c>
       <c r="R1" s="82" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="S1" s="82" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="T1" s="82" t="s">
         <v>626</v>
@@ -13002,7 +13008,7 @@
         <v>24</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AB1" s="82" t="s">
         <v>536</v>
@@ -13010,10 +13016,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>68</v>
@@ -13043,13 +13049,13 @@
         <v>73</v>
       </c>
       <c r="L2" s="88" t="s">
+        <v>826</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>827</v>
+      </c>
+      <c r="N2" s="88" t="s">
         <v>828</v>
-      </c>
-      <c r="M2" s="88" t="s">
-        <v>829</v>
-      </c>
-      <c r="N2" s="88" t="s">
-        <v>830</v>
       </c>
       <c r="O2" s="129" t="s">
         <v>601</v>
@@ -13070,18 +13076,18 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
       <c r="AA2" s="36" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AB2" s="84" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>832</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>833</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>68</v>
@@ -13111,25 +13117,25 @@
         <v>73</v>
       </c>
       <c r="L3" s="88" t="s">
+        <v>826</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>827</v>
+      </c>
+      <c r="N3" s="88" t="s">
         <v>828</v>
-      </c>
-      <c r="M3" s="88" t="s">
-        <v>829</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>830</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="88" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S3" s="41" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="T3" s="41" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="U3" s="41" t="s">
         <v>672</v>
@@ -13141,19 +13147,19 @@
         <v>197</v>
       </c>
       <c r="X3" s="33" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="Y3" s="84" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="Z3" s="41" t="s">
         <v>83</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="AB3" s="84" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -13231,7 +13237,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="135" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="M1" s="136" t="s">
         <v>621</v>
@@ -13249,12 +13255,12 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C2" s="138" t="s">
         <v>68</v>
@@ -13284,18 +13290,18 @@
         <v>73</v>
       </c>
       <c r="L2" s="142" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="137" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="B3" s="137" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C3" s="138" t="s">
         <v>68</v>
@@ -13325,18 +13331,18 @@
         <v>73</v>
       </c>
       <c r="L3" s="142" t="s">
+        <v>837</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="137" t="s">
         <v>841</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="B4" s="137" t="s">
         <v>842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="137" t="s">
-        <v>845</v>
-      </c>
-      <c r="B4" s="137" t="s">
-        <v>846</v>
       </c>
       <c r="C4" s="138" t="s">
         <v>68</v>
@@ -13366,27 +13372,27 @@
         <v>73</v>
       </c>
       <c r="L4" s="142" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="N4" s="137" t="s">
         <v>514</v>
       </c>
       <c r="O4" s="137" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="Q4" s="138" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="137" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>68</v>
@@ -13416,7 +13422,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="142" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -13511,10 +13517,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C2" s="146" t="s">
         <v>68</v>
@@ -13554,7 +13560,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>500</v>
@@ -13598,7 +13604,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>500</v>
@@ -13642,7 +13648,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B5" s="69" t="s">
         <v>501</v>
@@ -13686,7 +13692,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B6" s="69" t="s">
         <v>503</v>
@@ -13730,7 +13736,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>503</v>
@@ -13774,7 +13780,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>503</v>
@@ -13818,7 +13824,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B9" s="69" t="s">
         <v>503</v>
@@ -13862,7 +13868,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="69" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>508</v>
@@ -13898,15 +13904,15 @@
         <v>265</v>
       </c>
       <c r="N10" s="149" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C11" s="146" t="s">
         <v>68</v>
@@ -13936,7 +13942,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="69" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="N11" s="69" t="s">
         <v>119</v>
@@ -13947,10 +13953,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="69" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C12" s="146" t="s">
         <v>100</v>
@@ -13980,7 +13986,7 @@
         <v>73</v>
       </c>
       <c r="M12" s="69" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="N12" s="69" t="s">
         <v>119</v>
@@ -13991,10 +13997,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C13" s="146" t="s">
         <v>104</v>
@@ -14024,7 +14030,7 @@
         <v>73</v>
       </c>
       <c r="M13" s="69" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="N13" s="69" t="s">
         <v>119</v>
@@ -14035,10 +14041,10 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C14" s="146" t="s">
         <v>107</v>
@@ -14068,7 +14074,7 @@
         <v>73</v>
       </c>
       <c r="M14" s="69" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="N14" s="69" t="s">
         <v>119</v>
@@ -14079,10 +14085,10 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C15" s="146" t="s">
         <v>114</v>
@@ -14239,18 +14245,18 @@
         <v>50</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14287,13 +14293,13 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="11" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -14378,7 +14384,7 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>41</v>
@@ -14387,16 +14393,16 @@
         <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>267</v>
@@ -14408,24 +14414,24 @@
         <v>11</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14455,15 +14461,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>68</v>
@@ -14493,51 +14499,51 @@
         <v>73</v>
       </c>
       <c r="M3" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="N3" t="s">
+        <v>880</v>
+      </c>
+      <c r="O3" t="s">
+        <v>881</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q3" s="17" t="s">
         <v>883</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" s="131" t="s">
         <v>884</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" s="153" t="s">
         <v>885</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>887</v>
-      </c>
-      <c r="R3" s="131" t="s">
-        <v>888</v>
-      </c>
-      <c r="S3" s="153" t="s">
-        <v>889</v>
-      </c>
       <c r="T3" s="153" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="U3" t="s">
         <v>514</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="W3" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="Y3" s="11" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="Z3" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B4" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -14570,10 +14576,10 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B5" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>68</v>
@@ -14608,10 +14614,10 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>100</v>
@@ -14641,15 +14647,15 @@
         <v>73</v>
       </c>
       <c r="X6" s="155" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B7" t="s">
         <v>896</v>
-      </c>
-      <c r="B7" t="s">
-        <v>900</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>104</v>
@@ -14679,15 +14685,15 @@
         <v>73</v>
       </c>
       <c r="X7" s="154" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B8" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>68</v>
@@ -14719,10 +14725,10 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -14755,10 +14761,10 @@
         <v>514</v>
       </c>
       <c r="V9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="Y9" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -14842,10 +14848,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14875,7 +14881,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="156" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -14965,10 +14971,10 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C2" s="143" t="s">
         <v>68</v>
@@ -15008,7 +15014,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B3" t="s">
         <v>500</v>
@@ -15052,7 +15058,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B4" t="s">
         <v>501</v>
@@ -15096,7 +15102,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B5" t="s">
         <v>503</v>
@@ -15140,7 +15146,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B6" t="s">
         <v>503</v>
@@ -15184,7 +15190,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B7" t="s">
         <v>503</v>
@@ -15228,7 +15234,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B8" t="s">
         <v>503</v>
@@ -15272,10 +15278,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B9" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C9" s="143" t="s">
         <v>125</v>
@@ -15305,7 +15311,7 @@
         <v>73</v>
       </c>
       <c r="M9" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="N9" t="s">
         <v>119</v>
@@ -15316,10 +15322,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B10" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C10" s="143" t="s">
         <v>130</v>
@@ -15349,7 +15355,7 @@
         <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="N10" t="s">
         <v>119</v>
@@ -15360,10 +15366,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B11" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C11" s="143" t="s">
         <v>132</v>
@@ -15393,7 +15399,7 @@
         <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="N11" t="s">
         <v>119</v>
@@ -15402,12 +15408,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B12" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C12" s="143" t="s">
         <v>68</v>
@@ -15526,21 +15532,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -15567,16 +15573,16 @@
         <v>215</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
@@ -16280,10 +16286,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16313,15 +16319,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B3" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16351,15 +16357,15 @@
         <v>73</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16389,7 +16395,7 @@
         <v>73</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -16467,15 +16473,15 @@
         <v>50</v>
       </c>
       <c r="M1" s="152" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16505,10 +16511,10 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="M2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -16584,10 +16590,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16617,15 +16623,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16655,7 +16661,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -16735,13 +16741,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="152" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="M1" s="152" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="N1" s="152" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="O1" s="152" t="s">
         <v>627</v>
@@ -16759,15 +16765,15 @@
         <v>51</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16797,30 +16803,30 @@
         <v>73</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="P2" s="157"/>
       <c r="Q2" s="157"/>
       <c r="R2" s="157"/>
       <c r="T2" s="158" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16850,25 +16856,25 @@
         <v>73</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="M3" s="157"/>
       <c r="N3" s="33"/>
       <c r="O3" s="157"/>
       <c r="P3" s="159" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="Q3" s="159" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="R3" s="157"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16900,22 +16906,22 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="9" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="O4" s="157"/>
       <c r="P4" s="159"/>
       <c r="Q4" s="159"/>
       <c r="R4" s="157" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="S4" s="160"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -16945,16 +16951,16 @@
         <v>73</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -17037,10 +17043,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>468</v>
@@ -17051,10 +17057,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B2" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17084,15 +17090,15 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="B3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17122,19 +17128,19 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
+        <v>960</v>
+      </c>
+      <c r="M3" t="s">
+        <v>963</v>
+      </c>
+      <c r="N3" t="s">
         <v>964</v>
-      </c>
-      <c r="M3" t="s">
-        <v>967</v>
-      </c>
-      <c r="N3" t="s">
-        <v>968</v>
       </c>
       <c r="O3" t="s">
         <v>514</v>
       </c>
       <c r="P3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -17206,15 +17212,15 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>68</v>
@@ -17244,7 +17250,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -17316,21 +17322,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -17357,16 +17363,16 @@
         <v>215</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -17445,39 +17451,39 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>517</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C2" s="162" t="s">
         <v>68</v>
@@ -17507,15 +17513,15 @@
         <v>73</v>
       </c>
       <c r="S2" s="165" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C3" s="162" t="s">
         <v>68</v>
@@ -17545,33 +17551,33 @@
         <v>73</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M3" s="165" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="N3" s="165" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="165" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="P3" s="165" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="R3" s="162" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B4" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C4" s="162" t="s">
         <v>68</v>
@@ -17601,7 +17607,7 @@
         <v>73</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -18871,7 +18877,7 @@
       <c r="Q11" s="33"/>
       <c r="R11" s="33"/>
       <c r="S11" s="45" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="T11" s="33" t="s">
         <v>90</v>
@@ -18882,7 +18888,7 @@
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="45" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -19249,7 +19255,7 @@
         <v>413</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O2" s="44" t="s">
         <v>413</v>
@@ -19279,7 +19285,7 @@
         <v>418</v>
       </c>
       <c r="X2" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
@@ -19324,7 +19330,7 @@
         <v>413</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O3" s="44" t="s">
         <v>413</v>
@@ -19642,7 +19648,7 @@
         <v>413</v>
       </c>
       <c r="N7" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O7" s="44" t="s">
         <v>413</v>
@@ -19670,7 +19676,7 @@
         <v>418</v>
       </c>
       <c r="X7" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>433</v>
@@ -19721,7 +19727,7 @@
         <v>413</v>
       </c>
       <c r="N8" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O8" s="44" t="s">
         <v>413</v>
@@ -19749,7 +19755,7 @@
         <v>418</v>
       </c>
       <c r="X8" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>437</v>
@@ -19800,7 +19806,7 @@
         <v>413</v>
       </c>
       <c r="N9" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O9" s="44" t="s">
         <v>413</v>
@@ -19830,7 +19836,7 @@
         <v>418</v>
       </c>
       <c r="X9" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>442</v>
@@ -19879,7 +19885,7 @@
         <v>413</v>
       </c>
       <c r="N10" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O10" s="44" t="s">
         <v>413</v>
@@ -19909,7 +19915,7 @@
         <v>418</v>
       </c>
       <c r="X10" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>296</v>
@@ -19960,7 +19966,7 @@
         <v>413</v>
       </c>
       <c r="N11" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O11" s="44" t="s">
         <v>413</v>
@@ -19990,7 +19996,7 @@
         <v>418</v>
       </c>
       <c r="X11" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>296</v>
@@ -20041,7 +20047,7 @@
         <v>413</v>
       </c>
       <c r="N12" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>413</v>
@@ -20071,7 +20077,7 @@
         <v>418</v>
       </c>
       <c r="X12" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>296</v>
@@ -20122,7 +20128,7 @@
         <v>413</v>
       </c>
       <c r="N13" s="169" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="O13" s="44" t="s">
         <v>413</v>
@@ -20152,7 +20158,7 @@
         <v>418</v>
       </c>
       <c r="X13" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
@@ -20197,7 +20203,7 @@
         <v>413</v>
       </c>
       <c r="N14" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>413</v>
@@ -20227,7 +20233,7 @@
         <v>418</v>
       </c>
       <c r="X14" s="45" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -21387,9 +21393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70794812-CAF1-423A-BCF8-A14AAF051BEB}">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS22" sqref="AS22"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21769,10 +21775,10 @@
         <v>379</v>
       </c>
       <c r="U4" s="59" t="s">
-        <v>547</v>
+        <v>1039</v>
       </c>
       <c r="V4" s="59" t="s">
-        <v>548</v>
+        <v>1038</v>
       </c>
       <c r="W4" s="59" t="s">
         <v>547</v>
@@ -22286,7 +22292,7 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
     </row>
-    <row r="11" spans="1:47" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>567</v>
       </c>
@@ -23083,7 +23089,7 @@
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
     </row>
-    <row r="22" spans="1:47" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>731</v>
       </c>
@@ -23156,26 +23162,37 @@
         <v>218</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AS22" s="17" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="AT22" s="17" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="AU22" s="17" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="AG15:AH15"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="AG5:AH5"/>
@@ -23188,23 +23205,12 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7AF2FCEE-B015-491D-BBC2-94A9F5D0C211}"/>
@@ -23477,8 +23483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48223F2-B9CE-4371-859A-91D2188CCC8F}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23680,13 +23686,13 @@
         <v>24</v>
       </c>
       <c r="AW1" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="AX1" s="170" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="AY1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -23839,7 +23845,7 @@
         <v>646</v>
       </c>
       <c r="M4" s="45" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q4" s="78" t="s">
         <v>654</v>
@@ -23910,7 +23916,7 @@
         <v>683</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="AB5" s="99" t="s">
         <v>90</v>
@@ -23919,10 +23925,10 @@
         <v>597</v>
       </c>
       <c r="AW5" s="65" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="AX5" s="65" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -24192,31 +24198,31 @@
         <v>678</v>
       </c>
       <c r="AL10" s="91" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AM10" s="89" t="s">
         <v>1033</v>
-      </c>
-      <c r="AM10" s="89" t="s">
-        <v>1037</v>
       </c>
       <c r="AN10" s="65" t="s">
         <v>669</v>
       </c>
       <c r="AO10" s="95" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="AP10" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AQ10" s="65" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AR10" s="65" t="s">
         <v>1031</v>
-      </c>
-      <c r="AQ10" s="65" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AR10" s="65" t="s">
-        <v>1035</v>
       </c>
       <c r="AS10" s="65" t="s">
         <v>197</v>
       </c>
       <c r="AT10" s="89" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AU10" s="65" t="s">
         <v>200</v>

--- a/Web/coyni/resources/TestData_Api.xlsx
+++ b/Web/coyni/resources/TestData_Api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\March17Automation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\28-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C40A731-E2E4-443B-82C6-372C9185A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7736C-2E18-4DF8-B67D-8425C14B2D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="969" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="969" firstSheet="11" activeTab="11" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
   </bookViews>
   <sheets>
     <sheet name="IdentityVerification" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5377" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="1111">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2603,18 +2603,9 @@
     <t>Add New Team Member</t>
   </si>
   <si>
-    <t>Roshan</t>
-  </si>
-  <si>
     <t>Giel</t>
   </si>
   <si>
-    <t>roshang@gmail.com</t>
-  </si>
-  <si>
-    <t>9392247680</t>
-  </si>
-  <si>
     <t>Add Custom Role</t>
   </si>
   <si>
@@ -2634,9 +2625,6 @@
   </si>
   <si>
     <t>testBusinessSettingsTeamFilters</t>
-  </si>
-  <si>
-    <t>Team Filters</t>
   </si>
   <si>
     <t>testBusinessSettingsTeamSearch</t>
@@ -3161,9 +3149,6 @@
     <t>testBusinessSettingsGenerateAPIKeys</t>
   </si>
   <si>
-    <t>fdgjfjhgh</t>
-  </si>
-  <si>
     <t>Date Range</t>
   </si>
   <si>
@@ -3410,9 +3395,6 @@
     <t>Account Profile Image</t>
   </si>
   <si>
-    <t>coffee.jfif</t>
-  </si>
-  <si>
     <t>Remove Profile Image</t>
   </si>
   <si>
@@ -3423,13 +3405,61 @@
   </si>
   <si>
     <t>zibasuzi@altmails.com</t>
+  </si>
+  <si>
+    <t>idea.jpg</t>
+  </si>
+  <si>
+    <t>roleNewName</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>some@gmail.com</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>testTeamFilters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply Filters </t>
+  </si>
+  <si>
+    <t>Team Filter navigation</t>
+  </si>
+  <si>
+    <t>9395455756</t>
+  </si>
+  <si>
+    <t>Are You Sure You Want</t>
+  </si>
+  <si>
+    <t>removeheading</t>
+  </si>
+  <si>
+    <t>To Remove This User?</t>
+  </si>
+  <si>
+    <t>Near Me</t>
+  </si>
+  <si>
+    <t>mxuser</t>
+  </si>
+  <si>
+    <t>MX Bank</t>
+  </si>
+  <si>
+    <t>test101@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3800,6 +3830,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121417"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3923,7 +3959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4330,9 +4366,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4650,9 +4689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D053099-4F74-47B1-9FF1-7CB4BF479B81}">
   <dimension ref="A1:BP56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4926,10 +4965,10 @@
         <v>65</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" ht="16.5">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
@@ -4939,8 +4978,8 @@
       <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="180" t="s">
-        <v>1100</v>
+      <c r="D2" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>213</v>
@@ -4955,7 +4994,7 @@
         <v>415</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>214</v>
@@ -4977,13 +5016,13 @@
         <v>77</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>79</v>
@@ -4998,7 +5037,7 @@
         <v>82</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>83</v>
@@ -5043,7 +5082,7 @@
       <c r="BE2" s="4"/>
       <c r="BF2" s="4"/>
     </row>
-    <row r="3" spans="1:68" ht="16.5">
+    <row r="3" spans="1:68">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -5053,8 +5092,8 @@
       <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="180" t="s">
-        <v>1100</v>
+      <c r="D3" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>213</v>
@@ -5069,7 +5108,7 @@
         <v>415</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>214</v>
@@ -5084,16 +5123,16 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>79</v>
@@ -5108,7 +5147,7 @@
         <v>82</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>83</v>
@@ -5155,7 +5194,7 @@
       <c r="BE3" s="4"/>
       <c r="BF3" s="4"/>
     </row>
-    <row r="4" spans="1:68" ht="16.5">
+    <row r="4" spans="1:68">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -5165,8 +5204,8 @@
       <c r="C4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="180" t="s">
-        <v>1100</v>
+      <c r="D4" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>213</v>
@@ -5181,7 +5220,7 @@
         <v>415</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>214</v>
@@ -5199,13 +5238,13 @@
         <v>94</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>79</v>
@@ -5220,7 +5259,7 @@
         <v>82</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>83</v>
@@ -5267,7 +5306,7 @@
       <c r="BE4" s="4"/>
       <c r="BF4" s="4"/>
     </row>
-    <row r="5" spans="1:68" ht="16.5">
+    <row r="5" spans="1:68">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -5277,8 +5316,8 @@
       <c r="C5" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="180" t="s">
-        <v>1100</v>
+      <c r="D5" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>213</v>
@@ -5293,7 +5332,7 @@
         <v>415</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>214</v>
@@ -5311,13 +5350,13 @@
         <v>98</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>79</v>
@@ -5332,7 +5371,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>83</v>
@@ -5379,7 +5418,7 @@
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
     </row>
-    <row r="6" spans="1:68" ht="16.5">
+    <row r="6" spans="1:68">
       <c r="A6" s="4" t="s">
         <v>87</v>
       </c>
@@ -5389,8 +5428,8 @@
       <c r="C6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="180" t="s">
-        <v>1100</v>
+      <c r="D6" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>213</v>
@@ -5405,7 +5444,7 @@
         <v>415</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>214</v>
@@ -5427,7 +5466,7 @@
         <v>78</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>79</v>
@@ -5442,7 +5481,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>83</v>
@@ -5489,7 +5528,7 @@
       <c r="BE6" s="4"/>
       <c r="BF6" s="4"/>
     </row>
-    <row r="7" spans="1:68" ht="16.5">
+    <row r="7" spans="1:68">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -5499,8 +5538,8 @@
       <c r="C7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="180" t="s">
-        <v>1100</v>
+      <c r="D7" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>213</v>
@@ -5515,7 +5554,7 @@
         <v>415</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>214</v>
@@ -5533,13 +5572,13 @@
         <v>77</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>79</v>
@@ -5554,7 +5593,7 @@
         <v>82</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>83</v>
@@ -5601,7 +5640,7 @@
       <c r="BE7" s="4"/>
       <c r="BF7" s="4"/>
     </row>
-    <row r="8" spans="1:68" ht="16.5">
+    <row r="8" spans="1:68">
       <c r="A8" s="4" t="s">
         <v>87</v>
       </c>
@@ -5611,8 +5650,8 @@
       <c r="C8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="180" t="s">
-        <v>1100</v>
+      <c r="D8" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>213</v>
@@ -5627,7 +5666,7 @@
         <v>415</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>214</v>
@@ -5645,13 +5684,13 @@
         <v>77</v>
       </c>
       <c r="Q8" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="S8" s="29" t="s">
         <v>956</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>960</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>79</v>
@@ -5666,7 +5705,7 @@
         <v>82</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>83</v>
@@ -5713,7 +5752,7 @@
       <c r="BE8" s="4"/>
       <c r="BF8" s="4"/>
     </row>
-    <row r="9" spans="1:68" ht="16.5">
+    <row r="9" spans="1:68">
       <c r="A9" s="4" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5762,8 @@
       <c r="C9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="180" t="s">
-        <v>1100</v>
+      <c r="D9" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>213</v>
@@ -5739,7 +5778,7 @@
         <v>415</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>214</v>
@@ -5757,13 +5796,13 @@
         <v>77</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>79</v>
@@ -5778,7 +5817,7 @@
         <v>82</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>83</v>
@@ -5825,7 +5864,7 @@
       <c r="BE9" s="4"/>
       <c r="BF9" s="4"/>
     </row>
-    <row r="10" spans="1:68" ht="16.5">
+    <row r="10" spans="1:68">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -5835,8 +5874,8 @@
       <c r="C10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="180" t="s">
-        <v>1100</v>
+      <c r="D10" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>213</v>
@@ -5851,7 +5890,7 @@
         <v>415</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>214</v>
@@ -5869,13 +5908,13 @@
         <v>77</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>79</v>
@@ -5890,7 +5929,7 @@
         <v>82</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>83</v>
@@ -5937,7 +5976,7 @@
       <c r="BE10" s="4"/>
       <c r="BF10" s="4"/>
     </row>
-    <row r="11" spans="1:68" ht="16.5">
+    <row r="11" spans="1:68">
       <c r="A11" s="4" t="s">
         <v>87</v>
       </c>
@@ -5947,8 +5986,8 @@
       <c r="C11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="180" t="s">
-        <v>1100</v>
+      <c r="D11" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>213</v>
@@ -5963,7 +6002,7 @@
         <v>415</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>214</v>
@@ -5981,13 +6020,13 @@
         <v>77</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>79</v>
@@ -6002,7 +6041,7 @@
         <v>82</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>83</v>
@@ -6049,7 +6088,7 @@
       <c r="BE11" s="4"/>
       <c r="BF11" s="4"/>
     </row>
-    <row r="12" spans="1:68" ht="16.5">
+    <row r="12" spans="1:68">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
@@ -6059,8 +6098,8 @@
       <c r="C12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="180" t="s">
-        <v>1100</v>
+      <c r="D12" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>213</v>
@@ -6075,7 +6114,7 @@
         <v>415</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>214</v>
@@ -6093,16 +6132,16 @@
         <v>77</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>80</v>
@@ -6114,7 +6153,7 @@
         <v>82</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>83</v>
@@ -6161,7 +6200,7 @@
       <c r="BE12" s="4"/>
       <c r="BF12" s="4"/>
     </row>
-    <row r="13" spans="1:68" ht="16.5">
+    <row r="13" spans="1:68">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -6171,8 +6210,8 @@
       <c r="C13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="180" t="s">
-        <v>1100</v>
+      <c r="D13" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>213</v>
@@ -6187,7 +6226,7 @@
         <v>415</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>214</v>
@@ -6205,13 +6244,13 @@
         <v>77</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>79</v>
@@ -6226,7 +6265,7 @@
         <v>82</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>83</v>
@@ -6273,7 +6312,7 @@
       <c r="BE13" s="4"/>
       <c r="BF13" s="4"/>
     </row>
-    <row r="14" spans="1:68" ht="16.5">
+    <row r="14" spans="1:68">
       <c r="A14" s="4" t="s">
         <v>87</v>
       </c>
@@ -6283,8 +6322,8 @@
       <c r="C14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="180" t="s">
-        <v>1100</v>
+      <c r="D14" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>213</v>
@@ -6299,7 +6338,7 @@
         <v>415</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>214</v>
@@ -6317,13 +6356,13 @@
         <v>77</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>79</v>
@@ -6332,13 +6371,13 @@
         <v>80</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>83</v>
@@ -6385,7 +6424,7 @@
       <c r="BE14" s="4"/>
       <c r="BF14" s="4"/>
     </row>
-    <row r="15" spans="1:68" ht="16.5">
+    <row r="15" spans="1:68">
       <c r="A15" s="4" t="s">
         <v>87</v>
       </c>
@@ -6395,8 +6434,8 @@
       <c r="C15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="180" t="s">
-        <v>1100</v>
+      <c r="D15" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>213</v>
@@ -6411,7 +6450,7 @@
         <v>415</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>214</v>
@@ -6429,13 +6468,13 @@
         <v>77</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>79</v>
@@ -6444,13 +6483,13 @@
         <v>80</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>83</v>
@@ -6497,7 +6536,7 @@
       <c r="BE15" s="4"/>
       <c r="BF15" s="4"/>
     </row>
-    <row r="16" spans="1:68" ht="16.5">
+    <row r="16" spans="1:68">
       <c r="A16" s="4" t="s">
         <v>87</v>
       </c>
@@ -6507,8 +6546,8 @@
       <c r="C16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="180" t="s">
-        <v>1100</v>
+      <c r="D16" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>213</v>
@@ -6523,7 +6562,7 @@
         <v>415</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>214</v>
@@ -6541,13 +6580,13 @@
         <v>77</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>79</v>
@@ -6562,7 +6601,7 @@
         <v>82</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>83</v>
@@ -6609,7 +6648,7 @@
       <c r="BE16" s="4"/>
       <c r="BF16" s="4"/>
     </row>
-    <row r="17" spans="1:58" ht="16.5">
+    <row r="17" spans="1:58">
       <c r="A17" s="4" t="s">
         <v>87</v>
       </c>
@@ -6619,8 +6658,8 @@
       <c r="C17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="180" t="s">
-        <v>1100</v>
+      <c r="D17" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>213</v>
@@ -6635,7 +6674,7 @@
         <v>415</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>214</v>
@@ -6653,13 +6692,13 @@
         <v>77</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>79</v>
@@ -6721,7 +6760,7 @@
       <c r="BE17" s="4"/>
       <c r="BF17" s="4"/>
     </row>
-    <row r="18" spans="1:58" ht="16.5">
+    <row r="18" spans="1:58">
       <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
@@ -6731,8 +6770,8 @@
       <c r="C18" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="180" t="s">
-        <v>1100</v>
+      <c r="D18" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>213</v>
@@ -6747,7 +6786,7 @@
         <v>415</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>214</v>
@@ -6765,13 +6804,13 @@
         <v>77</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>79</v>
@@ -6833,7 +6872,7 @@
       <c r="BE18" s="4"/>
       <c r="BF18" s="4"/>
     </row>
-    <row r="19" spans="1:58" ht="16.5">
+    <row r="19" spans="1:58">
       <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
@@ -6843,8 +6882,8 @@
       <c r="C19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="180" t="s">
-        <v>1100</v>
+      <c r="D19" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>213</v>
@@ -6859,7 +6898,7 @@
         <v>415</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>214</v>
@@ -6877,13 +6916,13 @@
         <v>77</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>79</v>
@@ -6945,7 +6984,7 @@
       <c r="BE19" s="4"/>
       <c r="BF19" s="4"/>
     </row>
-    <row r="20" spans="1:58" ht="16.5">
+    <row r="20" spans="1:58">
       <c r="A20" s="4" t="s">
         <v>148</v>
       </c>
@@ -6955,8 +6994,8 @@
       <c r="C20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="180" t="s">
-        <v>1100</v>
+      <c r="D20" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>213</v>
@@ -6971,7 +7010,7 @@
         <v>415</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>214</v>
@@ -6989,13 +7028,13 @@
         <v>150</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>151</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>152</v>
@@ -7051,7 +7090,7 @@
       <c r="BE20" s="4"/>
       <c r="BF20" s="4"/>
     </row>
-    <row r="21" spans="1:58" ht="16.5">
+    <row r="21" spans="1:58">
       <c r="A21" s="4" t="s">
         <v>155</v>
       </c>
@@ -7061,8 +7100,8 @@
       <c r="C21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="180" t="s">
-        <v>1100</v>
+      <c r="D21" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>213</v>
@@ -7077,7 +7116,7 @@
         <v>415</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>214</v>
@@ -7099,13 +7138,13 @@
         <v>77</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>79</v>
@@ -7120,7 +7159,7 @@
         <v>82</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>83</v>
@@ -7165,7 +7204,7 @@
       <c r="BE21" s="4"/>
       <c r="BF21" s="4"/>
     </row>
-    <row r="22" spans="1:58" ht="16.5">
+    <row r="22" spans="1:58">
       <c r="A22" s="4" t="s">
         <v>157</v>
       </c>
@@ -7175,8 +7214,8 @@
       <c r="C22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="180" t="s">
-        <v>1100</v>
+      <c r="D22" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>213</v>
@@ -7191,7 +7230,7 @@
         <v>415</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>214</v>
@@ -7259,7 +7298,7 @@
       <c r="BE22" s="4"/>
       <c r="BF22" s="4"/>
     </row>
-    <row r="23" spans="1:58" ht="16.5">
+    <row r="23" spans="1:58">
       <c r="A23" s="4" t="s">
         <v>165</v>
       </c>
@@ -7269,8 +7308,8 @@
       <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="180" t="s">
-        <v>1100</v>
+      <c r="D23" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>213</v>
@@ -7285,7 +7324,7 @@
         <v>415</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>214</v>
@@ -7303,7 +7342,7 @@
         <v>78</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>79</v>
@@ -7318,7 +7357,7 @@
         <v>82</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>83</v>
@@ -7367,7 +7406,7 @@
       <c r="BE23" s="4"/>
       <c r="BF23" s="4"/>
     </row>
-    <row r="24" spans="1:58" ht="16.5">
+    <row r="24" spans="1:58">
       <c r="A24" s="4" t="s">
         <v>169</v>
       </c>
@@ -7377,8 +7416,8 @@
       <c r="C24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="180" t="s">
-        <v>1100</v>
+      <c r="D24" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>213</v>
@@ -7393,7 +7432,7 @@
         <v>415</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>214</v>
@@ -7411,7 +7450,7 @@
         <v>78</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>79</v>
@@ -7426,7 +7465,7 @@
         <v>82</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>83</v>
@@ -7479,7 +7518,7 @@
       <c r="BE24" s="4"/>
       <c r="BF24" s="4"/>
     </row>
-    <row r="25" spans="1:58" ht="16.5">
+    <row r="25" spans="1:58">
       <c r="A25" s="4" t="s">
         <v>169</v>
       </c>
@@ -7489,8 +7528,8 @@
       <c r="C25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="180" t="s">
-        <v>1100</v>
+      <c r="D25" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>213</v>
@@ -7505,7 +7544,7 @@
         <v>415</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>214</v>
@@ -7521,7 +7560,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>79</v>
@@ -7536,7 +7575,7 @@
         <v>82</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>83</v>
@@ -7591,7 +7630,7 @@
       <c r="BE25" s="4"/>
       <c r="BF25" s="4"/>
     </row>
-    <row r="26" spans="1:58" ht="16.5">
+    <row r="26" spans="1:58">
       <c r="A26" s="4" t="s">
         <v>169</v>
       </c>
@@ -7601,8 +7640,8 @@
       <c r="C26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="180" t="s">
-        <v>1100</v>
+      <c r="D26" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>213</v>
@@ -7617,7 +7656,7 @@
         <v>415</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>214</v>
@@ -7635,7 +7674,7 @@
         <v>112</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>79</v>
@@ -7650,7 +7689,7 @@
         <v>82</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>83</v>
@@ -7705,7 +7744,7 @@
       <c r="BE26" s="4"/>
       <c r="BF26" s="4"/>
     </row>
-    <row r="27" spans="1:58" ht="16.5">
+    <row r="27" spans="1:58">
       <c r="A27" s="4" t="s">
         <v>169</v>
       </c>
@@ -7715,8 +7754,8 @@
       <c r="C27" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="180" t="s">
-        <v>1100</v>
+      <c r="D27" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>213</v>
@@ -7731,7 +7770,7 @@
         <v>415</v>
       </c>
       <c r="I27" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>214</v>
@@ -7749,7 +7788,7 @@
         <v>175</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>79</v>
@@ -7764,7 +7803,7 @@
         <v>82</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>83</v>
@@ -7819,7 +7858,7 @@
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
     </row>
-    <row r="28" spans="1:58" ht="16.5">
+    <row r="28" spans="1:58">
       <c r="A28" s="4" t="s">
         <v>169</v>
       </c>
@@ -7829,8 +7868,8 @@
       <c r="C28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="180" t="s">
-        <v>1100</v>
+      <c r="D28" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>213</v>
@@ -7845,7 +7884,7 @@
         <v>415</v>
       </c>
       <c r="I28" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>214</v>
@@ -7863,7 +7902,7 @@
         <v>177</v>
       </c>
       <c r="S28" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>79</v>
@@ -7878,7 +7917,7 @@
         <v>82</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>83</v>
@@ -7933,7 +7972,7 @@
       <c r="BE28" s="4"/>
       <c r="BF28" s="4"/>
     </row>
-    <row r="29" spans="1:58" ht="16.5">
+    <row r="29" spans="1:58">
       <c r="A29" s="4" t="s">
         <v>169</v>
       </c>
@@ -7943,8 +7982,8 @@
       <c r="C29" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="180" t="s">
-        <v>1100</v>
+      <c r="D29" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>213</v>
@@ -7959,7 +7998,7 @@
         <v>415</v>
       </c>
       <c r="I29" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>214</v>
@@ -7990,7 +8029,7 @@
         <v>82</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>83</v>
@@ -8045,7 +8084,7 @@
       <c r="BE29" s="4"/>
       <c r="BF29" s="4"/>
     </row>
-    <row r="30" spans="1:58" ht="16.5">
+    <row r="30" spans="1:58">
       <c r="A30" s="4" t="s">
         <v>169</v>
       </c>
@@ -8055,8 +8094,8 @@
       <c r="C30" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="180" t="s">
-        <v>1100</v>
+      <c r="D30" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>213</v>
@@ -8071,7 +8110,7 @@
         <v>415</v>
       </c>
       <c r="I30" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>214</v>
@@ -8104,7 +8143,7 @@
         <v>82</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>83</v>
@@ -8159,7 +8198,7 @@
       <c r="BE30" s="4"/>
       <c r="BF30" s="4"/>
     </row>
-    <row r="31" spans="1:58" ht="16.5">
+    <row r="31" spans="1:58">
       <c r="A31" s="4" t="s">
         <v>169</v>
       </c>
@@ -8169,8 +8208,8 @@
       <c r="C31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="180" t="s">
-        <v>1100</v>
+      <c r="D31" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>213</v>
@@ -8185,7 +8224,7 @@
         <v>415</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>214</v>
@@ -8203,7 +8242,7 @@
         <v>78</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
@@ -8216,7 +8255,7 @@
         <v>82</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>83</v>
@@ -8271,7 +8310,7 @@
       <c r="BE31" s="4"/>
       <c r="BF31" s="4"/>
     </row>
-    <row r="32" spans="1:58" ht="16.5">
+    <row r="32" spans="1:58">
       <c r="A32" s="4" t="s">
         <v>169</v>
       </c>
@@ -8281,8 +8320,8 @@
       <c r="C32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="180" t="s">
-        <v>1100</v>
+      <c r="D32" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>213</v>
@@ -8297,7 +8336,7 @@
         <v>415</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>214</v>
@@ -8315,7 +8354,7 @@
         <v>78</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>79</v>
@@ -8328,7 +8367,7 @@
         <v>82</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>83</v>
@@ -8383,7 +8422,7 @@
       <c r="BE32" s="4"/>
       <c r="BF32" s="4"/>
     </row>
-    <row r="33" spans="1:67" ht="16.5">
+    <row r="33" spans="1:67">
       <c r="A33" s="4" t="s">
         <v>169</v>
       </c>
@@ -8393,8 +8432,8 @@
       <c r="C33" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="180" t="s">
-        <v>1100</v>
+      <c r="D33" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>213</v>
@@ -8409,7 +8448,7 @@
         <v>415</v>
       </c>
       <c r="I33" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>214</v>
@@ -8427,7 +8466,7 @@
         <v>78</v>
       </c>
       <c r="S33" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>79</v>
@@ -8495,7 +8534,7 @@
       <c r="BE33" s="4"/>
       <c r="BF33" s="4"/>
     </row>
-    <row r="34" spans="1:67" ht="16.5">
+    <row r="34" spans="1:67">
       <c r="A34" s="4" t="s">
         <v>169</v>
       </c>
@@ -8505,8 +8544,8 @@
       <c r="C34" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="180" t="s">
-        <v>1100</v>
+      <c r="D34" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>213</v>
@@ -8521,7 +8560,7 @@
         <v>415</v>
       </c>
       <c r="I34" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>214</v>
@@ -8539,7 +8578,7 @@
         <v>78</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>79</v>
@@ -8609,7 +8648,7 @@
       <c r="BE34" s="4"/>
       <c r="BF34" s="4"/>
     </row>
-    <row r="35" spans="1:67" ht="16.5">
+    <row r="35" spans="1:67">
       <c r="A35" s="4" t="s">
         <v>169</v>
       </c>
@@ -8619,8 +8658,8 @@
       <c r="C35" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="180" t="s">
-        <v>1100</v>
+      <c r="D35" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>213</v>
@@ -8635,7 +8674,7 @@
         <v>415</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>214</v>
@@ -8653,7 +8692,7 @@
         <v>78</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>79</v>
@@ -8723,7 +8762,7 @@
       <c r="BE35" s="4"/>
       <c r="BF35" s="4"/>
     </row>
-    <row r="36" spans="1:67" ht="16.5">
+    <row r="36" spans="1:67">
       <c r="A36" s="4" t="s">
         <v>169</v>
       </c>
@@ -8733,8 +8772,8 @@
       <c r="C36" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="180" t="s">
-        <v>1100</v>
+      <c r="D36" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>213</v>
@@ -8749,7 +8788,7 @@
         <v>415</v>
       </c>
       <c r="I36" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>214</v>
@@ -8767,7 +8806,7 @@
         <v>78</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>79</v>
@@ -8782,7 +8821,7 @@
         <v>82</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y36" s="4" t="s">
         <v>83</v>
@@ -8835,7 +8874,7 @@
       <c r="BE36" s="4"/>
       <c r="BF36" s="4"/>
     </row>
-    <row r="37" spans="1:67" ht="16.5">
+    <row r="37" spans="1:67">
       <c r="A37" s="4" t="s">
         <v>169</v>
       </c>
@@ -8845,8 +8884,8 @@
       <c r="C37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="180" t="s">
-        <v>1100</v>
+      <c r="D37" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>213</v>
@@ -8861,7 +8900,7 @@
         <v>415</v>
       </c>
       <c r="I37" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>214</v>
@@ -8879,7 +8918,7 @@
         <v>78</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>79</v>
@@ -8892,7 +8931,7 @@
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>83</v>
@@ -8947,7 +8986,7 @@
       <c r="BE37" s="4"/>
       <c r="BF37" s="4"/>
     </row>
-    <row r="38" spans="1:67" ht="16.5">
+    <row r="38" spans="1:67">
       <c r="A38" s="4" t="s">
         <v>169</v>
       </c>
@@ -8957,8 +8996,8 @@
       <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="180" t="s">
-        <v>1100</v>
+      <c r="D38" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>213</v>
@@ -8973,7 +9012,7 @@
         <v>415</v>
       </c>
       <c r="I38" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>214</v>
@@ -8991,7 +9030,7 @@
         <v>78</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>79</v>
@@ -9006,7 +9045,7 @@
         <v>82</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>83</v>
@@ -9059,7 +9098,7 @@
       <c r="BE38" s="4"/>
       <c r="BF38" s="4"/>
     </row>
-    <row r="39" spans="1:67" ht="16.5">
+    <row r="39" spans="1:67">
       <c r="A39" s="4" t="s">
         <v>191</v>
       </c>
@@ -9069,8 +9108,8 @@
       <c r="C39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="180" t="s">
-        <v>1100</v>
+      <c r="D39" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>213</v>
@@ -9085,7 +9124,7 @@
         <v>415</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>214</v>
@@ -9103,7 +9142,7 @@
         <v>151</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>152</v>
@@ -9171,7 +9210,7 @@
       <c r="BE39" s="4"/>
       <c r="BF39" s="4"/>
     </row>
-    <row r="40" spans="1:67" ht="16.5">
+    <row r="40" spans="1:67">
       <c r="A40" s="4" t="s">
         <v>193</v>
       </c>
@@ -9181,8 +9220,8 @@
       <c r="C40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="180" t="s">
-        <v>1100</v>
+      <c r="D40" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>213</v>
@@ -9197,7 +9236,7 @@
         <v>415</v>
       </c>
       <c r="I40" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>214</v>
@@ -9217,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>79</v>
@@ -9232,7 +9271,7 @@
         <v>82</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="Y40" s="4" t="s">
         <v>83</v>
@@ -9287,7 +9326,7 @@
       <c r="BE40" s="4"/>
       <c r="BF40" s="4"/>
     </row>
-    <row r="41" spans="1:67" ht="16.5">
+    <row r="41" spans="1:67">
       <c r="A41" s="4" t="s">
         <v>194</v>
       </c>
@@ -9297,8 +9336,8 @@
       <c r="C41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="180" t="s">
-        <v>1100</v>
+      <c r="D41" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>213</v>
@@ -9313,7 +9352,7 @@
         <v>415</v>
       </c>
       <c r="I41" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>214</v>
@@ -9344,7 +9383,7 @@
         <v>200</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="Y41" s="4" t="s">
         <v>83</v>
@@ -9410,7 +9449,7 @@
       <c r="BF41" s="4"/>
       <c r="BG41" s="4"/>
     </row>
-    <row r="42" spans="1:67" ht="16.5">
+    <row r="42" spans="1:67">
       <c r="A42" s="4" t="s">
         <v>211</v>
       </c>
@@ -9420,8 +9459,8 @@
       <c r="C42" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="180" t="s">
-        <v>1100</v>
+      <c r="D42" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>213</v>
@@ -9436,7 +9475,7 @@
         <v>415</v>
       </c>
       <c r="I42" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>214</v>
@@ -9499,10 +9538,10 @@
         <v>217</v>
       </c>
       <c r="BL42" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BM42" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN42" s="17" t="s">
         <v>218</v>
@@ -9511,7 +9550,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="43" spans="1:67" ht="16.5">
+    <row r="43" spans="1:67">
       <c r="A43" s="4" t="s">
         <v>219</v>
       </c>
@@ -9521,8 +9560,8 @@
       <c r="C43" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="180" t="s">
-        <v>1100</v>
+      <c r="D43" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>213</v>
@@ -9537,7 +9576,7 @@
         <v>415</v>
       </c>
       <c r="I43" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>214</v>
@@ -9616,7 +9655,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:67" ht="16.5">
+    <row r="44" spans="1:67">
       <c r="A44" s="4" t="s">
         <v>219</v>
       </c>
@@ -9626,8 +9665,8 @@
       <c r="C44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="180" t="s">
-        <v>1100</v>
+      <c r="D44" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>213</v>
@@ -9642,7 +9681,7 @@
         <v>415</v>
       </c>
       <c r="I44" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>214</v>
@@ -9712,7 +9751,7 @@
       </c>
       <c r="BL44" s="17"/>
       <c r="BM44" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN44" s="17" t="s">
         <v>227</v>
@@ -9721,7 +9760,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:67" ht="16.5">
+    <row r="45" spans="1:67">
       <c r="A45" s="4" t="s">
         <v>219</v>
       </c>
@@ -9731,8 +9770,8 @@
       <c r="C45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="180" t="s">
-        <v>1100</v>
+      <c r="D45" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>213</v>
@@ -9747,7 +9786,7 @@
         <v>415</v>
       </c>
       <c r="I45" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>214</v>
@@ -9824,7 +9863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:67" ht="16.5">
+    <row r="46" spans="1:67">
       <c r="A46" s="4" t="s">
         <v>219</v>
       </c>
@@ -9834,8 +9873,8 @@
       <c r="C46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="180" t="s">
-        <v>1100</v>
+      <c r="D46" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>213</v>
@@ -9850,7 +9889,7 @@
         <v>415</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>214</v>
@@ -9920,14 +9959,14 @@
         <v>230</v>
       </c>
       <c r="BM46" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN46" s="17"/>
       <c r="BO46" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:67" ht="16.5">
+    <row r="47" spans="1:67">
       <c r="A47" s="4" t="s">
         <v>219</v>
       </c>
@@ -9937,8 +9976,8 @@
       <c r="C47" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="180" t="s">
-        <v>1100</v>
+      <c r="D47" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>213</v>
@@ -9953,7 +9992,7 @@
         <v>415</v>
       </c>
       <c r="I47" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>214</v>
@@ -10023,14 +10062,14 @@
         <v>230</v>
       </c>
       <c r="BM47" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN47" s="17" t="s">
         <v>227</v>
       </c>
       <c r="BO47" s="17"/>
     </row>
-    <row r="48" spans="1:67" ht="16.5">
+    <row r="48" spans="1:67">
       <c r="A48" s="4" t="s">
         <v>219</v>
       </c>
@@ -10040,8 +10079,8 @@
       <c r="C48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="180" t="s">
-        <v>1100</v>
+      <c r="D48" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>213</v>
@@ -10056,7 +10095,7 @@
         <v>415</v>
       </c>
       <c r="I48" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>214</v>
@@ -10126,7 +10165,7 @@
         <v>230</v>
       </c>
       <c r="BM48" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN48" s="17" t="s">
         <v>227</v>
@@ -10135,7 +10174,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:68" ht="16.5">
+    <row r="49" spans="1:68">
       <c r="A49" s="4" t="s">
         <v>219</v>
       </c>
@@ -10145,8 +10184,8 @@
       <c r="C49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="180" t="s">
-        <v>1100</v>
+      <c r="D49" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>213</v>
@@ -10161,7 +10200,7 @@
         <v>415</v>
       </c>
       <c r="I49" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>214</v>
@@ -10231,7 +10270,7 @@
         <v>230</v>
       </c>
       <c r="BM49" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN49" s="17" t="s">
         <v>227</v>
@@ -10240,7 +10279,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:68" ht="16.5">
+    <row r="50" spans="1:68">
       <c r="A50" s="19" t="s">
         <v>240</v>
       </c>
@@ -10250,8 +10289,8 @@
       <c r="C50" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="180" t="s">
-        <v>1100</v>
+      <c r="D50" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>213</v>
@@ -10266,7 +10305,7 @@
         <v>415</v>
       </c>
       <c r="I50" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>214</v>
@@ -10329,10 +10368,10 @@
         <v>217</v>
       </c>
       <c r="BL50" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BM50" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="BN50" s="17" t="s">
         <v>218</v>
@@ -10341,7 +10380,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:68" ht="16.5">
+    <row r="51" spans="1:68">
       <c r="A51" t="s">
         <v>241</v>
       </c>
@@ -10351,8 +10390,8 @@
       <c r="C51" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="180" t="s">
-        <v>1100</v>
+      <c r="D51" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>213</v>
@@ -10367,7 +10406,7 @@
         <v>415</v>
       </c>
       <c r="I51" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>214</v>
@@ -10384,7 +10423,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:68" ht="16.5">
+    <row r="52" spans="1:68">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -10394,8 +10433,8 @@
       <c r="C52" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="180" t="s">
-        <v>1100</v>
+      <c r="D52" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>213</v>
@@ -10410,7 +10449,7 @@
         <v>415</v>
       </c>
       <c r="I52" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>214</v>
@@ -10423,13 +10462,13 @@
         <v>246</v>
       </c>
       <c r="BA52" s="170" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="BG52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:68" ht="16.5">
+    <row r="53" spans="1:68">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -10439,8 +10478,8 @@
       <c r="C53" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="180" t="s">
-        <v>1100</v>
+      <c r="D53" s="178" t="s">
+        <v>1094</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>213</v>
@@ -10455,7 +10494,7 @@
         <v>415</v>
       </c>
       <c r="I53" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>214</v>
@@ -10477,7 +10516,7 @@
         <v>253</v>
       </c>
       <c r="BP53" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -10491,7 +10530,7 @@
         <v>68</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>213</v>
@@ -10506,7 +10545,7 @@
         <v>415</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>214</v>
@@ -10530,7 +10569,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>213</v>
@@ -10545,7 +10584,7 @@
         <v>415</v>
       </c>
       <c r="I55" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>214</v>
@@ -10572,7 +10611,7 @@
         <v>68</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>213</v>
@@ -10587,7 +10626,7 @@
         <v>415</v>
       </c>
       <c r="I56" s="45" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>214</v>
@@ -10723,10 +10762,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="162" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -10757,15 +10796,15 @@
         <v>73</v>
       </c>
       <c r="M2" s="163" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="162" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -10796,7 +10835,7 @@
         <v>73</v>
       </c>
       <c r="M3" s="163" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -10941,7 +10980,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>690</v>
@@ -11103,10 +11142,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="169" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -11235,7 +11274,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>703</v>
@@ -11403,10 +11442,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -11482,8 +11521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C13BE43-F382-436A-BAAC-4675AC294583}">
   <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11674,7 +11713,7 @@
         <v>713</v>
       </c>
       <c r="AT1" s="67" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:46">
@@ -11715,7 +11754,7 @@
         <v>669</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="N2" s="75" t="s">
         <v>671</v>
@@ -11753,10 +11792,10 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="65" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>68</v>
@@ -11811,13 +11850,13 @@
         <v>727</v>
       </c>
       <c r="Z3" s="69" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="AA3" s="69" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="AG3" s="108" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="AH3" s="108" t="s">
         <v>728</v>
@@ -11834,7 +11873,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>263</v>
+        <v>1110</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>213</v>
@@ -11857,26 +11896,26 @@
       <c r="K4" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AB4" s="107" t="s">
-        <v>597</v>
+      <c r="AB4" s="179" t="s">
+        <v>1109</v>
       </c>
       <c r="AC4" s="69" t="s">
-        <v>598</v>
+        <v>1108</v>
       </c>
       <c r="AD4" s="69" t="s">
-        <v>599</v>
+        <v>1108</v>
       </c>
       <c r="AP4" s="70" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AQ4" s="70" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AR4" s="70" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="AS4" s="70" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -11917,7 +11956,7 @@
       <c r="AE5" s="109"/>
       <c r="AF5" s="79"/>
       <c r="AM5" s="70" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AO5" s="79" t="s">
         <v>647</v>
@@ -11958,7 +11997,7 @@
         <v>73</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="AE6" s="109" t="s">
         <v>646</v>
@@ -11967,7 +12006,7 @@
         <v>647</v>
       </c>
       <c r="AL6" s="70" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -12008,7 +12047,7 @@
         <v>669</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="N7" s="75" t="s">
         <v>671</v>
@@ -12080,7 +12119,7 @@
         <v>737</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="N8" s="75" t="s">
         <v>652</v>
@@ -12119,10 +12158,10 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="69" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C9" s="112" t="s">
         <v>68</v>
@@ -12157,7 +12196,7 @@
       </c>
       <c r="AJ9" s="109"/>
       <c r="AK9" s="70" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -13293,10 +13332,10 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="161" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C26" s="70" t="s">
         <v>68</v>
@@ -13326,39 +13365,39 @@
         <v>73</v>
       </c>
       <c r="AT26" s="70" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{B3143CD2-5BBE-4060-81C6-1194A3250208}"/>
-    <hyperlink ref="D3:D25" r:id="rId2" display="afrinp@ideyalabs.com" xr:uid="{D22EDCF3-FEAA-41B6-A06C-8966FDF27684}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{3D595019-C142-4677-92B5-319CC9CC0652}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{92FF5ED2-F963-4444-B1EE-F6955B5034D5}"/>
-    <hyperlink ref="E4" r:id="rId5" xr:uid="{34283911-8BB1-48BC-83EC-9583689FA23B}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{91C15150-226A-41B7-A940-56712E2882AA}"/>
-    <hyperlink ref="E6" r:id="rId7" xr:uid="{DD9E5DF8-7D58-46DC-AAD8-938D606BE304}"/>
-    <hyperlink ref="E7" r:id="rId8" xr:uid="{D01D58B0-1866-4B11-B43A-4530828A802B}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{B2369E71-8DC6-4E53-A80A-CCE30CA5A3CD}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{C0FE9A28-A522-4EE8-92F4-C8D1FC749BA2}"/>
-    <hyperlink ref="E10" r:id="rId11" xr:uid="{F346AD70-33DB-4735-A73E-745C78357865}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{A12DA7F4-E159-48EF-9EE9-97C1739B40E4}"/>
-    <hyperlink ref="E12" r:id="rId13" xr:uid="{3C9EBB86-142D-4D56-87AE-6CB996CCE11A}"/>
-    <hyperlink ref="E13" r:id="rId14" xr:uid="{EE5DA959-3F0A-4D1D-8413-C8595B541D76}"/>
-    <hyperlink ref="E14" r:id="rId15" xr:uid="{B923EE4A-CB75-4FAE-8356-AB411FE07AC0}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{4D146611-F842-4580-9D9E-A00F8DA25431}"/>
-    <hyperlink ref="E16" r:id="rId17" xr:uid="{B9CB14ED-5CDE-4844-A988-DA2A4D6657EC}"/>
-    <hyperlink ref="E17" r:id="rId18" xr:uid="{967A5150-02E4-41DA-B781-6CBF8643AC5D}"/>
-    <hyperlink ref="E18" r:id="rId19" xr:uid="{5F2E8F09-A928-49DD-8264-EE0E5913C80D}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{72D966E9-C230-44BD-B345-B98E1277D77E}"/>
-    <hyperlink ref="E20" r:id="rId21" xr:uid="{1D201DA6-EDCD-41EE-A895-8061DC26FADC}"/>
-    <hyperlink ref="E21" r:id="rId22" xr:uid="{97259484-2B2A-4350-B142-EFBA7A780657}"/>
-    <hyperlink ref="E22" r:id="rId23" xr:uid="{BB6E1DD2-C89F-4BB3-8B92-18E95451BE63}"/>
-    <hyperlink ref="E23" r:id="rId24" xr:uid="{1B5EA857-6842-41B7-B33A-E548B9629931}"/>
-    <hyperlink ref="E24" r:id="rId25" xr:uid="{E4674C49-123A-4CA9-8A56-10D9710CA497}"/>
-    <hyperlink ref="E25" r:id="rId26" xr:uid="{925B3BC9-BC1F-4FC4-AC2B-56FF6195DB20}"/>
-    <hyperlink ref="D26" r:id="rId27" xr:uid="{F89906C1-1479-4530-BF0A-D0E79D734B3C}"/>
-    <hyperlink ref="E26" r:id="rId28" xr:uid="{0A966904-91AF-4C48-9317-0CF9B11C696E}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{3D595019-C142-4677-92B5-319CC9CC0652}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{92FF5ED2-F963-4444-B1EE-F6955B5034D5}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{34283911-8BB1-48BC-83EC-9583689FA23B}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{91C15150-226A-41B7-A940-56712E2882AA}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{DD9E5DF8-7D58-46DC-AAD8-938D606BE304}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{D01D58B0-1866-4B11-B43A-4530828A802B}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{B2369E71-8DC6-4E53-A80A-CCE30CA5A3CD}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{C0FE9A28-A522-4EE8-92F4-C8D1FC749BA2}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{F346AD70-33DB-4735-A73E-745C78357865}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{A12DA7F4-E159-48EF-9EE9-97C1739B40E4}"/>
+    <hyperlink ref="E12" r:id="rId12" xr:uid="{3C9EBB86-142D-4D56-87AE-6CB996CCE11A}"/>
+    <hyperlink ref="E13" r:id="rId13" xr:uid="{EE5DA959-3F0A-4D1D-8413-C8595B541D76}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{B923EE4A-CB75-4FAE-8356-AB411FE07AC0}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{4D146611-F842-4580-9D9E-A00F8DA25431}"/>
+    <hyperlink ref="E16" r:id="rId16" xr:uid="{B9CB14ED-5CDE-4844-A988-DA2A4D6657EC}"/>
+    <hyperlink ref="E17" r:id="rId17" xr:uid="{967A5150-02E4-41DA-B781-6CBF8643AC5D}"/>
+    <hyperlink ref="E18" r:id="rId18" xr:uid="{5F2E8F09-A928-49DD-8264-EE0E5913C80D}"/>
+    <hyperlink ref="E19" r:id="rId19" xr:uid="{72D966E9-C230-44BD-B345-B98E1277D77E}"/>
+    <hyperlink ref="E20" r:id="rId20" xr:uid="{1D201DA6-EDCD-41EE-A895-8061DC26FADC}"/>
+    <hyperlink ref="E21" r:id="rId21" xr:uid="{97259484-2B2A-4350-B142-EFBA7A780657}"/>
+    <hyperlink ref="E22" r:id="rId22" xr:uid="{BB6E1DD2-C89F-4BB3-8B92-18E95451BE63}"/>
+    <hyperlink ref="E23" r:id="rId23" xr:uid="{1B5EA857-6842-41B7-B33A-E548B9629931}"/>
+    <hyperlink ref="E24" r:id="rId24" xr:uid="{E4674C49-123A-4CA9-8A56-10D9710CA497}"/>
+    <hyperlink ref="E25" r:id="rId25" xr:uid="{925B3BC9-BC1F-4FC4-AC2B-56FF6195DB20}"/>
+    <hyperlink ref="D26" r:id="rId26" xr:uid="{F89906C1-1479-4530-BF0A-D0E79D734B3C}"/>
+    <hyperlink ref="E26" r:id="rId27" xr:uid="{0A966904-91AF-4C48-9317-0CF9B11C696E}"/>
+    <hyperlink ref="D4" r:id="rId28" xr:uid="{9568B19C-1247-4FF5-95C0-ACF852D0F9E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId29"/>
@@ -13491,7 +13530,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="41" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>793</v>
@@ -13554,15 +13593,15 @@
         <v>797</v>
       </c>
       <c r="AB2" s="84" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="41" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>68</v>
@@ -13634,7 +13673,7 @@
         <v>797</v>
       </c>
       <c r="AB3" s="84" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -13726,7 +13765,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75">
       <c r="A2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="B2" t="s">
         <v>803</v>
@@ -13784,8 +13823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90B7B4-591F-4170-B8B1-D2A1BC2AE55D}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13844,7 +13883,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M1" s="67" t="s">
         <v>401</v>
@@ -13861,10 +13900,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="138" t="s">
         <v>68</v>
@@ -13908,7 +13947,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>498</v>
@@ -13955,7 +13994,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>500</v>
@@ -14002,10 +14041,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>107</v>
@@ -14049,10 +14088,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>114</v>
@@ -14096,7 +14135,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B7" t="s">
         <v>807</v>
@@ -14143,7 +14182,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B8" t="s">
         <v>809</v>
@@ -14190,7 +14229,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B9" t="s">
         <v>813</v>
@@ -14235,7 +14274,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="69" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B10" t="s">
         <v>811</v>
@@ -14282,10 +14321,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="166" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C11" s="138" t="s">
         <v>68</v>
@@ -14315,6 +14354,9 @@
         <v>73</v>
       </c>
       <c r="L11" s="133"/>
+      <c r="P11" s="69" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -14572,7 +14614,7 @@
         <v>742</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>68</v>
@@ -14608,15 +14650,15 @@
         <v>743</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="B3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C3" s="70" t="s">
         <v>68</v>
@@ -14665,10 +14707,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215EAAD5-6ADA-4710-BC01-0B77C366C934}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14683,22 +14725,24 @@
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="58.140625" customWidth="1"/>
     <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="42" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
-    <col min="25" max="25" width="58" customWidth="1"/>
-    <col min="26" max="26" width="17" customWidth="1"/>
+    <col min="12" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="35.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1"/>
+    <col min="20" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="42" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="20" customWidth="1"/>
+    <col min="27" max="27" width="78.42578125" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:28">
       <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
@@ -14735,50 +14779,56 @@
       <c r="L1" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="46" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="99" t="s">
         <v>829</v>
       </c>
@@ -14815,8 +14865,9 @@
       <c r="L2" s="4" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>832</v>
       </c>
@@ -14850,52 +14901,55 @@
       <c r="K3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="P3" t="s">
         <v>835</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S3" s="131" t="s">
         <v>836</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="T3" s="143" t="s">
         <v>837</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="U3" s="143" t="s">
+        <v>1097</v>
+      </c>
+      <c r="V3" s="143" t="s">
+        <v>837</v>
+      </c>
+      <c r="W3" t="s">
+        <v>511</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="R3" s="131" t="s">
+      <c r="Y3" t="s">
         <v>839</v>
       </c>
-      <c r="S3" s="143" t="s">
+      <c r="AA3" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="T3" s="143" t="s">
-        <v>840</v>
-      </c>
-      <c r="U3" t="s">
-        <v>511</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="AB3" t="s">
         <v>841</v>
       </c>
-      <c r="W3" t="s">
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
         <v>842</v>
       </c>
-      <c r="Y3" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>845</v>
-      </c>
       <c r="B4" t="s">
-        <v>846</v>
+        <v>1102</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -14924,14 +14978,14 @@
       <c r="K4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>847</v>
+        <v>1100</v>
       </c>
       <c r="B5" t="s">
-        <v>848</v>
+        <v>1101</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>68</v>
@@ -14960,19 +15014,21 @@
       <c r="K5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="144" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="L5" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B6" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>263</v>
@@ -14998,19 +15054,19 @@
       <c r="K6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X6" s="145" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B7" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>263</v>
@@ -15036,19 +15092,19 @@
       <c r="K7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="X7" s="144" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Z7" s="145" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B8" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>263</v>
@@ -15074,13 +15130,16 @@
       <c r="K8" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Z8" s="144" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B9" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -15109,32 +15168,76 @@
       <c r="K9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="U9" t="s">
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B10" t="s">
+        <v>852</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>1106</v>
+      </c>
+      <c r="W10" t="s">
         <v>511</v>
       </c>
-      <c r="V9" t="s">
-        <v>857</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>857</v>
+      <c r="X10" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{47632F84-0A64-453A-A326-0D4288496663}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{84C3173E-9105-41C4-958F-836317386573}"/>
-    <hyperlink ref="P3" r:id="rId3" xr:uid="{4473879A-2977-4678-B49C-3001B6D350EA}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{2BE57D0F-48F4-4D93-8901-6D88850BBD80}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{A2BAA80C-675B-47E7-B66F-EB6A046D7C55}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{45E665A8-2C03-4F76-A875-3747A5BA7673}"/>
-    <hyperlink ref="X5" r:id="rId7" xr:uid="{964C8D56-4E20-4AB9-AF61-654C52BE1334}"/>
-    <hyperlink ref="E6" r:id="rId8" xr:uid="{DBE06AB8-71F3-42AF-B9F3-FA5CD76D0313}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{84B37500-8484-4AF6-80AC-FE5B6E647433}"/>
-    <hyperlink ref="E9" r:id="rId10" xr:uid="{25D74A10-BD9F-4150-AE26-E3B59D36308D}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{1E08E168-6D6B-4B5B-9F01-EF4936CA370A}"/>
-    <hyperlink ref="D3:D9" r:id="rId12" display="afrinp@ideyalabs.com" xr:uid="{6666A383-D904-47C2-A90F-AAB2B6C0FF67}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2BE57D0F-48F4-4D93-8901-6D88850BBD80}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{A2BAA80C-675B-47E7-B66F-EB6A046D7C55}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{45E665A8-2C03-4F76-A875-3747A5BA7673}"/>
+    <hyperlink ref="Z6" r:id="rId6" xr:uid="{964C8D56-4E20-4AB9-AF61-654C52BE1334}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{DBE06AB8-71F3-42AF-B9F3-FA5CD76D0313}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{84B37500-8484-4AF6-80AC-FE5B6E647433}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{25D74A10-BD9F-4150-AE26-E3B59D36308D}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{1E08E168-6D6B-4B5B-9F01-EF4936CA370A}"/>
+    <hyperlink ref="D3:D10" r:id="rId11" display="afrinp@ideyalabs.com" xr:uid="{6666A383-D904-47C2-A90F-AAB2B6C0FF67}"/>
+    <hyperlink ref="Q3" r:id="rId12" xr:uid="{2DC6CE49-F9EB-4735-B52F-E212055B5479}"/>
+    <hyperlink ref="E5" r:id="rId13" xr:uid="{F8800B44-3EAD-412A-A7A2-55D35FD19433}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{5450C7C1-D5D6-486D-B765-F2529D82A78D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -15200,10 +15303,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -15233,7 +15336,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="146" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -15249,7 +15352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12145198-802F-4084-8696-9B76CC609CEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -15952,10 +16055,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="135" t="s">
         <v>68</v>
@@ -15999,7 +16102,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B3" t="s">
         <v>498</v>
@@ -16046,7 +16149,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B4" t="s">
         <v>500</v>
@@ -16093,10 +16196,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C5" s="135" t="s">
         <v>107</v>
@@ -16140,10 +16243,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B6" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="135" t="s">
         <v>114</v>
@@ -16187,7 +16290,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B7" t="s">
         <v>807</v>
@@ -16234,7 +16337,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B8" t="s">
         <v>809</v>
@@ -16281,7 +16384,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B9" t="s">
         <v>813</v>
@@ -16326,7 +16429,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="B10" t="s">
         <v>811</v>
@@ -16373,10 +16476,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75">
       <c r="A11" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B11" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C11" s="135" t="s">
         <v>68</v>
@@ -16499,21 +16602,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -16543,13 +16646,13 @@
         <v>818</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -16633,10 +16736,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16666,21 +16769,21 @@
         <v>73</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>511</v>
       </c>
       <c r="N2" s="165" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16710,15 +16813,15 @@
         <v>73</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B4" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16748,15 +16851,15 @@
         <v>73</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="161" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B5" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -16786,7 +16889,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -16867,15 +16970,15 @@
         <v>50</v>
       </c>
       <c r="M1" s="142" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16905,10 +17008,10 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="M2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -16984,10 +17087,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="65" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17017,15 +17120,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="65" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="B3" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -17055,7 +17158,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -17135,13 +17238,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="142" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="M1" s="142" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N1" s="142" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="O1" s="142" t="s">
         <v>620</v>
@@ -17159,15 +17262,15 @@
         <v>51</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="33" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17197,30 +17300,30 @@
         <v>73</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="147"/>
       <c r="T2" s="148" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="33" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -17250,25 +17353,25 @@
         <v>73</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="M3" s="147"/>
       <c r="N3" s="33"/>
       <c r="O3" s="147"/>
       <c r="P3" s="149" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="Q3" s="149" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="R3" s="147"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="33" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -17300,22 +17403,22 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="9" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="O4" s="147"/>
       <c r="P4" s="149"/>
       <c r="Q4" s="149"/>
       <c r="R4" s="147" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="S4" s="150"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="99" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -17345,16 +17448,16 @@
         <v>73</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -17376,8 +17479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A6E033-CE06-44F8-913E-FBB8089C6909}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17437,10 +17540,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>465</v>
@@ -17451,10 +17554,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="65" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17484,15 +17587,15 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B3" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17522,19 +17625,19 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="M3" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="N3" t="s">
-        <v>1017</v>
+        <v>1107</v>
       </c>
       <c r="O3" t="s">
         <v>511</v>
       </c>
       <c r="P3" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -17606,7 +17709,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="M1" s="164" t="s">
         <v>50</v>
@@ -17614,10 +17717,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>68</v>
@@ -17647,15 +17750,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="B3" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17757,21 +17860,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -17801,13 +17904,13 @@
         <v>818</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -17907,25 +18010,25 @@
         <v>826</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>514</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>265</v>
@@ -17987,10 +18090,10 @@
     </row>
     <row r="2" spans="1:38" s="20" customFormat="1">
       <c r="A2" s="20" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C2" s="152" t="s">
         <v>68</v>
@@ -18020,21 +18123,21 @@
         <v>73</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="T2" s="167" t="s">
         <v>578</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="65" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C3" s="152" t="s">
         <v>68</v>
@@ -18064,15 +18167,15 @@
         <v>73</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B4" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C4" s="152" t="s">
         <v>68</v>
@@ -18104,10 +18207,10 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="166" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B5" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C5" s="152" t="s">
         <v>68</v>
@@ -18187,10 +18290,10 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="20" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B6" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C6" s="152" t="s">
         <v>68</v>
@@ -18270,10 +18373,10 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="20" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B7" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>68</v>
@@ -18305,10 +18408,10 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="58" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>68</v>
@@ -18344,10 +18447,10 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="58" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>100</v>
@@ -18383,10 +18486,10 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="58" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>104</v>
@@ -18422,10 +18525,10 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="58" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>107</v>
@@ -18461,10 +18564,10 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="58" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>114</v>
@@ -18500,10 +18603,10 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="58" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B13" s="58" t="s">
         <v>1027</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>1032</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>118</v>
@@ -18551,10 +18654,10 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="58" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>68</v>
@@ -18590,10 +18693,10 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="161" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>68</v>
@@ -18626,10 +18729,10 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C16" s="152" t="s">
         <v>68</v>
@@ -18659,22 +18762,22 @@
         <v>73</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="M16" s="155" t="s">
         <v>28</v>
       </c>
       <c r="N16" s="155" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="O16" s="155" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="Q16" s="152" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -19973,7 +20076,7 @@
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="45" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -20171,7 +20274,7 @@
         <v>397</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>68</v>
@@ -20403,10 +20506,10 @@
         <v>410</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>413</v>
@@ -20478,10 +20581,10 @@
         <v>410</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>413</v>
@@ -20557,10 +20660,10 @@
         <v>410</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>413</v>
@@ -20636,10 +20739,10 @@
         <v>410</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>413</v>
@@ -20954,10 +21057,10 @@
         <v>410</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>413</v>
@@ -21035,10 +21138,10 @@
         <v>410</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>413</v>
@@ -21116,10 +21219,10 @@
         <v>410</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>413</v>
@@ -21188,7 +21291,7 @@
         <v>411</v>
       </c>
       <c r="N12" s="156" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>411</v>
@@ -21270,10 +21373,10 @@
         <v>410</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>413</v>
@@ -21327,8 +21430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23823A83-AEEF-466A-B7B3-DCD585A4A113}">
   <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AQ20" sqref="AQ20"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21489,13 +21592,13 @@
         <v>467</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="AO1" s="3" t="s">
         <v>25</v>
@@ -21504,7 +21607,7 @@
         <v>26</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="51" customHeight="1">
@@ -22448,10 +22551,10 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="162" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B18" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>68</v>
@@ -22483,10 +22586,10 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="162" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="B19" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>68</v>
@@ -22516,21 +22619,21 @@
         <v>73</v>
       </c>
       <c r="AM19" s="155" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AO19" t="s">
         <v>84</v>
       </c>
       <c r="AP19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="162" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B20" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>68</v>
@@ -22560,13 +22663,13 @@
         <v>73</v>
       </c>
       <c r="AM20" s="155" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="AN20" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="AQ20" s="155" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -22842,7 +22945,7 @@
         <v>619</v>
       </c>
       <c r="BF1" s="68" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="BG1" s="68" t="s">
         <v>714</v>
@@ -22887,8 +22990,8 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="180"/>
       <c r="P2" s="4" t="s">
         <v>539</v>
       </c>
@@ -22911,8 +23014,8 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
@@ -22957,8 +23060,8 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
       <c r="P3" s="4" t="s">
         <v>539</v>
       </c>
@@ -22979,8 +23082,8 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="178"/>
+      <c r="AF3" s="180"/>
+      <c r="AG3" s="180"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
@@ -23025,8 +23128,8 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="178"/>
-      <c r="O4" s="178"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -23034,10 +23137,10 @@
         <v>377</v>
       </c>
       <c r="T4" s="59" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="U4" s="59" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="V4" s="59" t="s">
         <v>544</v>
@@ -23053,8 +23156,8 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="178"/>
-      <c r="AG4" s="178"/>
+      <c r="AF4" s="180"/>
+      <c r="AG4" s="180"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -23099,8 +23202,8 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="178"/>
-      <c r="O5" s="178"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -23129,8 +23232,8 @@
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="178"/>
-      <c r="AG5" s="178"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -23175,8 +23278,8 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="178"/>
-      <c r="O6" s="178"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -23205,8 +23308,8 @@
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="178"/>
-      <c r="AG6" s="178"/>
+      <c r="AF6" s="180"/>
+      <c r="AG6" s="180"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
@@ -23251,8 +23354,8 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -23273,10 +23376,10 @@
       <c r="AE7" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AF7" s="179" t="s">
+      <c r="AF7" s="181" t="s">
         <v>100</v>
       </c>
-      <c r="AG7" s="178"/>
+      <c r="AG7" s="180"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -23321,8 +23424,8 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="178"/>
-      <c r="O8" s="178"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -23389,8 +23492,8 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -23485,8 +23588,8 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="178"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -23581,8 +23684,8 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="178"/>
-      <c r="O11" s="178"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -23677,8 +23780,8 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
       <c r="P12" s="4" t="s">
         <v>539</v>
       </c>
@@ -23699,8 +23802,8 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="178"/>
+      <c r="AF12" s="180"/>
+      <c r="AG12" s="180"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4" t="s">
         <v>567</v>
@@ -23747,8 +23850,8 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -23765,8 +23868,8 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="178"/>
+      <c r="AF13" s="180"/>
+      <c r="AG13" s="180"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4" t="s">
@@ -23813,8 +23916,8 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -23831,8 +23934,8 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="178"/>
+      <c r="AF14" s="180"/>
+      <c r="AG14" s="180"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4" t="s">
@@ -23879,8 +23982,8 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -23897,8 +24000,8 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="178"/>
-      <c r="AG15" s="178"/>
+      <c r="AF15" s="180"/>
+      <c r="AG15" s="180"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="11" t="s">
@@ -23945,8 +24048,8 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -23963,8 +24066,8 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="178"/>
-      <c r="AG16" s="178"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="180"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="11" t="s">
@@ -24011,8 +24114,8 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -24029,8 +24132,8 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="178"/>
+      <c r="AF17" s="180"/>
+      <c r="AG17" s="180"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="11" t="s">
@@ -24077,8 +24180,8 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -24103,8 +24206,8 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="178"/>
-      <c r="AG18" s="178"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="180"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="11" t="s">
@@ -24151,12 +24254,12 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="174" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -24171,8 +24274,8 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="178"/>
-      <c r="AG19" s="178"/>
+      <c r="AF19" s="180"/>
+      <c r="AG19" s="180"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -24217,8 +24320,8 @@
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
       <c r="P20" s="4" t="s">
         <v>539</v>
       </c>
@@ -24241,8 +24344,8 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="178"/>
+      <c r="AF20" s="180"/>
+      <c r="AG20" s="180"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
@@ -24264,7 +24367,7 @@
         <v>591</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>68</v>
@@ -24319,8 +24422,8 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="178"/>
-      <c r="AG21" s="178"/>
+      <c r="AF21" s="180"/>
+      <c r="AG21" s="180"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -24333,7 +24436,7 @@
     </row>
     <row r="22" spans="1:60">
       <c r="A22" s="20" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B22" t="s">
         <v>709</v>
@@ -24403,24 +24506,24 @@
         <v>217</v>
       </c>
       <c r="AQ22" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="AS22" s="17" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="AT22" s="17" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="1:60">
       <c r="A23" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>68</v>
@@ -24460,10 +24563,10 @@
     </row>
     <row r="24" spans="1:60">
       <c r="A24" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>68</v>
@@ -24495,10 +24598,10 @@
     </row>
     <row r="25" spans="1:60">
       <c r="A25" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>68</v>
@@ -24530,10 +24633,10 @@
     </row>
     <row r="26" spans="1:60" ht="26.25">
       <c r="A26" s="69" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>68</v>
@@ -24581,16 +24684,16 @@
         <v>200</v>
       </c>
       <c r="BD26" s="79" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="BE26" s="69" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="BF26" s="69" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="BG26" s="108" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="BH26" s="108" t="s">
         <v>728</v>
@@ -24772,7 +24875,7 @@
         <v>515</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -24846,7 +24949,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>615</v>
@@ -24901,7 +25004,7 @@
         <v>590</v>
       </c>
       <c r="T3" s="64" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -24922,8 +25025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48223F2-B9CE-4371-859A-91D2188CCC8F}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25030,10 +25133,10 @@
         <v>56</v>
       </c>
       <c r="Q1" s="82" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="R1" s="82" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="S1" s="82" t="s">
         <v>617</v>
@@ -25126,13 +25229,13 @@
         <v>24</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="AX1" s="157" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="65" customFormat="1">
@@ -25196,10 +25299,10 @@
     </row>
     <row r="3" spans="1:51" s="65" customFormat="1">
       <c r="A3" s="65" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>68</v>
@@ -25232,10 +25335,10 @@
         <v>639</v>
       </c>
       <c r="M3" s="74" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Q3" s="78" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="W3" s="89" t="s">
         <v>641</v>
@@ -25249,10 +25352,10 @@
     </row>
     <row r="4" spans="1:51" s="65" customFormat="1">
       <c r="A4" s="65" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>68</v>
@@ -25288,10 +25391,10 @@
         <v>639</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="R4" s="98" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="W4" s="89" t="s">
         <v>641</v>
@@ -25306,15 +25409,15 @@
         <v>644</v>
       </c>
       <c r="AY4" s="45" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="1:51" s="65" customFormat="1">
       <c r="A5" s="65" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>68</v>
@@ -25347,16 +25450,16 @@
         <v>639</v>
       </c>
       <c r="M5" s="74" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="W5" s="158" t="s">
         <v>666</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="AB5" s="99" t="s">
         <v>90</v>
@@ -25365,18 +25468,18 @@
         <v>593</v>
       </c>
       <c r="AW5" s="65" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="AX5" s="65" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="65" customFormat="1">
       <c r="A6" s="65" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>68</v>
@@ -25409,10 +25512,10 @@
         <v>639</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="AD6" s="80" t="s">
         <v>646</v>
@@ -25596,7 +25699,7 @@
         <v>665</v>
       </c>
       <c r="AA9" s="168" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="AF9" s="89" t="s">
         <v>666</v>
@@ -25643,31 +25746,31 @@
         <v>661</v>
       </c>
       <c r="AL10" s="91" t="s">
+        <v>970</v>
+      </c>
+      <c r="AM10" s="89" t="s">
         <v>974</v>
-      </c>
-      <c r="AM10" s="89" t="s">
-        <v>978</v>
       </c>
       <c r="AN10" s="65" t="s">
         <v>652</v>
       </c>
       <c r="AO10" s="95" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="AP10" s="96" t="s">
+        <v>968</v>
+      </c>
+      <c r="AQ10" s="65" t="s">
+        <v>971</v>
+      </c>
+      <c r="AR10" s="65" t="s">
         <v>972</v>
-      </c>
-      <c r="AQ10" s="65" t="s">
-        <v>975</v>
-      </c>
-      <c r="AR10" s="65" t="s">
-        <v>976</v>
       </c>
       <c r="AS10" s="65" t="s">
         <v>197</v>
       </c>
       <c r="AT10" s="89" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="AU10" s="65" t="s">
         <v>200</v>

--- a/Web/coyni/resources/TestData_Api.xlsx
+++ b/Web/coyni/resources/TestData_Api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\28-03-2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\April 4\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D7736C-2E18-4DF8-B67D-8425C14B2D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B8FBB-25AD-4219-8CF6-D42B7A8FCB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="969" firstSheet="11" activeTab="11" xr2:uid="{CB8AE841-AFC2-4DEA-A837-AD06A354DD94}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5395" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="1122">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -2282,9 +2282,6 @@
     <t>Successfully</t>
   </si>
   <si>
-    <t>testBusinessSettingsDeleteExternalBank</t>
-  </si>
-  <si>
     <t>Delete External Bank Account</t>
   </si>
   <si>
@@ -3290,9 +3287,6 @@
     <t>verify Buy Token Bank Account Transaction details</t>
   </si>
   <si>
-    <t>testAddBankAccount</t>
-  </si>
-  <si>
     <t>testTokensTransferredActivityDetails</t>
   </si>
   <si>
@@ -3404,9 +3398,6 @@
     <t> Your Export is Being Prepared</t>
   </si>
   <si>
-    <t>zibasuzi@altmails.com</t>
-  </si>
-  <si>
     <t>idea.jpg</t>
   </si>
   <si>
@@ -3443,9 +3434,6 @@
     <t>To Remove This User?</t>
   </si>
   <si>
-    <t>Near Me</t>
-  </si>
-  <si>
     <t>mxuser</t>
   </si>
   <si>
@@ -3453,13 +3441,58 @@
   </si>
   <si>
     <t>test101@gmail.com</t>
+  </si>
+  <si>
+    <t>testBuyTokenAddBankAccount</t>
+  </si>
+  <si>
+    <t>testBusinessSettingsDeleteBankAccount</t>
+  </si>
+  <si>
+    <t>AAdmin@123</t>
+  </si>
+  <si>
+    <t>xubuzake@altmails.com</t>
+  </si>
+  <si>
+    <t>testApplicationAdditionalInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Info </t>
+  </si>
+  <si>
+    <t>wufimipi@altmails.com</t>
+  </si>
+  <si>
+    <t>testApplicationCancelled</t>
+  </si>
+  <si>
+    <t>Application Decline</t>
+  </si>
+  <si>
+    <t>lasijoci@altmails.com</t>
+  </si>
+  <si>
+    <t>luyowefi@altmails.com</t>
+  </si>
+  <si>
+    <t>dexifaso@altmails.com</t>
+  </si>
+  <si>
+    <t>test Forgot Password with invalid Create  Password</t>
+  </si>
+  <si>
+    <t>This email is not registered to an account in the coyni system.Forgot Email?</t>
+  </si>
+  <si>
+    <t>New End</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="61">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3836,6 +3869,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3959,7 +3999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4370,6 +4410,7 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
@@ -4687,11 +4728,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D053099-4F74-47B1-9FF1-7CB4BF479B81}">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4704,7 +4745,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="44.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="63.7109375" customWidth="1"/>
+    <col min="9" max="9" width="104.85546875" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
@@ -4965,7 +5006,7 @@
         <v>65</v>
       </c>
       <c r="BP1" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:68">
@@ -4979,7 +5020,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="178" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>213</v>
@@ -4993,8 +5034,8 @@
       <c r="H2" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I2" s="45" t="s">
-        <v>966</v>
+      <c r="I2" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>214</v>
@@ -5016,13 +5057,13 @@
         <v>77</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>79</v>
@@ -5037,7 +5078,7 @@
         <v>82</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>83</v>
@@ -5093,7 +5134,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>213</v>
@@ -5107,8 +5148,8 @@
       <c r="H3" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>966</v>
+      <c r="I3" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>214</v>
@@ -5123,16 +5164,16 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>79</v>
@@ -5147,7 +5188,7 @@
         <v>82</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>83</v>
@@ -5205,7 +5246,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>213</v>
@@ -5219,8 +5260,8 @@
       <c r="H4" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I4" s="45" t="s">
-        <v>966</v>
+      <c r="I4" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>214</v>
@@ -5238,13 +5279,13 @@
         <v>94</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>79</v>
@@ -5259,7 +5300,7 @@
         <v>82</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>83</v>
@@ -5317,7 +5358,7 @@
         <v>97</v>
       </c>
       <c r="D5" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>213</v>
@@ -5331,8 +5372,8 @@
       <c r="H5" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>966</v>
+      <c r="I5" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>214</v>
@@ -5350,13 +5391,13 @@
         <v>98</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R5" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>79</v>
@@ -5371,7 +5412,7 @@
         <v>82</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>83</v>
@@ -5429,7 +5470,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>213</v>
@@ -5443,8 +5484,8 @@
       <c r="H6" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="45" t="s">
-        <v>966</v>
+      <c r="I6" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>214</v>
@@ -5466,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>79</v>
@@ -5481,7 +5522,7 @@
         <v>82</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>83</v>
@@ -5539,7 +5580,7 @@
         <v>104</v>
       </c>
       <c r="D7" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>213</v>
@@ -5553,8 +5594,8 @@
       <c r="H7" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>966</v>
+      <c r="I7" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>214</v>
@@ -5572,13 +5613,13 @@
         <v>77</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>79</v>
@@ -5593,7 +5634,7 @@
         <v>82</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>83</v>
@@ -5651,7 +5692,7 @@
         <v>107</v>
       </c>
       <c r="D8" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>213</v>
@@ -5665,8 +5706,8 @@
       <c r="H8" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I8" s="45" t="s">
-        <v>966</v>
+      <c r="I8" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>214</v>
@@ -5684,13 +5725,13 @@
         <v>77</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>79</v>
@@ -5705,7 +5746,7 @@
         <v>82</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>83</v>
@@ -5763,7 +5804,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>213</v>
@@ -5777,8 +5818,8 @@
       <c r="H9" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>966</v>
+      <c r="I9" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>214</v>
@@ -5796,13 +5837,13 @@
         <v>77</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>112</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>79</v>
@@ -5817,7 +5858,7 @@
         <v>82</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>83</v>
@@ -5875,7 +5916,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>213</v>
@@ -5889,8 +5930,8 @@
       <c r="H10" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I10" s="45" t="s">
-        <v>966</v>
+      <c r="I10" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>214</v>
@@ -5908,13 +5949,13 @@
         <v>77</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>79</v>
@@ -5929,7 +5970,7 @@
         <v>82</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>83</v>
@@ -5987,7 +6028,7 @@
         <v>118</v>
       </c>
       <c r="D11" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>213</v>
@@ -6001,8 +6042,8 @@
       <c r="H11" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I11" s="45" t="s">
-        <v>966</v>
+      <c r="I11" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>214</v>
@@ -6020,13 +6061,13 @@
         <v>77</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>79</v>
@@ -6041,7 +6082,7 @@
         <v>82</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>83</v>
@@ -6099,7 +6140,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>213</v>
@@ -6113,8 +6154,8 @@
       <c r="H12" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I12" s="45" t="s">
-        <v>966</v>
+      <c r="I12" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>214</v>
@@ -6132,16 +6173,16 @@
         <v>77</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R12" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>80</v>
@@ -6153,7 +6194,7 @@
         <v>82</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>83</v>
@@ -6211,7 +6252,7 @@
         <v>125</v>
       </c>
       <c r="D13" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>213</v>
@@ -6225,8 +6266,8 @@
       <c r="H13" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I13" s="45" t="s">
-        <v>966</v>
+      <c r="I13" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>214</v>
@@ -6244,13 +6285,13 @@
         <v>77</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R13" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>79</v>
@@ -6265,7 +6306,7 @@
         <v>82</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>83</v>
@@ -6323,7 +6364,7 @@
         <v>130</v>
       </c>
       <c r="D14" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>213</v>
@@ -6337,8 +6378,8 @@
       <c r="H14" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I14" s="45" t="s">
-        <v>966</v>
+      <c r="I14" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>214</v>
@@ -6356,13 +6397,13 @@
         <v>77</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>79</v>
@@ -6371,13 +6412,13 @@
         <v>80</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>83</v>
@@ -6435,7 +6476,7 @@
         <v>132</v>
       </c>
       <c r="D15" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>213</v>
@@ -6449,8 +6490,8 @@
       <c r="H15" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I15" s="45" t="s">
-        <v>966</v>
+      <c r="I15" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>214</v>
@@ -6468,13 +6509,13 @@
         <v>77</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S15" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>79</v>
@@ -6483,13 +6524,13 @@
         <v>80</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>82</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>83</v>
@@ -6547,7 +6588,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>213</v>
@@ -6561,8 +6602,8 @@
       <c r="H16" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>966</v>
+      <c r="I16" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>214</v>
@@ -6580,13 +6621,13 @@
         <v>77</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R16" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S16" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>79</v>
@@ -6601,7 +6642,7 @@
         <v>82</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>83</v>
@@ -6659,7 +6700,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>213</v>
@@ -6673,8 +6714,8 @@
       <c r="H17" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I17" s="45" t="s">
-        <v>966</v>
+      <c r="I17" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>214</v>
@@ -6692,13 +6733,13 @@
         <v>77</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>79</v>
@@ -6771,7 +6812,7 @@
         <v>143</v>
       </c>
       <c r="D18" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>213</v>
@@ -6785,8 +6826,8 @@
       <c r="H18" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I18" s="45" t="s">
-        <v>966</v>
+      <c r="I18" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>214</v>
@@ -6804,13 +6845,13 @@
         <v>77</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S18" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>79</v>
@@ -6883,7 +6924,7 @@
         <v>146</v>
       </c>
       <c r="D19" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>213</v>
@@ -6897,8 +6938,8 @@
       <c r="H19" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>966</v>
+      <c r="I19" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>214</v>
@@ -6916,13 +6957,13 @@
         <v>77</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>79</v>
@@ -6995,7 +7036,7 @@
         <v>68</v>
       </c>
       <c r="D20" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>213</v>
@@ -7009,8 +7050,8 @@
       <c r="H20" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I20" s="45" t="s">
-        <v>966</v>
+      <c r="I20" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>214</v>
@@ -7028,13 +7069,13 @@
         <v>150</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>151</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>152</v>
@@ -7101,7 +7142,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>213</v>
@@ -7115,8 +7156,8 @@
       <c r="H21" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I21" s="45" t="s">
-        <v>966</v>
+      <c r="I21" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>214</v>
@@ -7138,13 +7179,13 @@
         <v>77</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>78</v>
       </c>
       <c r="S21" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>79</v>
@@ -7159,7 +7200,7 @@
         <v>82</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>83</v>
@@ -7215,7 +7256,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>213</v>
@@ -7229,8 +7270,8 @@
       <c r="H22" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I22" s="45" t="s">
-        <v>966</v>
+      <c r="I22" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>214</v>
@@ -7309,7 +7350,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>213</v>
@@ -7323,8 +7364,8 @@
       <c r="H23" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I23" s="45" t="s">
-        <v>966</v>
+      <c r="I23" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>214</v>
@@ -7342,7 +7383,7 @@
         <v>78</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>79</v>
@@ -7357,7 +7398,7 @@
         <v>82</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>83</v>
@@ -7417,7 +7458,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>213</v>
@@ -7431,8 +7472,8 @@
       <c r="H24" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I24" s="45" t="s">
-        <v>966</v>
+      <c r="I24" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>214</v>
@@ -7450,7 +7491,7 @@
         <v>78</v>
       </c>
       <c r="S24" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>79</v>
@@ -7465,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>83</v>
@@ -7529,7 +7570,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>213</v>
@@ -7543,8 +7584,8 @@
       <c r="H25" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I25" s="45" t="s">
-        <v>966</v>
+      <c r="I25" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>214</v>
@@ -7560,7 +7601,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>79</v>
@@ -7575,7 +7616,7 @@
         <v>82</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>83</v>
@@ -7641,7 +7682,7 @@
         <v>146</v>
       </c>
       <c r="D26" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>213</v>
@@ -7655,8 +7696,8 @@
       <c r="H26" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I26" s="45" t="s">
-        <v>966</v>
+      <c r="I26" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>214</v>
@@ -7674,7 +7715,7 @@
         <v>112</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>79</v>
@@ -7689,7 +7730,7 @@
         <v>82</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>83</v>
@@ -7755,7 +7796,7 @@
         <v>104</v>
       </c>
       <c r="D27" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>213</v>
@@ -7769,8 +7810,8 @@
       <c r="H27" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I27" s="45" t="s">
-        <v>966</v>
+      <c r="I27" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>214</v>
@@ -7788,7 +7829,7 @@
         <v>175</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>79</v>
@@ -7803,7 +7844,7 @@
         <v>82</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y27" s="4" t="s">
         <v>83</v>
@@ -7869,7 +7910,7 @@
         <v>107</v>
       </c>
       <c r="D28" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>213</v>
@@ -7883,8 +7924,8 @@
       <c r="H28" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I28" s="45" t="s">
-        <v>966</v>
+      <c r="I28" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>214</v>
@@ -7902,7 +7943,7 @@
         <v>177</v>
       </c>
       <c r="S28" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>79</v>
@@ -7917,7 +7958,7 @@
         <v>82</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y28" s="4" t="s">
         <v>83</v>
@@ -7983,7 +8024,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>213</v>
@@ -7997,8 +8038,8 @@
       <c r="H29" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I29" s="45" t="s">
-        <v>966</v>
+      <c r="I29" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>214</v>
@@ -8029,7 +8070,7 @@
         <v>82</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y29" s="4" t="s">
         <v>83</v>
@@ -8095,7 +8136,7 @@
         <v>118</v>
       </c>
       <c r="D30" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>213</v>
@@ -8109,8 +8150,8 @@
       <c r="H30" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>966</v>
+      <c r="I30" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>214</v>
@@ -8143,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y30" s="4" t="s">
         <v>83</v>
@@ -8209,7 +8250,7 @@
         <v>121</v>
       </c>
       <c r="D31" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>213</v>
@@ -8223,8 +8264,8 @@
       <c r="H31" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I31" s="45" t="s">
-        <v>966</v>
+      <c r="I31" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>214</v>
@@ -8242,7 +8283,7 @@
         <v>78</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
@@ -8255,7 +8296,7 @@
         <v>82</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y31" s="4" t="s">
         <v>83</v>
@@ -8321,7 +8362,7 @@
         <v>125</v>
       </c>
       <c r="D32" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>213</v>
@@ -8335,8 +8376,8 @@
       <c r="H32" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I32" s="45" t="s">
-        <v>966</v>
+      <c r="I32" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>214</v>
@@ -8354,7 +8395,7 @@
         <v>78</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>79</v>
@@ -8367,7 +8408,7 @@
         <v>82</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y32" s="4" t="s">
         <v>83</v>
@@ -8433,7 +8474,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>213</v>
@@ -8447,8 +8488,8 @@
       <c r="H33" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I33" s="45" t="s">
-        <v>966</v>
+      <c r="I33" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>214</v>
@@ -8466,7 +8507,7 @@
         <v>78</v>
       </c>
       <c r="S33" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>79</v>
@@ -8545,7 +8586,7 @@
         <v>132</v>
       </c>
       <c r="D34" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>213</v>
@@ -8559,8 +8600,8 @@
       <c r="H34" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I34" s="45" t="s">
-        <v>966</v>
+      <c r="I34" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>214</v>
@@ -8578,7 +8619,7 @@
         <v>78</v>
       </c>
       <c r="S34" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>79</v>
@@ -8659,7 +8700,7 @@
         <v>135</v>
       </c>
       <c r="D35" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>213</v>
@@ -8673,8 +8714,8 @@
       <c r="H35" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I35" s="45" t="s">
-        <v>966</v>
+      <c r="I35" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>214</v>
@@ -8692,7 +8733,7 @@
         <v>78</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>79</v>
@@ -8773,7 +8814,7 @@
         <v>139</v>
       </c>
       <c r="D36" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>213</v>
@@ -8787,8 +8828,8 @@
       <c r="H36" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I36" s="45" t="s">
-        <v>966</v>
+      <c r="I36" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>214</v>
@@ -8806,7 +8847,7 @@
         <v>78</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>79</v>
@@ -8821,7 +8862,7 @@
         <v>82</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y36" s="4" t="s">
         <v>83</v>
@@ -8885,7 +8926,7 @@
         <v>143</v>
       </c>
       <c r="D37" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>213</v>
@@ -8899,8 +8940,8 @@
       <c r="H37" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I37" s="45" t="s">
-        <v>966</v>
+      <c r="I37" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>214</v>
@@ -8918,7 +8959,7 @@
         <v>78</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>79</v>
@@ -8931,7 +8972,7 @@
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y37" s="4" t="s">
         <v>83</v>
@@ -8997,7 +9038,7 @@
         <v>93</v>
       </c>
       <c r="D38" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>213</v>
@@ -9011,8 +9052,8 @@
       <c r="H38" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I38" s="45" t="s">
-        <v>966</v>
+      <c r="I38" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>214</v>
@@ -9030,7 +9071,7 @@
         <v>78</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>79</v>
@@ -9045,7 +9086,7 @@
         <v>82</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y38" s="4" t="s">
         <v>83</v>
@@ -9109,7 +9150,7 @@
         <v>68</v>
       </c>
       <c r="D39" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>213</v>
@@ -9123,8 +9164,8 @@
       <c r="H39" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I39" s="45" t="s">
-        <v>966</v>
+      <c r="I39" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>214</v>
@@ -9142,7 +9183,7 @@
         <v>151</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>152</v>
@@ -9221,7 +9262,7 @@
         <v>68</v>
       </c>
       <c r="D40" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>213</v>
@@ -9235,8 +9276,8 @@
       <c r="H40" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I40" s="45" t="s">
-        <v>966</v>
+      <c r="I40" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>214</v>
@@ -9256,7 +9297,7 @@
         <v>78</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>79</v>
@@ -9271,7 +9312,7 @@
         <v>82</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="Y40" s="4" t="s">
         <v>83</v>
@@ -9337,7 +9378,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>213</v>
@@ -9351,8 +9392,8 @@
       <c r="H41" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I41" s="45" t="s">
-        <v>966</v>
+      <c r="I41" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>214</v>
@@ -9383,7 +9424,7 @@
         <v>200</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Y41" s="4" t="s">
         <v>83</v>
@@ -9460,7 +9501,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>213</v>
@@ -9474,8 +9515,8 @@
       <c r="H42" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I42" s="45" t="s">
-        <v>966</v>
+      <c r="I42" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>214</v>
@@ -9538,10 +9579,10 @@
         <v>217</v>
       </c>
       <c r="BL42" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BM42" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN42" s="17" t="s">
         <v>218</v>
@@ -9561,7 +9602,7 @@
         <v>68</v>
       </c>
       <c r="D43" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>213</v>
@@ -9575,8 +9616,8 @@
       <c r="H43" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I43" s="45" t="s">
-        <v>966</v>
+      <c r="I43" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>214</v>
@@ -9666,7 +9707,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>213</v>
@@ -9680,8 +9721,8 @@
       <c r="H44" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I44" s="45" t="s">
-        <v>966</v>
+      <c r="I44" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>214</v>
@@ -9751,7 +9792,7 @@
       </c>
       <c r="BL44" s="17"/>
       <c r="BM44" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN44" s="17" t="s">
         <v>227</v>
@@ -9771,7 +9812,7 @@
         <v>104</v>
       </c>
       <c r="D45" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>213</v>
@@ -9785,8 +9826,8 @@
       <c r="H45" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I45" s="45" t="s">
-        <v>966</v>
+      <c r="I45" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>214</v>
@@ -9874,7 +9915,7 @@
         <v>107</v>
       </c>
       <c r="D46" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>213</v>
@@ -9888,8 +9929,8 @@
       <c r="H46" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I46" s="45" t="s">
-        <v>966</v>
+      <c r="I46" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>214</v>
@@ -9959,7 +10000,7 @@
         <v>230</v>
       </c>
       <c r="BM46" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN46" s="17"/>
       <c r="BO46" s="17" t="s">
@@ -9977,7 +10018,7 @@
         <v>114</v>
       </c>
       <c r="D47" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>213</v>
@@ -9991,8 +10032,8 @@
       <c r="H47" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I47" s="45" t="s">
-        <v>966</v>
+      <c r="I47" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>214</v>
@@ -10062,7 +10103,7 @@
         <v>230</v>
       </c>
       <c r="BM47" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN47" s="17" t="s">
         <v>227</v>
@@ -10080,7 +10121,7 @@
         <v>118</v>
       </c>
       <c r="D48" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>213</v>
@@ -10094,8 +10135,8 @@
       <c r="H48" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I48" s="45" t="s">
-        <v>966</v>
+      <c r="I48" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>214</v>
@@ -10165,7 +10206,7 @@
         <v>230</v>
       </c>
       <c r="BM48" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN48" s="17" t="s">
         <v>227</v>
@@ -10185,7 +10226,7 @@
         <v>121</v>
       </c>
       <c r="D49" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>213</v>
@@ -10199,8 +10240,8 @@
       <c r="H49" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I49" s="45" t="s">
-        <v>966</v>
+      <c r="I49" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>214</v>
@@ -10270,7 +10311,7 @@
         <v>230</v>
       </c>
       <c r="BM49" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN49" s="17" t="s">
         <v>227</v>
@@ -10290,7 +10331,7 @@
         <v>68</v>
       </c>
       <c r="D50" s="178" t="s">
-        <v>1094</v>
+        <v>1110</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>213</v>
@@ -10304,8 +10345,8 @@
       <c r="H50" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I50" s="45" t="s">
-        <v>966</v>
+      <c r="I50" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>214</v>
@@ -10368,10 +10409,10 @@
         <v>217</v>
       </c>
       <c r="BL50" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BM50" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="BN50" s="17" t="s">
         <v>218</v>
@@ -10391,7 +10432,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>213</v>
@@ -10405,8 +10446,8 @@
       <c r="H51" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I51" s="45" t="s">
-        <v>966</v>
+      <c r="I51" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>214</v>
@@ -10423,7 +10464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:68">
+    <row r="52" spans="1:68" ht="15.75" customHeight="1">
       <c r="A52" t="s">
         <v>244</v>
       </c>
@@ -10434,7 +10475,7 @@
         <v>68</v>
       </c>
       <c r="D52" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>213</v>
@@ -10448,8 +10489,8 @@
       <c r="H52" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I52" s="45" t="s">
-        <v>966</v>
+      <c r="I52" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>214</v>
@@ -10462,13 +10503,13 @@
         <v>246</v>
       </c>
       <c r="BA52" s="170" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="BG52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:68">
+    <row r="53" spans="1:68" ht="18.75" customHeight="1">
       <c r="A53" t="s">
         <v>248</v>
       </c>
@@ -10479,7 +10520,7 @@
         <v>68</v>
       </c>
       <c r="D53" s="178" t="s">
-        <v>1094</v>
+        <v>1118</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>213</v>
@@ -10493,8 +10534,8 @@
       <c r="H53" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I53" s="45" t="s">
-        <v>966</v>
+      <c r="I53" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>214</v>
@@ -10516,21 +10557,21 @@
         <v>253</v>
       </c>
       <c r="BP53" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="54" spans="1:68">
-      <c r="A54" s="20" t="s">
-        <v>254</v>
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68" ht="18" customHeight="1">
+      <c r="A54" t="s">
+        <v>1111</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>255</v>
+        <v>1112</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>955</v>
+      <c r="D54" s="178" t="s">
+        <v>1113</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>213</v>
@@ -10544,8 +10585,8 @@
       <c r="H54" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I54" s="45" t="s">
-        <v>966</v>
+      <c r="I54" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>214</v>
@@ -10554,22 +10595,26 @@
       <c r="L54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AZ54" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:68">
+      <c r="Z54" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA54" s="9"/>
+    </row>
+    <row r="55" spans="1:68" ht="18" customHeight="1">
       <c r="A55" t="s">
-        <v>257</v>
+        <v>1114</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>258</v>
+        <v>1115</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>955</v>
+      <c r="D55" s="178" t="s">
+        <v>1116</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>213</v>
@@ -10583,8 +10628,8 @@
       <c r="H55" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I55" s="45" t="s">
-        <v>966</v>
+      <c r="I55" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>214</v>
@@ -10593,25 +10638,22 @@
       <c r="L55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AZ55" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA55" s="7" t="s">
-        <v>260</v>
-      </c>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="BA55" s="9"/>
     </row>
     <row r="56" spans="1:68">
-      <c r="A56" t="s">
-        <v>261</v>
+      <c r="A56" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>213</v>
@@ -10625,8 +10667,8 @@
       <c r="H56" s="160" t="s">
         <v>415</v>
       </c>
-      <c r="I56" s="45" t="s">
-        <v>966</v>
+      <c r="I56" s="7" t="s">
+        <v>965</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>214</v>
@@ -10636,6 +10678,87 @@
         <v>73</v>
       </c>
       <c r="AZ56" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="160" t="s">
+        <v>415</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>259</v>
+      </c>
+      <c r="BA57" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="160" t="s">
+        <v>415</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ58" t="s">
         <v>256</v>
       </c>
     </row>
@@ -10679,9 +10802,9 @@
     <hyperlink ref="R38" r:id="rId35" display="mailto:Anudeep@gmail.com" xr:uid="{9AC9F70B-4CAF-4E5A-806C-6BDF0A101D07}"/>
     <hyperlink ref="R39" r:id="rId36" display="mailto:a@b.in,a@b.com,bcbcbcbcbcbcbcbcbcbcbcbcbcbccbcbcbcbcbcsdjcdchdfvhfbvhefbjevbejhvbjervbehrvbhjebvjebrevbherbvehrfbherfbherfbehjrfbjrehbjerbfjhrebfrhfbeferfbefhbrefhbrfherbfherbfhrebfrfbrhjfbrfehjrbfwehjbfwjerbfwejhfeferhjfbfberffbehfberfherbfbfbfbfbbffjeeeeeeeeeee@b.com,bcbcbcbcbcbcbcbcbcbcbcbcbcbccbcbcbcbcbcsdjcdchdfvhfbvhefbjevbejhvbjervbehrvbhjebvjebrevbherbvehrfbherfbherfbehjrfbjrehbjerbfjhrebfrhfbeferfbhefhbrefhbrfherbfherbfhrebfrfbrhjfbrfehjrbfwehjbfwjerbfwejhfeferhjfbfberffbehfberfherbfbfbfbfbbffjeeeeeeeeeee@b.com,bcbcbcbcbcbcbcbcbcbcbcbcbcbccbcbcbcbcbcsdjcdchdfvhfbvhefbjevbejhvbjervbehrvbhjebvjebrevbherbvehrfbherfbherfbehjrfbjrehbjerbfjhrebfrhfbeferfbhefhbrefhdbrfherbfherbfhrebfrfbrhjfbrfehjrbfwehjbfwjerbfwejhfeferhjfbfberffbehfberfherbfbfbfbfbbffjeeeeeeeeeee@b.com" xr:uid="{FBAFC758-F780-4189-B549-38A80EBF7FF7}"/>
     <hyperlink ref="R40" r:id="rId37" display="mailto:Anudeep@gmail.com" xr:uid="{28EABD89-A8B4-4589-8CD4-B41A58785934}"/>
-    <hyperlink ref="D56" r:id="rId38" xr:uid="{11130B32-3A47-4084-9015-A6B216F9BF09}"/>
-    <hyperlink ref="D54:D55" r:id="rId39" display="MounikaMada@ideyalabs.com" xr:uid="{EF0021C0-CE93-426B-B528-EBCE3A29D474}"/>
-    <hyperlink ref="E3:E56" r:id="rId40" display="Admin@123" xr:uid="{BA8BDC7D-126A-4FC1-9D3A-467432FC7B1E}"/>
+    <hyperlink ref="D58" r:id="rId38" xr:uid="{11130B32-3A47-4084-9015-A6B216F9BF09}"/>
+    <hyperlink ref="D56:D57" r:id="rId39" display="MounikaMada@ideyalabs.com" xr:uid="{EF0021C0-CE93-426B-B528-EBCE3A29D474}"/>
+    <hyperlink ref="E3:E58" r:id="rId40" display="Admin@123" xr:uid="{BA8BDC7D-126A-4FC1-9D3A-467432FC7B1E}"/>
     <hyperlink ref="R2" r:id="rId41" display="mailto:Anudeep@gmail.com" xr:uid="{9A963DF4-C33D-4858-A89D-1A04C6EDA232}"/>
     <hyperlink ref="S2" r:id="rId42" display="https://www.fakephonenumber.org/UnitedStates/phone_number/areacode/954207" xr:uid="{85861931-A570-41C9-8A5F-67FFBA97EA6D}"/>
     <hyperlink ref="S3:S9" r:id="rId43" display="https://www.fakephonenumber.org/UnitedStates/phone_number/areacode/954207" xr:uid="{CCCA4599-0E27-409C-B6E3-2452163FF103}"/>
@@ -10690,9 +10813,11 @@
     <hyperlink ref="S31:S38" r:id="rId46" display="https://www.fakephonenumber.org/UnitedStates/phone_number/areacode/954207" xr:uid="{65FE70AA-FE26-4549-8A20-3F543CBF9FBF}"/>
     <hyperlink ref="S40" r:id="rId47" display="https://www.fakephonenumber.org/UnitedStates/phone_number/areacode/954207" xr:uid="{7EA1C1A3-F402-4E2D-BF36-A8BFDE256392}"/>
     <hyperlink ref="S23:S28" r:id="rId48" display="https://www.fakephonenumber.org/UnitedStates/phone_number/areacode/954207" xr:uid="{1505CEDB-78F7-4F40-A211-78DEA3DD8FDB}"/>
+    <hyperlink ref="E54" r:id="rId49" xr:uid="{6562E3A9-150B-404E-A6B2-64C3746A3657}"/>
+    <hyperlink ref="E55" r:id="rId50" xr:uid="{8F206FBE-3DEE-4E69-91B3-0130339D198B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -10701,7 +10826,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10714,7 +10839,7 @@
     <col min="6" max="6" width="31.7109375" customWidth="1"/>
     <col min="7" max="7" width="52.28515625" customWidth="1"/>
     <col min="8" max="8" width="32.42578125" customWidth="1"/>
-    <col min="9" max="9" width="77.5703125" customWidth="1"/>
+    <col min="9" max="9" width="104.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="27.140625" customWidth="1"/>
     <col min="13" max="13" width="27.42578125" customWidth="1"/>
   </cols>
@@ -10762,10 +10887,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="162" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -10785,7 +10910,7 @@
       <c r="H2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -10796,15 +10921,15 @@
         <v>73</v>
       </c>
       <c r="M2" s="163" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="162" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -10824,7 +10949,7 @@
       <c r="H3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J3" s="5" t="s">
@@ -10835,15 +10960,15 @@
         <v>73</v>
       </c>
       <c r="M3" s="163" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{38CDEE34-5EA0-47EC-8447-D37F4F68AD30}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{8096B6CD-EA76-4C92-AC91-52938CF33A52}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{02E28C73-04D0-4D12-A9AA-711AE4730AE3}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{8F37378C-0C76-4E2F-B3B1-8934C2DF573F}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8096B6CD-EA76-4C92-AC91-52938CF33A52}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{02E28C73-04D0-4D12-A9AA-711AE4730AE3}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{8F37378C-0C76-4E2F-B3B1-8934C2DF573F}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{72D45622-D146-46F9-8A00-576BA4F17A4C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10980,7 +11105,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>690</v>
@@ -11142,10 +11267,10 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="169" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -11274,7 +11399,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>703</v>
@@ -11442,10 +11567,10 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -11522,7 +11647,7 @@
   <dimension ref="A1:AT26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11713,7 +11838,7 @@
         <v>713</v>
       </c>
       <c r="AT1" s="67" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2" spans="1:46">
@@ -11754,7 +11879,7 @@
         <v>669</v>
       </c>
       <c r="M2" s="70" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N2" s="75" t="s">
         <v>671</v>
@@ -11792,10 +11917,10 @@
     </row>
     <row r="3" spans="1:46">
       <c r="A3" s="65" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>68</v>
@@ -11850,13 +11975,13 @@
         <v>727</v>
       </c>
       <c r="Z3" s="69" t="s">
+        <v>986</v>
+      </c>
+      <c r="AA3" s="69" t="s">
         <v>987</v>
       </c>
-      <c r="AA3" s="69" t="s">
-        <v>988</v>
-      </c>
       <c r="AG3" s="108" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AH3" s="108" t="s">
         <v>728</v>
@@ -11873,7 +11998,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>213</v>
@@ -11897,33 +12022,33 @@
         <v>73</v>
       </c>
       <c r="AB4" s="179" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="AC4" s="69" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="AD4" s="69" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="AP4" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="AQ4" s="70" t="s">
+        <v>951</v>
+      </c>
+      <c r="AR4" s="70" t="s">
         <v>952</v>
       </c>
-      <c r="AQ4" s="70" t="s">
+      <c r="AS4" s="70" t="s">
         <v>952</v>
-      </c>
-      <c r="AR4" s="70" t="s">
-        <v>953</v>
-      </c>
-      <c r="AS4" s="70" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="69" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>729</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>730</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>68</v>
@@ -11956,7 +12081,7 @@
       <c r="AE5" s="109"/>
       <c r="AF5" s="79"/>
       <c r="AM5" s="70" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AO5" s="79" t="s">
         <v>647</v>
@@ -11964,10 +12089,10 @@
     </row>
     <row r="6" spans="1:46" ht="19.5" customHeight="1">
       <c r="A6" s="69" t="s">
+        <v>730</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>731</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>732</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>68</v>
@@ -11997,7 +12122,7 @@
         <v>73</v>
       </c>
       <c r="M6" s="70" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AE6" s="109" t="s">
         <v>646</v>
@@ -12006,15 +12131,15 @@
         <v>647</v>
       </c>
       <c r="AL6" s="70" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="69" t="s">
+        <v>732</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>733</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>734</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>68</v>
@@ -12047,7 +12172,7 @@
         <v>669</v>
       </c>
       <c r="M7" s="70" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N7" s="75" t="s">
         <v>671</v>
@@ -12083,10 +12208,10 @@
     </row>
     <row r="8" spans="1:46" ht="17.25" customHeight="1">
       <c r="A8" s="69" t="s">
+        <v>734</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>735</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>736</v>
       </c>
       <c r="C8" s="70" t="s">
         <v>68</v>
@@ -12116,28 +12241,28 @@
         <v>73</v>
       </c>
       <c r="L8" s="110" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M8" s="70" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N8" s="75" t="s">
         <v>652</v>
       </c>
       <c r="O8" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="P8" s="77" t="s">
         <v>738</v>
       </c>
-      <c r="P8" s="77" t="s">
+      <c r="Q8" s="69" t="s">
         <v>739</v>
-      </c>
-      <c r="Q8" s="69" t="s">
-        <v>740</v>
       </c>
       <c r="R8" s="69" t="s">
         <v>656</v>
       </c>
       <c r="S8" s="69" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T8" s="70" t="s">
         <v>657</v>
@@ -12158,10 +12283,10 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="69" t="s">
+        <v>981</v>
+      </c>
+      <c r="B9" s="111" t="s">
         <v>982</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>983</v>
       </c>
       <c r="C9" s="112" t="s">
         <v>68</v>
@@ -12196,15 +12321,15 @@
       </c>
       <c r="AJ9" s="109"/>
       <c r="AK9" s="70" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="69" t="s">
+        <v>743</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>744</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>745</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>68</v>
@@ -12258,7 +12383,7 @@
         <v>197</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U10" s="69" t="s">
         <v>200</v>
@@ -12275,10 +12400,10 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C11" s="112" t="s">
         <v>100</v>
@@ -12344,15 +12469,15 @@
         <v>588</v>
       </c>
       <c r="X11" s="124" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C12" s="112" t="s">
         <v>104</v>
@@ -12391,7 +12516,7 @@
         <v>671</v>
       </c>
       <c r="O12" s="69" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P12" s="121" t="s">
         <v>673</v>
@@ -12418,15 +12543,15 @@
         <v>588</v>
       </c>
       <c r="X12" s="124" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C13" s="112" t="s">
         <v>107</v>
@@ -12459,7 +12584,7 @@
         <v>669</v>
       </c>
       <c r="M13" s="125" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N13" s="75" t="s">
         <v>671</v>
@@ -12489,15 +12614,15 @@
         <v>588</v>
       </c>
       <c r="X13" s="126" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C14" s="112" t="s">
         <v>114</v>
@@ -12539,7 +12664,7 @@
         <v>672</v>
       </c>
       <c r="P14" s="70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q14" s="123" t="s">
         <v>655</v>
@@ -12563,15 +12688,15 @@
         <v>588</v>
       </c>
       <c r="X14" s="126" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="57.75" customHeight="1">
       <c r="A15" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C15" s="112" t="s">
         <v>146</v>
@@ -12616,7 +12741,7 @@
         <v>673</v>
       </c>
       <c r="Q15" s="127" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R15" s="123" t="s">
         <v>656</v>
@@ -12638,15 +12763,15 @@
       </c>
       <c r="X15" s="126"/>
       <c r="AN15" s="69" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C16" s="112" t="s">
         <v>118</v>
@@ -12709,15 +12834,15 @@
         <v>588</v>
       </c>
       <c r="X16" s="119" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>121</v>
@@ -12780,15 +12905,15 @@
         <v>588</v>
       </c>
       <c r="X17" s="126" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C18" s="112" t="s">
         <v>125</v>
@@ -12851,15 +12976,15 @@
         <v>588</v>
       </c>
       <c r="X18" s="126" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="1:46">
       <c r="A19" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C19" s="112" t="s">
         <v>135</v>
@@ -12924,10 +13049,10 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C20" s="112" t="s">
         <v>139</v>
@@ -12985,15 +13110,15 @@
         <v>588</v>
       </c>
       <c r="X20" s="119" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C21" s="112" t="s">
         <v>143</v>
@@ -13050,15 +13175,15 @@
         <v>588</v>
       </c>
       <c r="X21" s="119" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C22" s="112" t="s">
         <v>130</v>
@@ -13126,10 +13251,10 @@
     </row>
     <row r="23" spans="1:46">
       <c r="A23" s="69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C23" s="112" t="s">
         <v>132</v>
@@ -13192,15 +13317,15 @@
         <v>588</v>
       </c>
       <c r="X23" s="119" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="69" t="s">
+        <v>773</v>
+      </c>
+      <c r="B24" s="69" t="s">
         <v>774</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>775</v>
       </c>
       <c r="C24" s="112" t="s">
         <v>68</v>
@@ -13230,40 +13355,40 @@
         <v>73</v>
       </c>
       <c r="L24" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="M24" s="69" t="s">
         <v>776</v>
       </c>
-      <c r="M24" s="69" t="s">
+      <c r="O24" s="69" t="s">
         <v>777</v>
       </c>
-      <c r="O24" s="69" t="s">
+      <c r="P24" s="69" t="s">
         <v>778</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="Q24" s="69" t="s">
         <v>779</v>
       </c>
-      <c r="Q24" s="69" t="s">
+      <c r="R24" s="69" t="s">
+        <v>779</v>
+      </c>
+      <c r="S24" s="69" t="s">
         <v>780</v>
       </c>
-      <c r="R24" s="69" t="s">
-        <v>780</v>
-      </c>
-      <c r="S24" s="69" t="s">
+      <c r="U24" s="69" t="s">
         <v>781</v>
       </c>
-      <c r="U24" s="69" t="s">
+      <c r="W24" s="112" t="s">
         <v>782</v>
-      </c>
-      <c r="W24" s="112" t="s">
-        <v>783</v>
       </c>
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="69" t="s">
+        <v>783</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>784</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>785</v>
       </c>
       <c r="C25" s="112" t="s">
         <v>68</v>
@@ -13305,7 +13430,7 @@
         <v>672</v>
       </c>
       <c r="P25" s="77" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q25" s="69" t="s">
         <v>655</v>
@@ -13326,16 +13451,16 @@
         <v>83</v>
       </c>
       <c r="W25" s="70" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="161" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B26" s="69" t="s">
         <v>1006</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>1007</v>
       </c>
       <c r="C26" s="70" t="s">
         <v>68</v>
@@ -13365,7 +13490,7 @@
         <v>73</v>
       </c>
       <c r="AT26" s="70" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -13409,7 +13534,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13480,10 +13605,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="82" t="s">
+        <v>787</v>
+      </c>
+      <c r="N1" s="82" t="s">
         <v>788</v>
-      </c>
-      <c r="N1" s="82" t="s">
-        <v>789</v>
       </c>
       <c r="O1" s="82" t="s">
         <v>54</v>
@@ -13495,10 +13620,10 @@
         <v>56</v>
       </c>
       <c r="R1" s="82" t="s">
+        <v>789</v>
+      </c>
+      <c r="S1" s="82" t="s">
         <v>790</v>
-      </c>
-      <c r="S1" s="82" t="s">
-        <v>791</v>
       </c>
       <c r="T1" s="82" t="s">
         <v>619</v>
@@ -13522,7 +13647,7 @@
         <v>24</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AB1" s="82" t="s">
         <v>533</v>
@@ -13530,16 +13655,16 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="41" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>263</v>
+        <v>1106</v>
       </c>
       <c r="E2" s="85" t="s">
         <v>213</v>
@@ -13563,13 +13688,13 @@
         <v>73</v>
       </c>
       <c r="L2" s="88" t="s">
+        <v>793</v>
+      </c>
+      <c r="M2" s="88" t="s">
         <v>794</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="N2" s="88" t="s">
         <v>795</v>
-      </c>
-      <c r="N2" s="88" t="s">
-        <v>796</v>
       </c>
       <c r="O2" s="129" t="s">
         <v>597</v>
@@ -13590,18 +13715,18 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
       <c r="AA2" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AB2" s="84" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="41" t="s">
+        <v>975</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>976</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>977</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>68</v>
@@ -13631,13 +13756,13 @@
         <v>73</v>
       </c>
       <c r="L3" s="88" t="s">
+        <v>793</v>
+      </c>
+      <c r="M3" s="88" t="s">
         <v>794</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="N3" s="88" t="s">
         <v>795</v>
-      </c>
-      <c r="N3" s="88" t="s">
-        <v>796</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
@@ -13646,10 +13771,10 @@
         <v>727</v>
       </c>
       <c r="S3" s="41" t="s">
+        <v>797</v>
+      </c>
+      <c r="T3" s="41" t="s">
         <v>798</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>799</v>
       </c>
       <c r="U3" s="41" t="s">
         <v>655</v>
@@ -13661,27 +13786,27 @@
         <v>197</v>
       </c>
       <c r="X3" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y3" s="84" t="s">
         <v>800</v>
-      </c>
-      <c r="Y3" s="84" t="s">
-        <v>801</v>
       </c>
       <c r="Z3" s="41" t="s">
         <v>83</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AB3" s="84" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{CD37C644-3877-47AB-B37B-EB34588750B1}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{9487868F-6163-4DB5-9315-CB1AF5B8F8E0}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{CCDC3DA0-11CB-408E-A1B6-DF28E2AF6986}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{2D3D9122-C4EC-44F8-ABE1-8B9DB125CB77}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9487868F-6163-4DB5-9315-CB1AF5B8F8E0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{CCDC3DA0-11CB-408E-A1B6-DF28E2AF6986}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{2D3D9122-C4EC-44F8-ABE1-8B9DB125CB77}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{90D33F08-F52A-499C-B8BF-17BA9AF2D407}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13748,7 +13873,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>616</v>
@@ -13765,10 +13890,10 @@
     </row>
     <row r="2" spans="1:16" ht="15.75">
       <c r="A2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>68</v>
@@ -13798,16 +13923,16 @@
         <v>73</v>
       </c>
       <c r="L2" s="130" t="s">
+        <v>803</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>804</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>805</v>
       </c>
       <c r="N2" t="s">
         <v>511</v>
       </c>
       <c r="O2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -13883,7 +14008,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="67" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M1" s="67" t="s">
         <v>401</v>
@@ -13900,10 +14025,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="69" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1001</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1002</v>
       </c>
       <c r="C2" s="138" t="s">
         <v>68</v>
@@ -13947,7 +14072,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>498</v>
@@ -13994,7 +14119,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B4" t="s">
         <v>500</v>
@@ -14041,10 +14166,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C5" s="138" t="s">
         <v>107</v>
@@ -14088,10 +14213,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>114</v>
@@ -14135,10 +14260,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C7" s="138" t="s">
         <v>118</v>
@@ -14171,7 +14296,7 @@
         <v>263</v>
       </c>
       <c r="M7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N7" t="s">
         <v>119</v>
@@ -14182,10 +14307,10 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C8" s="138" t="s">
         <v>121</v>
@@ -14218,7 +14343,7 @@
         <v>263</v>
       </c>
       <c r="M8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N8" t="s">
         <v>119</v>
@@ -14229,10 +14354,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" s="138" t="s">
         <v>125</v>
@@ -14274,10 +14399,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="69" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" s="138" t="s">
         <v>130</v>
@@ -14310,7 +14435,7 @@
         <v>263</v>
       </c>
       <c r="M10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N10" t="s">
         <v>119</v>
@@ -14321,10 +14446,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="166" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B11" s="69" t="s">
         <v>1003</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>1004</v>
       </c>
       <c r="C11" s="138" t="s">
         <v>68</v>
@@ -14474,18 +14599,18 @@
         <v>50</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="58" t="s">
+        <v>815</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14522,13 +14647,13 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -14611,10 +14736,10 @@
     </row>
     <row r="2" spans="1:14" s="69" customFormat="1">
       <c r="A2" s="69" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C2" s="70" t="s">
         <v>68</v>
@@ -14647,18 +14772,18 @@
         <v>173</v>
       </c>
       <c r="M2" s="69" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N2" s="69" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C3" s="70" t="s">
         <v>68</v>
@@ -14691,7 +14816,7 @@
         <v>173</v>
       </c>
       <c r="M3" s="69" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -14780,10 +14905,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>41</v>
@@ -14792,48 +14917,48 @@
         <v>42</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>825</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>265</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>269</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>826</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>827</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="99" t="s">
+        <v>828</v>
+      </c>
+      <c r="B2" t="s">
         <v>829</v>
-      </c>
-      <c r="B2" t="s">
-        <v>830</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -14863,16 +14988,16 @@
         <v>73</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" t="s">
         <v>832</v>
-      </c>
-      <c r="B3" t="s">
-        <v>833</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>68</v>
@@ -14902,54 +15027,54 @@
         <v>73</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P3" t="s">
         <v>834</v>
       </c>
-      <c r="O3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S3" s="131" t="s">
         <v>835</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>1098</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S3" s="131" t="s">
+      <c r="T3" s="143" t="s">
         <v>836</v>
       </c>
-      <c r="T3" s="143" t="s">
-        <v>837</v>
-      </c>
       <c r="U3" s="143" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="V3" s="143" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="W3" t="s">
         <v>511</v>
       </c>
       <c r="X3" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y3" t="s">
         <v>838</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" t="s">
         <v>840</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B4" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>68</v>
@@ -14982,10 +15107,10 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="B5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>68</v>
@@ -15015,17 +15140,17 @@
         <v>73</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M5" s="4"/>
       <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" t="s">
         <v>843</v>
-      </c>
-      <c r="B6" t="s">
-        <v>844</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>68</v>
@@ -15060,10 +15185,10 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>100</v>
@@ -15093,15 +15218,15 @@
         <v>73</v>
       </c>
       <c r="Z7" s="145" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>104</v>
@@ -15131,15 +15256,15 @@
         <v>73</v>
       </c>
       <c r="Z8" s="144" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B9" t="s">
         <v>849</v>
-      </c>
-      <c r="B9" t="s">
-        <v>850</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>68</v>
@@ -15171,10 +15296,10 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" t="s">
+        <v>850</v>
+      </c>
+      <c r="B10" t="s">
         <v>851</v>
-      </c>
-      <c r="B10" t="s">
-        <v>852</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>68</v>
@@ -15204,19 +15329,19 @@
         <v>73</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="W10" t="s">
         <v>511</v>
       </c>
       <c r="X10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AA10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -15303,10 +15428,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B2" t="s">
         <v>854</v>
-      </c>
-      <c r="B2" t="s">
-        <v>855</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -15336,7 +15461,7 @@
         <v>73</v>
       </c>
       <c r="L2" s="146" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -15352,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12145198-802F-4084-8696-9B76CC609CEB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16055,10 +16180,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="135" t="s">
         <v>68</v>
@@ -16102,7 +16227,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B3" t="s">
         <v>498</v>
@@ -16149,7 +16274,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B4" t="s">
         <v>500</v>
@@ -16196,10 +16321,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C5" s="135" t="s">
         <v>107</v>
@@ -16243,10 +16368,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C6" s="135" t="s">
         <v>114</v>
@@ -16290,10 +16415,10 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C7" s="135" t="s">
         <v>118</v>
@@ -16326,7 +16451,7 @@
         <v>263</v>
       </c>
       <c r="M7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N7" t="s">
         <v>119</v>
@@ -16337,10 +16462,10 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1">
       <c r="A8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C8" s="135" t="s">
         <v>121</v>
@@ -16373,7 +16498,7 @@
         <v>263</v>
       </c>
       <c r="M8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N8" t="s">
         <v>119</v>
@@ -16384,10 +16509,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" s="135" t="s">
         <v>125</v>
@@ -16429,10 +16554,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C10" s="135" t="s">
         <v>130</v>
@@ -16465,7 +16590,7 @@
         <v>263</v>
       </c>
       <c r="M10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N10" t="s">
         <v>119</v>
@@ -16476,10 +16601,10 @@
     </row>
     <row r="11" spans="1:16" ht="15.75">
       <c r="A11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B11" t="s">
         <v>858</v>
-      </c>
-      <c r="B11" t="s">
-        <v>859</v>
       </c>
       <c r="C11" s="135" t="s">
         <v>68</v>
@@ -16602,21 +16727,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>863</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>864</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -16643,16 +16768,16 @@
         <v>214</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>866</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -16736,10 +16861,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" t="s">
         <v>868</v>
-      </c>
-      <c r="B2" t="s">
-        <v>869</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -16769,21 +16894,21 @@
         <v>73</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M2" s="33" t="s">
         <v>511</v>
       </c>
       <c r="N2" s="165" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B3" t="s">
         <v>871</v>
-      </c>
-      <c r="B3" t="s">
-        <v>872</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -16813,15 +16938,15 @@
         <v>73</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>872</v>
+      </c>
+      <c r="B4" t="s">
         <v>873</v>
-      </c>
-      <c r="B4" t="s">
-        <v>874</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -16851,15 +16976,15 @@
         <v>73</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="161" t="s">
+        <v>983</v>
+      </c>
+      <c r="B5" t="s">
         <v>984</v>
-      </c>
-      <c r="B5" t="s">
-        <v>985</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -16889,7 +17014,7 @@
         <v>73</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -16970,15 +17095,15 @@
         <v>50</v>
       </c>
       <c r="M1" s="142" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" t="s">
         <v>876</v>
-      </c>
-      <c r="B2" t="s">
-        <v>877</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17008,10 +17133,10 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
+        <v>877</v>
+      </c>
+      <c r="M2" t="s">
         <v>878</v>
-      </c>
-      <c r="M2" t="s">
-        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -17087,10 +17212,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="65" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" t="s">
         <v>880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>881</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17120,15 +17245,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="B3" t="s">
         <v>883</v>
-      </c>
-      <c r="B3" t="s">
-        <v>884</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -17158,7 +17283,7 @@
         <v>73</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>
@@ -17238,13 +17363,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="142" t="s">
+        <v>884</v>
+      </c>
+      <c r="M1" s="142" t="s">
         <v>885</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="N1" s="142" t="s">
         <v>886</v>
-      </c>
-      <c r="N1" s="142" t="s">
-        <v>887</v>
       </c>
       <c r="O1" s="142" t="s">
         <v>620</v>
@@ -17262,15 +17387,15 @@
         <v>51</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>889</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>890</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17300,30 +17425,30 @@
         <v>73</v>
       </c>
       <c r="L2" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="M2" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="N2" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="O2" s="7" t="s">
         <v>893</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>894</v>
       </c>
       <c r="P2" s="147"/>
       <c r="Q2" s="147"/>
       <c r="R2" s="147"/>
       <c r="T2" s="148" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>896</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>897</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>68</v>
@@ -17353,25 +17478,25 @@
         <v>73</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M3" s="147"/>
       <c r="N3" s="33"/>
       <c r="O3" s="147"/>
       <c r="P3" s="149" t="s">
+        <v>897</v>
+      </c>
+      <c r="Q3" s="149" t="s">
         <v>898</v>
-      </c>
-      <c r="Q3" s="149" t="s">
-        <v>899</v>
       </c>
       <c r="R3" s="147"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C4" s="34" t="s">
         <v>68</v>
@@ -17403,22 +17528,22 @@
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O4" s="147"/>
       <c r="P4" s="149"/>
       <c r="Q4" s="149"/>
       <c r="R4" s="147" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="S4" s="150"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="99" t="s">
+        <v>902</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>903</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>904</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>68</v>
@@ -17448,16 +17573,16 @@
         <v>73</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M5" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="N5" s="33" t="s">
         <v>905</v>
       </c>
-      <c r="N5" s="33" t="s">
-        <v>906</v>
-      </c>
       <c r="O5" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -17479,8 +17604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A6E033-CE06-44F8-913E-FBB8089C6909}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17540,10 +17665,10 @@
         <v>50</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>465</v>
@@ -17554,10 +17679,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="65" t="s">
+        <v>908</v>
+      </c>
+      <c r="B2" t="s">
         <v>909</v>
-      </c>
-      <c r="B2" t="s">
-        <v>910</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>68</v>
@@ -17587,15 +17712,15 @@
         <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17625,19 +17750,19 @@
         <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N3" t="s">
-        <v>1107</v>
+        <v>1121</v>
       </c>
       <c r="O3" t="s">
         <v>511</v>
       </c>
       <c r="P3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -17709,7 +17834,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M1" s="164" t="s">
         <v>50</v>
@@ -17717,10 +17842,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B2" t="s">
         <v>916</v>
-      </c>
-      <c r="B2" t="s">
-        <v>917</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>68</v>
@@ -17750,15 +17875,15 @@
         <v>73</v>
       </c>
       <c r="L2" s="48" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>68</v>
@@ -17860,21 +17985,21 @@
         <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>922</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>923</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>68</v>
@@ -17901,16 +18026,16 @@
         <v>214</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>925</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -18007,34 +18132,34 @@
         <v>11</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>927</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>514</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>929</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>930</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>265</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>516</v>
@@ -18090,10 +18215,10 @@
     </row>
     <row r="2" spans="1:38" s="20" customFormat="1">
       <c r="A2" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>932</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>933</v>
       </c>
       <c r="C2" s="152" t="s">
         <v>68</v>
@@ -18123,21 +18248,21 @@
         <v>73</v>
       </c>
       <c r="R2" s="155" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="T2" s="167" t="s">
         <v>578</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" s="65" t="s">
+        <v>940</v>
+      </c>
+      <c r="B3" t="s">
         <v>941</v>
-      </c>
-      <c r="B3" t="s">
-        <v>942</v>
       </c>
       <c r="C3" s="152" t="s">
         <v>68</v>
@@ -18167,15 +18292,15 @@
         <v>73</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" t="s">
         <v>1014</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1015</v>
       </c>
       <c r="C4" s="152" t="s">
         <v>68</v>
@@ -18207,10 +18332,10 @@
     </row>
     <row r="5" spans="1:38">
       <c r="A5" s="166" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="152" t="s">
         <v>68</v>
@@ -18290,10 +18415,10 @@
     </row>
     <row r="6" spans="1:38">
       <c r="A6" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C6" s="152" t="s">
         <v>68</v>
@@ -18373,10 +18498,10 @@
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" t="s">
         <v>1020</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1021</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>68</v>
@@ -18408,10 +18533,10 @@
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>68</v>
@@ -18447,10 +18572,10 @@
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>100</v>
@@ -18486,10 +18611,10 @@
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>104</v>
@@ -18525,10 +18650,10 @@
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>107</v>
@@ -18564,10 +18689,10 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>114</v>
@@ -18603,10 +18728,10 @@
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="58" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>118</v>
@@ -18654,10 +18779,10 @@
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="58" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>68</v>
@@ -18693,10 +18818,10 @@
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="161" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>68</v>
@@ -18729,10 +18854,10 @@
     </row>
     <row r="16" spans="1:38" s="20" customFormat="1">
       <c r="A16" s="20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="152" t="s">
         <v>68</v>
@@ -18762,22 +18887,22 @@
         <v>73</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M16" s="155" t="s">
         <v>28</v>
       </c>
       <c r="N16" s="155" t="s">
+        <v>936</v>
+      </c>
+      <c r="O16" s="155" t="s">
         <v>937</v>
       </c>
-      <c r="O16" s="155" t="s">
+      <c r="P16" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="P16" s="20" t="s">
+      <c r="Q16" s="152" t="s">
         <v>939</v>
-      </c>
-      <c r="Q16" s="152" t="s">
-        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -18814,8 +18939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF16F12E-5427-4B69-BE2C-6B0C1529FA9E}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18931,7 +19056,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>71</v>
@@ -18952,13 +19077,13 @@
         <v>329</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="Q2" s="29" t="s">
         <v>214</v>
@@ -18993,7 +19118,7 @@
         <v>70</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>71</v>
@@ -19053,7 +19178,7 @@
         <v>70</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>71</v>
@@ -19070,7 +19195,7 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -19111,7 +19236,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>71</v>
@@ -19128,7 +19253,7 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>332</v>
@@ -19171,7 +19296,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>71</v>
@@ -19188,7 +19313,7 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>342</v>
@@ -19233,7 +19358,7 @@
         <v>70</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>71</v>
@@ -19250,10 +19375,10 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>274</v>
@@ -19295,7 +19420,7 @@
         <v>70</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>71</v>
@@ -19312,7 +19437,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>332</v>
@@ -19357,7 +19482,7 @@
         <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>213</v>
+        <v>1109</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>71</v>
@@ -19374,7 +19499,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="6" t="s">
-        <v>274</v>
+        <v>1109</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>213</v>
@@ -19396,32 +19521,32 @@
   <hyperlinks>
     <hyperlink ref="O3" r:id="rId1" display="mailto:Apiadmin@1" xr:uid="{850F65ED-C7EF-41E4-B5AF-6E03570A2D47}"/>
     <hyperlink ref="P3" r:id="rId2" display="mailto:Apiadmin@1" xr:uid="{971FA203-659E-479F-A9A5-53788C1AD58A}"/>
-    <hyperlink ref="N4" r:id="rId3" display="mailto:Apiadmin@123" xr:uid="{32061F06-FDE0-47BD-BE41-202047E644DC}"/>
-    <hyperlink ref="N5" r:id="rId4" display="mailto:Apiadmin@123" xr:uid="{0CAEBE40-8A0D-4540-B255-E02949FA995E}"/>
-    <hyperlink ref="O5" r:id="rId5" display="mailto:Apiadmin@1" xr:uid="{CAB44621-1307-4B4F-81EB-4EEE52C6DBA1}"/>
-    <hyperlink ref="N6" r:id="rId6" display="mailto:Apiadmin@123" xr:uid="{730B8FB1-F570-4FB9-A5D0-1CC1232AD684}"/>
-    <hyperlink ref="O6" r:id="rId7" display="mailto:Apiadmin@12" xr:uid="{70FFD0E5-5FCD-40EB-9A30-460C266427F4}"/>
-    <hyperlink ref="P6" r:id="rId8" display="mailto:Apiadmin@123" xr:uid="{495D3C62-D671-4D98-8C7E-3830D67866E4}"/>
-    <hyperlink ref="N7" r:id="rId9" display="mailto:Apiadmin@123" xr:uid="{D06D9198-CD8B-406B-B8C0-D9EBB5CA7613}"/>
-    <hyperlink ref="O7" r:id="rId10" display="mailto:Apiadmin@123" xr:uid="{7FBEF393-A56A-45D0-8FA3-A750E2CA5765}"/>
-    <hyperlink ref="P7" r:id="rId11" display="mailto:Apiadmin@123" xr:uid="{C9EB78CA-5F9C-4C58-85BA-8DF0C19B74D7}"/>
-    <hyperlink ref="N8" r:id="rId12" display="mailto:Apiadmin@123" xr:uid="{3C5BDE57-84AC-4D4B-BCCF-A17A8DF02B23}"/>
-    <hyperlink ref="O8" r:id="rId13" display="mailto:Apiadmin@1" xr:uid="{B0C69DD2-5504-448A-AB16-7C01B9773EFB}"/>
-    <hyperlink ref="P8" r:id="rId14" display="mailto:Apiadmin@123" xr:uid="{ED26A8F5-DCB5-4AB5-84F5-EAF074C123CC}"/>
-    <hyperlink ref="N9" r:id="rId15" display="mailto:Apiadmin@123" xr:uid="{47CABA8A-A1FF-4147-A260-428EFB01C9DF}"/>
-    <hyperlink ref="O9" r:id="rId16" xr:uid="{5CE2AE56-8FDD-4076-BFB0-C69B7BBC74DB}"/>
-    <hyperlink ref="P9" r:id="rId17" xr:uid="{A844504C-8D40-46BC-8084-5BCD20305843}"/>
-    <hyperlink ref="G2" r:id="rId18" xr:uid="{DADCE8E5-386D-4B1B-A7EC-8552C751C808}"/>
-    <hyperlink ref="N2" r:id="rId19" xr:uid="{54DDA0F1-30D6-4574-B99A-A5B963D786AF}"/>
-    <hyperlink ref="G3" r:id="rId20" xr:uid="{CE3A206A-68BC-485C-809A-EF10DC5CCF56}"/>
-    <hyperlink ref="O2" r:id="rId21" xr:uid="{7D59764B-4361-4845-B65C-DB0D7BCE2B7A}"/>
-    <hyperlink ref="P2" r:id="rId22" xr:uid="{542190F2-75AC-4307-838A-6115CA2856A4}"/>
-    <hyperlink ref="G4" r:id="rId23" xr:uid="{A45E44CD-4A9A-4399-8C2E-96BAFF66000B}"/>
-    <hyperlink ref="G5" r:id="rId24" xr:uid="{18123D43-E540-424D-A28E-2DF923695093}"/>
-    <hyperlink ref="G6" r:id="rId25" xr:uid="{0C44550C-F007-455C-9404-55D076312630}"/>
-    <hyperlink ref="G7" r:id="rId26" xr:uid="{EC5B68F2-D4F1-4EB2-9C46-BA98E76767A7}"/>
-    <hyperlink ref="G8" r:id="rId27" xr:uid="{FC9063F8-8499-44D6-9B7E-FA47E8CF7097}"/>
-    <hyperlink ref="G9" r:id="rId28" xr:uid="{EEA35F26-6563-4A9C-8BA3-43447AF830F5}"/>
+    <hyperlink ref="O5" r:id="rId3" display="mailto:Apiadmin@1" xr:uid="{CAB44621-1307-4B4F-81EB-4EEE52C6DBA1}"/>
+    <hyperlink ref="O6" r:id="rId4" display="mailto:Apiadmin@12" xr:uid="{70FFD0E5-5FCD-40EB-9A30-460C266427F4}"/>
+    <hyperlink ref="P6" r:id="rId5" display="mailto:Apiadmin@123" xr:uid="{495D3C62-D671-4D98-8C7E-3830D67866E4}"/>
+    <hyperlink ref="P7" r:id="rId6" display="mailto:Apiadmin@123" xr:uid="{C9EB78CA-5F9C-4C58-85BA-8DF0C19B74D7}"/>
+    <hyperlink ref="O8" r:id="rId7" display="mailto:Apiadmin@1" xr:uid="{B0C69DD2-5504-448A-AB16-7C01B9773EFB}"/>
+    <hyperlink ref="P8" r:id="rId8" display="mailto:Apiadmin@123" xr:uid="{ED26A8F5-DCB5-4AB5-84F5-EAF074C123CC}"/>
+    <hyperlink ref="N9" r:id="rId9" xr:uid="{47CABA8A-A1FF-4147-A260-428EFB01C9DF}"/>
+    <hyperlink ref="O9" r:id="rId10" xr:uid="{5CE2AE56-8FDD-4076-BFB0-C69B7BBC74DB}"/>
+    <hyperlink ref="P9" r:id="rId11" xr:uid="{A844504C-8D40-46BC-8084-5BCD20305843}"/>
+    <hyperlink ref="N2" r:id="rId12" xr:uid="{54DDA0F1-30D6-4574-B99A-A5B963D786AF}"/>
+    <hyperlink ref="G3" r:id="rId13" xr:uid="{CE3A206A-68BC-485C-809A-EF10DC5CCF56}"/>
+    <hyperlink ref="O2" r:id="rId14" xr:uid="{7D59764B-4361-4845-B65C-DB0D7BCE2B7A}"/>
+    <hyperlink ref="P2" r:id="rId15" xr:uid="{542190F2-75AC-4307-838A-6115CA2856A4}"/>
+    <hyperlink ref="G2" r:id="rId16" xr:uid="{B7F01032-2D1E-4FF4-885C-4EB556432D86}"/>
+    <hyperlink ref="G4" r:id="rId17" xr:uid="{16A94361-B8AC-444C-90D3-83B6F1E7672F}"/>
+    <hyperlink ref="G5" r:id="rId18" xr:uid="{804C58DB-26AD-400F-B275-0169993BA2CA}"/>
+    <hyperlink ref="G6" r:id="rId19" xr:uid="{8C9BD207-CCF6-468E-B67B-A257E8933B1E}"/>
+    <hyperlink ref="G7" r:id="rId20" xr:uid="{FDBFC7C0-E6AE-4A59-AE7C-959D1CB07CBE}"/>
+    <hyperlink ref="G8" r:id="rId21" xr:uid="{6D3C12BF-27B0-48FC-857E-A239DA9063AA}"/>
+    <hyperlink ref="G9" r:id="rId22" xr:uid="{CCFA2252-BA6F-420B-A2B3-91C78C21FBC8}"/>
+    <hyperlink ref="N8" r:id="rId23" xr:uid="{2A1D6EF5-AF1B-431B-B1E0-D05FC7D0036F}"/>
+    <hyperlink ref="N7" r:id="rId24" xr:uid="{63B971DA-A8BC-4C21-A95C-70FAF06D96EC}"/>
+    <hyperlink ref="N5" r:id="rId25" xr:uid="{BFE894C7-B66B-4C78-BD84-DA495220B7FB}"/>
+    <hyperlink ref="N4" r:id="rId26" xr:uid="{174E759A-85F5-4C1F-9F1D-652A53FA917A}"/>
+    <hyperlink ref="N6" r:id="rId27" xr:uid="{29C1B949-C022-4B74-90E8-DD97FB9CC2F3}"/>
+    <hyperlink ref="O7" r:id="rId28" xr:uid="{0B41EB9C-BD13-4714-9B87-3180397151B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19431,8 +19556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399F6799-3722-4643-AEDB-ABCD13700A94}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19736,8 +19861,8 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
-      <c r="S5" s="36" t="s">
-        <v>375</v>
+      <c r="S5" s="180" t="s">
+        <v>1120</v>
       </c>
       <c r="T5" s="33" t="s">
         <v>90</v>
@@ -19978,7 +20103,7 @@
         <v>369</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>381</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>125</v>
@@ -20076,7 +20201,7 @@
       <c r="V11" s="41"/>
       <c r="W11" s="41"/>
       <c r="X11" s="45" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -20274,7 +20399,7 @@
         <v>397</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>68</v>
@@ -20330,6 +20455,7 @@
     <hyperlink ref="D2" r:id="rId5" xr:uid="{7C4C8061-A56A-4B11-BF15-6D965260B8AF}"/>
     <hyperlink ref="Q16" r:id="rId6" xr:uid="{C49FE3C8-9C1E-4545-B143-E56D958D924E}"/>
     <hyperlink ref="R16" r:id="rId7" xr:uid="{FCB8AED7-0DAE-494C-A853-9D2428E2C82E}"/>
+    <hyperlink ref="S5" r:id="rId8" display="https://api-admin-qa.coyni.com/login/forgot-email" xr:uid="{1CD7056F-C6C7-4304-A126-8BA556D0AB46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20506,10 +20632,10 @@
         <v>410</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>413</v>
@@ -20581,10 +20707,10 @@
         <v>410</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>413</v>
@@ -20660,10 +20786,10 @@
         <v>410</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>413</v>
@@ -20739,10 +20865,10 @@
         <v>410</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>413</v>
@@ -21057,10 +21183,10 @@
         <v>410</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>413</v>
@@ -21138,10 +21264,10 @@
         <v>410</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>413</v>
@@ -21219,10 +21345,10 @@
         <v>410</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>413</v>
@@ -21291,7 +21417,7 @@
         <v>411</v>
       </c>
       <c r="N12" s="156" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O12" s="44" t="s">
         <v>411</v>
@@ -21373,10 +21499,10 @@
         <v>410</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>413</v>
@@ -21592,13 +21718,13 @@
         <v>467</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>1085</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>1087</v>
       </c>
       <c r="AO1" s="3" t="s">
         <v>25</v>
@@ -21607,7 +21733,7 @@
         <v>26</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="51" customHeight="1">
@@ -22551,10 +22677,10 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="162" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B18" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>68</v>
@@ -22586,10 +22712,10 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="162" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B19" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>68</v>
@@ -22619,21 +22745,21 @@
         <v>73</v>
       </c>
       <c r="AM19" s="155" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AO19" t="s">
         <v>84</v>
       </c>
       <c r="AP19" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="162" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B20" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>68</v>
@@ -22663,13 +22789,13 @@
         <v>73</v>
       </c>
       <c r="AM20" s="155" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AN20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AQ20" s="155" t="s">
         <v>1089</v>
-      </c>
-      <c r="AQ20" s="155" t="s">
-        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -22708,7 +22834,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12:O12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22816,7 +22942,7 @@
         <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>514</v>
@@ -22945,7 +23071,7 @@
         <v>619</v>
       </c>
       <c r="BF1" s="68" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="BG1" s="68" t="s">
         <v>714</v>
@@ -22990,8 +23116,8 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="180"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
       <c r="P2" s="4" t="s">
         <v>539</v>
       </c>
@@ -23014,8 +23140,8 @@
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="180"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
@@ -23060,8 +23186,8 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="180"/>
+      <c r="N3" s="181"/>
+      <c r="O3" s="181"/>
       <c r="P3" s="4" t="s">
         <v>539</v>
       </c>
@@ -23082,8 +23208,8 @@
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c r="AF3" s="180"/>
-      <c r="AG3" s="180"/>
+      <c r="AF3" s="181"/>
+      <c r="AG3" s="181"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
@@ -23128,8 +23254,8 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -23137,10 +23263,10 @@
         <v>377</v>
       </c>
       <c r="T4" s="59" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="U4" s="59" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V4" s="59" t="s">
         <v>544</v>
@@ -23156,8 +23282,8 @@
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
-      <c r="AF4" s="180"/>
-      <c r="AG4" s="180"/>
+      <c r="AF4" s="181"/>
+      <c r="AG4" s="181"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -23202,8 +23328,8 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -23232,8 +23358,8 @@
       </c>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="180"/>
-      <c r="AG5" s="180"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -23278,8 +23404,8 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="181"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -23308,8 +23434,8 @@
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="180"/>
-      <c r="AG6" s="180"/>
+      <c r="AF6" s="181"/>
+      <c r="AG6" s="181"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
@@ -23354,8 +23480,8 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -23376,10 +23502,10 @@
       <c r="AE7" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="AF7" s="181" t="s">
+      <c r="AF7" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="AG7" s="180"/>
+      <c r="AG7" s="181"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -23424,8 +23550,8 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -23492,8 +23618,8 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -23588,8 +23714,8 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -23684,8 +23810,8 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -23780,8 +23906,8 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
       <c r="P12" s="4" t="s">
         <v>539</v>
       </c>
@@ -23802,8 +23928,8 @@
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="180"/>
-      <c r="AG12" s="180"/>
+      <c r="AF12" s="181"/>
+      <c r="AG12" s="181"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4" t="s">
         <v>567</v>
@@ -23850,8 +23976,8 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -23868,8 +23994,8 @@
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="180"/>
-      <c r="AG13" s="180"/>
+      <c r="AF13" s="181"/>
+      <c r="AG13" s="181"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4" t="s">
@@ -23916,8 +24042,8 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -23934,8 +24060,8 @@
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
-      <c r="AF14" s="180"/>
-      <c r="AG14" s="180"/>
+      <c r="AF14" s="181"/>
+      <c r="AG14" s="181"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4" t="s">
@@ -23982,8 +24108,8 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -24000,8 +24126,8 @@
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AF15" s="180"/>
-      <c r="AG15" s="180"/>
+      <c r="AF15" s="181"/>
+      <c r="AG15" s="181"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="11" t="s">
@@ -24048,8 +24174,8 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -24066,8 +24192,8 @@
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="180"/>
+      <c r="AF16" s="181"/>
+      <c r="AG16" s="181"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="11" t="s">
@@ -24114,8 +24240,8 @@
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -24132,8 +24258,8 @@
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
-      <c r="AF17" s="180"/>
-      <c r="AG17" s="180"/>
+      <c r="AF17" s="181"/>
+      <c r="AG17" s="181"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="11" t="s">
@@ -24180,8 +24306,8 @@
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -24206,8 +24332,8 @@
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
-      <c r="AF18" s="180"/>
-      <c r="AG18" s="180"/>
+      <c r="AF18" s="181"/>
+      <c r="AG18" s="181"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="11" t="s">
@@ -24254,12 +24380,12 @@
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="174" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -24274,8 +24400,8 @@
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
-      <c r="AF19" s="180"/>
-      <c r="AG19" s="180"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -24320,8 +24446,8 @@
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
       <c r="P20" s="4" t="s">
         <v>539</v>
       </c>
@@ -24344,8 +24470,8 @@
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
-      <c r="AF20" s="180"/>
-      <c r="AG20" s="180"/>
+      <c r="AF20" s="181"/>
+      <c r="AG20" s="181"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
@@ -24367,7 +24493,7 @@
         <v>591</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>68</v>
@@ -24422,8 +24548,8 @@
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
-      <c r="AF21" s="180"/>
-      <c r="AG21" s="180"/>
+      <c r="AF21" s="181"/>
+      <c r="AG21" s="181"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -24436,7 +24562,7 @@
     </row>
     <row r="22" spans="1:60">
       <c r="A22" s="20" t="s">
-        <v>1056</v>
+        <v>1107</v>
       </c>
       <c r="B22" t="s">
         <v>709</v>
@@ -24445,7 +24571,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>263</v>
+        <v>1106</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>213</v>
@@ -24506,24 +24632,24 @@
         <v>217</v>
       </c>
       <c r="AQ22" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AR22" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AS22" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AT22" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="23" spans="1:60">
       <c r="A23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B23" s="58" t="s">
         <v>1057</v>
-      </c>
-      <c r="B23" s="58" t="s">
-        <v>1059</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>68</v>
@@ -24563,10 +24689,10 @@
     </row>
     <row r="24" spans="1:60">
       <c r="A24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>1058</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>1060</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>68</v>
@@ -24598,10 +24724,10 @@
     </row>
     <row r="25" spans="1:60">
       <c r="A25" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>68</v>
@@ -24633,10 +24759,10 @@
     </row>
     <row r="26" spans="1:60" ht="26.25">
       <c r="A26" s="69" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>68</v>
@@ -24684,16 +24810,16 @@
         <v>200</v>
       </c>
       <c r="BD26" s="79" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="BE26" s="69" t="s">
+        <v>986</v>
+      </c>
+      <c r="BF26" s="69" t="s">
         <v>987</v>
       </c>
-      <c r="BF26" s="69" t="s">
-        <v>988</v>
-      </c>
       <c r="BG26" s="108" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="BH26" s="108" t="s">
         <v>728</v>
@@ -24701,23 +24827,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AF12:AG12"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="AF5:AG5"/>
@@ -24730,12 +24845,23 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AF21:AG21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{7AF2FCEE-B015-491D-BBC2-94A9F5D0C211}"/>
@@ -24760,15 +24886,15 @@
     <hyperlink ref="E20" r:id="rId20" xr:uid="{FD0C2460-01CE-479F-BD29-BF83F79B1ECA}"/>
     <hyperlink ref="E21" r:id="rId21" xr:uid="{83781D4F-3920-4F7E-8A7B-973CA82B2829}"/>
     <hyperlink ref="E22" r:id="rId22" xr:uid="{20858EEE-C45D-41C4-92FD-45A1D4321C5E}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{E3FEEB2E-47CD-4F8E-A525-03C72A3E388C}"/>
-    <hyperlink ref="E23" r:id="rId24" xr:uid="{83126ECC-D39D-412F-AF91-635A81491CAA}"/>
-    <hyperlink ref="D23" r:id="rId25" xr:uid="{98A1AB7F-AD2D-48CC-8512-E767EB17F441}"/>
-    <hyperlink ref="E24" r:id="rId26" xr:uid="{B80DE1EA-A4D0-4FB5-89C5-0A6F55E5D9F5}"/>
-    <hyperlink ref="D24" r:id="rId27" xr:uid="{D8340A86-78BD-4D16-A230-F035D06D47D1}"/>
-    <hyperlink ref="E25" r:id="rId28" xr:uid="{BBFADE66-A824-4B0D-9A86-3EC8EFD48D83}"/>
-    <hyperlink ref="D25" r:id="rId29" xr:uid="{2160AA7E-FE02-4818-8552-09F5E3A49E12}"/>
-    <hyperlink ref="D26" r:id="rId30" xr:uid="{A3647869-E171-4802-A9F4-A6687995724D}"/>
-    <hyperlink ref="E26" r:id="rId31" xr:uid="{C4BA36AB-8922-4BA1-AF35-BAA772058AFE}"/>
+    <hyperlink ref="E23" r:id="rId23" xr:uid="{83126ECC-D39D-412F-AF91-635A81491CAA}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{98A1AB7F-AD2D-48CC-8512-E767EB17F441}"/>
+    <hyperlink ref="E24" r:id="rId25" xr:uid="{B80DE1EA-A4D0-4FB5-89C5-0A6F55E5D9F5}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{D8340A86-78BD-4D16-A230-F035D06D47D1}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{BBFADE66-A824-4B0D-9A86-3EC8EFD48D83}"/>
+    <hyperlink ref="D25" r:id="rId28" xr:uid="{2160AA7E-FE02-4818-8552-09F5E3A49E12}"/>
+    <hyperlink ref="D26" r:id="rId29" xr:uid="{A3647869-E171-4802-A9F4-A6687995724D}"/>
+    <hyperlink ref="E26" r:id="rId30" xr:uid="{C4BA36AB-8922-4BA1-AF35-BAA772058AFE}"/>
+    <hyperlink ref="D22" r:id="rId31" xr:uid="{FB174023-CC5A-48DC-A183-0A38341AFF5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId32"/>
@@ -24875,7 +25001,7 @@
         <v>515</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -24949,7 +25075,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>615</v>
@@ -25004,7 +25130,7 @@
         <v>590</v>
       </c>
       <c r="T3" s="64" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -25025,8 +25151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48223F2-B9CE-4371-859A-91D2188CCC8F}">
   <dimension ref="A1:AY12"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BA19" sqref="BA19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25133,10 +25259,10 @@
         <v>56</v>
       </c>
       <c r="Q1" s="82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="R1" s="82" t="s">
         <v>1040</v>
-      </c>
-      <c r="R1" s="82" t="s">
-        <v>1041</v>
       </c>
       <c r="S1" s="82" t="s">
         <v>617</v>
@@ -25229,13 +25355,13 @@
         <v>24</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="AX1" s="157" t="s">
         <v>945</v>
       </c>
-      <c r="AX1" s="157" t="s">
-        <v>946</v>
-      </c>
       <c r="AY1" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="65" customFormat="1">
@@ -25249,7 +25375,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>263</v>
+        <v>1106</v>
       </c>
       <c r="E2" s="90" t="s">
         <v>213</v>
@@ -25299,10 +25425,10 @@
     </row>
     <row r="3" spans="1:51" s="65" customFormat="1">
       <c r="A3" s="65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C3" s="89" t="s">
         <v>68</v>
@@ -25335,10 +25461,10 @@
         <v>639</v>
       </c>
       <c r="M3" s="74" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q3" s="78" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W3" s="89" t="s">
         <v>641</v>
@@ -25352,10 +25478,10 @@
     </row>
     <row r="4" spans="1:51" s="65" customFormat="1">
       <c r="A4" s="65" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>68</v>
@@ -25391,10 +25517,10 @@
         <v>639</v>
       </c>
       <c r="Q4" s="78" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R4" s="98" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W4" s="89" t="s">
         <v>641</v>
@@ -25409,15 +25535,15 @@
         <v>644</v>
       </c>
       <c r="AY4" s="45" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="5" spans="1:51" s="65" customFormat="1">
       <c r="A5" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>68</v>
@@ -25450,16 +25576,16 @@
         <v>639</v>
       </c>
       <c r="M5" s="74" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q5" s="78" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W5" s="158" t="s">
         <v>666</v>
       </c>
       <c r="AA5" s="97" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AB5" s="99" t="s">
         <v>90</v>
@@ -25468,18 +25594,18 @@
         <v>593</v>
       </c>
       <c r="AW5" s="65" t="s">
+        <v>947</v>
+      </c>
+      <c r="AX5" s="65" t="s">
         <v>948</v>
-      </c>
-      <c r="AX5" s="65" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:51" s="65" customFormat="1">
       <c r="A6" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>68</v>
@@ -25512,10 +25638,10 @@
         <v>639</v>
       </c>
       <c r="M6" s="74" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q6" s="78" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AD6" s="80" t="s">
         <v>646</v>
@@ -25699,7 +25825,7 @@
         <v>665</v>
       </c>
       <c r="AA9" s="168" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AF9" s="89" t="s">
         <v>666</v>
@@ -25746,31 +25872,31 @@
         <v>661</v>
       </c>
       <c r="AL10" s="91" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AM10" s="89" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AN10" s="65" t="s">
         <v>652</v>
       </c>
       <c r="AO10" s="95" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AP10" s="96" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AQ10" s="65" t="s">
+        <v>970</v>
+      </c>
+      <c r="AR10" s="65" t="s">
         <v>971</v>
-      </c>
-      <c r="AR10" s="65" t="s">
-        <v>972</v>
       </c>
       <c r="AS10" s="65" t="s">
         <v>197</v>
       </c>
       <c r="AT10" s="89" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AU10" s="65" t="s">
         <v>200</v>
@@ -25899,28 +26025,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{FD171A78-C674-47E5-B76F-CA45DEE0098C}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{9C9BC181-38C8-476D-9525-92CF1860E5B9}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{F198D87E-F3F0-44E4-91BA-D3E0C92DC6AC}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{BE04808E-2EA5-4516-8CD2-4005A8313AB9}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{A9F7D3B6-B0F4-4C49-A24B-E587606A7151}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{92D33DC1-E934-422D-8B28-CCAEEB323195}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{A6389441-681D-41AE-B807-6FB8A6929B15}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{EF7643B9-00C0-4B49-9CF2-A60FFE36F900}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{8E7A92BC-246E-4B24-A31C-1C88E4A9ECF5}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{7FB59645-CF39-41BF-85C1-3985E9147491}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{8C97D3E1-193B-455B-A705-FAE697F891F2}"/>
-    <hyperlink ref="E8" r:id="rId12" xr:uid="{D5BA5270-F668-4BC8-95F6-6F81F97F23B8}"/>
-    <hyperlink ref="D9" r:id="rId13" xr:uid="{65A33DC8-32F1-4CB9-8439-325C84F986B1}"/>
-    <hyperlink ref="E9" r:id="rId14" xr:uid="{C493F7BA-6562-48D5-A8B5-DA970D407B14}"/>
-    <hyperlink ref="D10" r:id="rId15" xr:uid="{2800925E-A5B6-46A0-BA9C-DFCE79B81834}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{F1F5B151-C30D-4326-A083-2BFC6375A9BB}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{B7E9E440-D351-4CC9-8FB4-08FEDE80516B}"/>
-    <hyperlink ref="E11" r:id="rId18" xr:uid="{9D065DA6-EE26-4E9B-A610-07BA07774F9A}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{FF1EC82B-4092-45FD-BE53-FEE28F7BB3A9}"/>
-    <hyperlink ref="E12" r:id="rId20" xr:uid="{C69A8623-45A6-4971-949E-69BC93D0B60A}"/>
-    <hyperlink ref="D7" r:id="rId21" xr:uid="{3E98A3E5-3A59-4D44-8BA7-9A9488297B14}"/>
-    <hyperlink ref="E7" r:id="rId22" xr:uid="{8EE13C3E-6249-4E2F-A55E-0B468859206A}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9C9BC181-38C8-476D-9525-92CF1860E5B9}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F198D87E-F3F0-44E4-91BA-D3E0C92DC6AC}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{BE04808E-2EA5-4516-8CD2-4005A8313AB9}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{A9F7D3B6-B0F4-4C49-A24B-E587606A7151}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{92D33DC1-E934-422D-8B28-CCAEEB323195}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{A6389441-681D-41AE-B807-6FB8A6929B15}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{EF7643B9-00C0-4B49-9CF2-A60FFE36F900}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{8E7A92BC-246E-4B24-A31C-1C88E4A9ECF5}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{7FB59645-CF39-41BF-85C1-3985E9147491}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{8C97D3E1-193B-455B-A705-FAE697F891F2}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{D5BA5270-F668-4BC8-95F6-6F81F97F23B8}"/>
+    <hyperlink ref="D9" r:id="rId12" xr:uid="{65A33DC8-32F1-4CB9-8439-325C84F986B1}"/>
+    <hyperlink ref="E9" r:id="rId13" xr:uid="{C493F7BA-6562-48D5-A8B5-DA970D407B14}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{2800925E-A5B6-46A0-BA9C-DFCE79B81834}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{F1F5B151-C30D-4326-A083-2BFC6375A9BB}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{B7E9E440-D351-4CC9-8FB4-08FEDE80516B}"/>
+    <hyperlink ref="E11" r:id="rId17" xr:uid="{9D065DA6-EE26-4E9B-A610-07BA07774F9A}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{FF1EC82B-4092-45FD-BE53-FEE28F7BB3A9}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{C69A8623-45A6-4971-949E-69BC93D0B60A}"/>
+    <hyperlink ref="D7" r:id="rId20" xr:uid="{3E98A3E5-3A59-4D44-8BA7-9A9488297B14}"/>
+    <hyperlink ref="E7" r:id="rId21" xr:uid="{8EE13C3E-6249-4E2F-A55E-0B468859206A}"/>
+    <hyperlink ref="D2" r:id="rId22" xr:uid="{4A718B24-E048-4CE3-BBBF-5E1110365545}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
